--- a/2023/japan_j1-league_2023.xlsx
+++ b/2023/japan_j1-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V262"/>
+  <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>3.84</v>
+        <v>3.04</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.91</v>
+        <v>2.48</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>03/05/2023 06:59</t>
+          <t>03/05/2023 06:54</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.78</v>
+        <v>3.44</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>03/05/2023 06:58</t>
+          <t>03/05/2023 06:33</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.94</v>
+        <v>2.43</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.96</v>
+        <v>2.98</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>03/05/2023 06:59</t>
+          <t>03/05/2023 06:54</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kawasaki-frontale/2u7aN0lB/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-cerezo-osaka/KG14MK3H/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Cerezo Osaka</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
       <c r="J92" t="n">
-        <v>3.04</v>
+        <v>2.7</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/05/2023 06:54</t>
+          <t>03/05/2023 06:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/05/2023 06:33</t>
+          <t>03/05/2023 06:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.43</v>
+        <v>2.68</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.98</v>
+        <v>2.89</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/05/2023 06:54</t>
+          <t>03/05/2023 06:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-cerezo-osaka/KG14MK3H/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-kashima-antlers/Ol8eOtZ4/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,22 +8953,22 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.7</v>
+        <v>3.84</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.56</v>
+        <v>3.91</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,40 +8976,40 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.43</v>
+        <v>3.8</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>03/05/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>29/04/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>03/05/2023 06:59</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>29/04/2023 12:13</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>03/05/2023 06:58</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-kashima-antlers/Ol8eOtZ4/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kawasaki-frontale/2u7aN0lB/</t>
         </is>
       </c>
     </row>
@@ -22193,22 +22193,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -22216,15 +22216,15 @@
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>15/09/2023 12:28</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="N237" t="n">
-        <v>3.98</v>
+        <v>5.81</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -22232,15 +22232,15 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3.8</v>
+        <v>5.12</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>15/09/2023 12:29</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="R237" t="n">
-        <v>5.66</v>
+        <v>7.23</v>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -22248,16 +22248,16 @@
         </is>
       </c>
       <c r="T237" t="n">
-        <v>5.3</v>
+        <v>5.03</v>
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>15/09/2023 12:29</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kyoto/lnjxDYnP/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-sagan-tosu/0WdflkAO/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:28</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>5.81</v>
+        <v>3.98</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>5.12</v>
+        <v>3.8</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:29</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>7.23</v>
+        <v>5.66</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>5.03</v>
+        <v>5.3</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:29</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-sagan-tosu/0WdflkAO/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kyoto/lnjxDYnP/</t>
         </is>
       </c>
     </row>
@@ -22469,22 +22469,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
         <v>1</v>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>Nagoya Grampus</t>
-        </is>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
       <c r="J240" t="n">
-        <v>2.94</v>
+        <v>1.67</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -22492,15 +22492,15 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>3.73</v>
+        <v>1.65</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:59</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>3.2</v>
+        <v>4.34</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -22508,15 +22508,15 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>2.98</v>
+        <v>4.49</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:57</t>
+          <t>16/09/2023 11:58</t>
         </is>
       </c>
       <c r="R240" t="n">
-        <v>2.64</v>
+        <v>4.87</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="T240" t="n">
-        <v>2.35</v>
+        <v>4.92</v>
       </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:59</t>
+          <t>16/09/2023 11:55</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
         </is>
       </c>
     </row>
@@ -22561,22 +22561,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G241" t="n">
+        <v>2</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Shonan Bellmare</t>
-        </is>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
       <c r="J241" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -22584,15 +22584,15 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:56</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>4.34</v>
+        <v>3.58</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4.49</v>
+        <v>3.63</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         </is>
       </c>
       <c r="R241" t="n">
-        <v>4.87</v>
+        <v>3.8</v>
       </c>
       <c r="S241" t="inlineStr">
         <is>
@@ -22616,16 +22616,16 @@
         </is>
       </c>
       <c r="T241" t="n">
-        <v>4.92</v>
+        <v>3.73</v>
       </c>
       <c r="U241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:55</t>
+          <t>16/09/2023 11:56</t>
         </is>
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
         </is>
       </c>
     </row>
@@ -22653,22 +22653,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>2.04</v>
+        <v>2.94</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>2.06</v>
+        <v>3.73</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>3.58</v>
+        <v>3.2</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,15 +22692,15 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>3.63</v>
+        <v>2.98</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:58</t>
+          <t>16/09/2023 11:57</t>
         </is>
       </c>
       <c r="R242" t="n">
-        <v>3.8</v>
+        <v>2.64</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>3.73</v>
+        <v>2.35</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
         </is>
       </c>
     </row>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -23213,63 +23213,63 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J248" t="n">
-        <v>3.73</v>
+        <v>2.28</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>16/09/2023 11:13</t>
+          <t>17/09/2023 10:42</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>4.92</v>
+        <v>2.48</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>23/09/2023 11:55</t>
+          <t>23/09/2023 11:57</t>
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.59</v>
+        <v>3.19</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>16/09/2023 11:13</t>
+          <t>17/09/2023 10:42</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.95</v>
+        <v>2.82</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>23/09/2023 11:56</t>
+          <t>23/09/2023 11:58</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>2.06</v>
+        <v>3.58</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>16/09/2023 11:13</t>
+          <t>17/09/2023 10:42</t>
         </is>
       </c>
       <c r="T248" t="n">
-        <v>1.74</v>
+        <v>3.7</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>23/09/2023 11:56</t>
+          <t>23/09/2023 11:57</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-sanfrecce-hiroshima/bu4gJ99b/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-avispa-fukuoka/MaQy1SgU/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,14 +23305,14 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>1.94</v>
+        <v>3.73</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -23320,15 +23320,15 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.42</v>
+        <v>4.92</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>23/09/2023 11:57</t>
+          <t>23/09/2023 11:55</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -23336,15 +23336,15 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.48</v>
+        <v>3.95</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>23/09/2023 11:54</t>
+          <t>23/09/2023 11:56</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.96</v>
+        <v>2.06</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
@@ -23352,16 +23352,16 @@
         </is>
       </c>
       <c r="T249" t="n">
-        <v>3.06</v>
+        <v>1.74</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>23/09/2023 11:57</t>
+          <t>23/09/2023 11:56</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-cerezo-osaka/f7c2HmvB/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-sanfrecce-hiroshima/bu4gJ99b/</t>
         </is>
       </c>
     </row>
@@ -23389,7 +23389,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -23397,22 +23397,22 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>17/09/2023 10:42</t>
+          <t>16/09/2023 11:13</t>
         </is>
       </c>
       <c r="L250" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
@@ -23420,31 +23420,31 @@
         </is>
       </c>
       <c r="N250" t="n">
-        <v>3.19</v>
+        <v>3.74</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>17/09/2023 10:42</t>
+          <t>16/09/2023 11:13</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>2.82</v>
+        <v>3.48</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>23/09/2023 11:58</t>
+          <t>23/09/2023 11:54</t>
         </is>
       </c>
       <c r="R250" t="n">
-        <v>3.58</v>
+        <v>3.96</v>
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t>17/09/2023 10:42</t>
+          <t>16/09/2023 11:13</t>
         </is>
       </c>
       <c r="T250" t="n">
-        <v>3.7</v>
+        <v>3.06</v>
       </c>
       <c r="U250" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-avispa-fukuoka/MaQy1SgU/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-cerezo-osaka/f7c2HmvB/</t>
         </is>
       </c>
     </row>
@@ -24558,6 +24558,190 @@
       <c r="V262" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-gamba-osaka/na5UKMp3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45219.50347222222</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>4</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>2</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>20/10/2023 11:39</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P263" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>20/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R263" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T263" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>20/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-avispa-fukuoka/GvcoHvpS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45219.52083333334</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>2</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>20/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>20/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R264" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T264" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>20/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kashiwa-reysol/zPwIBI7k/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j1-league_2023.xlsx
+++ b/2023/japan_j1-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V264"/>
+  <dimension ref="A1:V270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.71</v>
+        <v>2.91</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.53</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.67</v>
+        <v>3.38</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>25/02/2023 08:00</t>
+          <t>25/02/2023 07:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.78</v>
+        <v>2.59</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>25/02/2023 08:00</t>
+          <t>25/02/2023 07:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kyoto/IZD3ynbK/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kawasaki-frontale/2RVGDr6D/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.91</v>
+        <v>1.71</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>3.53</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.38</v>
+        <v>3.67</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25/02/2023 07:53</t>
+          <t>25/02/2023 08:00</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.59</v>
+        <v>5.78</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>25/02/2023 07:54</t>
+          <t>25/02/2023 08:00</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kawasaki-frontale/2RVGDr6D/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kyoto/IZD3ynbK/</t>
         </is>
       </c>
     </row>
@@ -2781,30 +2781,30 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Nagoya Grampus</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>25/02/2023 08:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.35</v>
+        <v>2.22</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2812,15 +2812,15 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>25/02/2023 08:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.16</v>
+        <v>3.41</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,15 +2828,15 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.52</v>
+        <v>3.12</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>25/02/2023 08:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.43</v>
+        <v>3.52</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-nagoya-grampus/OYiqr7kc/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-cerezo-osaka/WtfvVqyl/</t>
         </is>
       </c>
     </row>
@@ -2873,30 +2873,30 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.42</v>
+        <v>2.98</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>25/02/2023 08:13</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.22</v>
+        <v>3.35</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,15 +2904,15 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.39</v>
+        <v>3.27</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>25/02/2023 08:13</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.41</v>
+        <v>3.16</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,15 +2920,15 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.12</v>
+        <v>2.52</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>25/02/2023 08:13</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.52</v>
+        <v>2.43</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-cerezo-osaka/WtfvVqyl/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-nagoya-grampus/OYiqr7kc/</t>
         </is>
       </c>
     </row>
@@ -3057,62 +3057,62 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Urawa Reds</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.57</v>
+        <v>3.13</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>04/03/2023 07:13</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.41</v>
+        <v>4.48</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>11/03/2023 05:56</t>
+          <t>11/03/2023 05:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.42</v>
+        <v>3.63</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>04/03/2023 07:13</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.27</v>
+        <v>3.96</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>11/03/2023 05:56</t>
+          <t>11/03/2023 05:58</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>04/03/2023 07:13</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.26</v>
+        <v>1.81</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-urawa-reds/GO4mQ24h/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kawasaki-frontale/YaFrRrkn/</t>
         </is>
       </c>
     </row>
@@ -3149,62 +3149,62 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Kawasaki Frontale</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>3.13</v>
+        <v>2.57</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>04/03/2023 07:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.48</v>
+        <v>2.41</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>11/03/2023 05:58</t>
+          <t>11/03/2023 05:56</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.63</v>
+        <v>3.42</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>04/03/2023 07:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.96</v>
+        <v>3.27</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>11/03/2023 05:58</t>
+          <t>11/03/2023 05:56</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>04/03/2023 07:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.81</v>
+        <v>3.26</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kawasaki-frontale/YaFrRrkn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-urawa-reds/GO4mQ24h/</t>
         </is>
       </c>
     </row>
@@ -3333,46 +3333,46 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>05/03/2023 07:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>12/03/2023 06:49</t>
+          <t>12/03/2023 06:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.02</v>
+        <v>3.75</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>05/03/2023 07:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,15 +3380,15 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>5.62</v>
+        <v>5.4</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>05/03/2023 07:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>5.35</v>
+        <v>4.7</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-yokohama-fc/6Hm4wq4S/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kyoto/CbQWY2Cq/</t>
         </is>
       </c>
     </row>
@@ -3425,62 +3425,62 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>05/03/2023 07:12</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>12/03/2023 06:54</t>
+          <t>12/03/2023 06:49</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.43</v>
+        <v>4.02</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>05/03/2023 07:12</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.27</v>
+        <v>3.84</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>12/03/2023 06:57</t>
+          <t>12/03/2023 06:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.64</v>
+        <v>5.62</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>05/03/2023 07:12</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.54</v>
+        <v>5.35</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-avispa-fukuoka/bipdu5ZF/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-yokohama-fc/6Hm4wq4S/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.73</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.96</v>
+        <v>3.46</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.14</v>
+        <v>3.08</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.94</v>
+        <v>3.11</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-yokohama-f-marinos/K0ohtoK9/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-nagoya-grampus/SQl0vPlM/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Kyoto</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
       <c r="J35" t="n">
-        <v>1.69</v>
+        <v>3.73</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.88</v>
+        <v>2.96</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.75</v>
+        <v>4.14</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.52</v>
+        <v>3.94</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.4</v>
+        <v>1.91</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.7</v>
+        <v>2.29</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kyoto/CbQWY2Cq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-yokohama-f-marinos/K0ohtoK9/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.46</v>
+        <v>1.99</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>12/03/2023 06:54</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>05/03/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>12/03/2023 06:57</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>05/03/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
           <t>12/03/2023 06:59</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>05/03/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>12/03/2023 06:59</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>05/03/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>12/03/2023 06:59</t>
-        </is>
-      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-nagoya-grampus/SQl0vPlM/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-avispa-fukuoka/bipdu5ZF/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Kyoto</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
       <c r="J38" t="n">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 07:13</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>2.17</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>18/03/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>12/03/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>18/03/2023 05:58</t>
         </is>
       </c>
-      <c r="N38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>12/03/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>18/03/2023 05:56</t>
-        </is>
-      </c>
       <c r="R38" t="n">
-        <v>2.91</v>
+        <v>4.27</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 07:13</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.53</v>
+        <v>3.19</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>18/03/2023 05:58</t>
+          <t>18/03/2023 05:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kyoto/dnSrW0d2/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kashima-antlers/IeTvXtsd/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>2.17</v>
+        <v>2.63</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.41</v>
+        <v>3.05</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>18/03/2023 05:40</t>
+          <t>18/03/2023 05:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.11</v>
+        <v>3.29</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>18/03/2023 05:38</t>
+          <t>18/03/2023 05:56</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.47</v>
+        <v>2.91</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.45</v>
+        <v>2.53</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>18/03/2023 05:53</t>
+          <t>18/03/2023 05:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-fc-tokyo/zXcPvg02/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kyoto/dnSrW0d2/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.71</v>
+        <v>2.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18/03/2023 05:57</t>
+          <t>18/03/2023 05:40</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.45</v>
+        <v>3.44</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.94</v>
+        <v>3.11</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>18/03/2023 05:58</t>
+          <t>18/03/2023 05:38</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.27</v>
+        <v>3.47</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.19</v>
+        <v>3.45</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>18/03/2023 05:57</t>
+          <t>18/03/2023 05:53</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kashima-antlers/IeTvXtsd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-fc-tokyo/zXcPvg02/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.85</v>
+        <v>3.03</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.77</v>
+        <v>3.34</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,40 +4192,40 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.85</v>
+        <v>3.24</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.91</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
+          <t>18/03/2023 06:49</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>12/03/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
           <t>18/03/2023 06:59</t>
         </is>
       </c>
-      <c r="R41" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>12/03/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T41" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>18/03/2023 06:59</t>
-        </is>
-      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-albirex-niigata/ENdTwDF8/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-vissel-kobe/Mm0yxipL/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.03</v>
+        <v>2.64</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>18/03/2023 06:59</t>
+          <t>18/03/2023 06:56</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.24</v>
+        <v>3.57</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>18/03/2023 06:49</t>
+          <t>18/03/2023 06:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>18/03/2023 06:59</t>
+          <t>18/03/2023 06:56</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-vissel-kobe/Mm0yxipL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-hokkaido-consadole-sapporo/8pdXxXUE/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.64</v>
+        <v>1.85</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.27</v>
+        <v>1.77</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>18/03/2023 06:56</t>
+          <t>18/03/2023 06:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>3.85</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.91</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>18/03/2023 06:58</t>
+          <t>18/03/2023 06:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.63</v>
+        <v>4.13</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.25</v>
+        <v>4.78</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>18/03/2023 06:56</t>
+          <t>18/03/2023 06:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-hokkaido-consadole-sapporo/8pdXxXUE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-albirex-niigata/ENdTwDF8/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/03/2023 16:41</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.34</v>
+        <v>3.94</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>01/04/2023 06:59</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>19/03/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>01/04/2023 06:59</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>19/03/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
           <t>01/04/2023 06:58</t>
         </is>
       </c>
-      <c r="N48" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>19/03/2023 16:41</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>01/04/2023 06:58</t>
-        </is>
-      </c>
-      <c r="R48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>19/03/2023 16:41</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>01/04/2023 06:58</t>
-        </is>
-      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-avispa-fukuoka/MBvKTSi1/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-nagoya-grampus/zFrOSn77/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,54 +4997,54 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:41</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.94</v>
+        <v>3.34</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>01/04/2023 06:59</t>
+          <t>01/04/2023 06:58</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:41</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>01/04/2023 06:59</t>
+          <t>01/04/2023 06:58</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.46</v>
+        <v>2.63</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:41</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.19</v>
+        <v>2.41</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-nagoya-grampus/zFrOSn77/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-avispa-fukuoka/MBvKTSi1/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>01/04/2023 09:42</t>
+          <t>01/04/2023 12:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>09/04/2023 06:43</t>
+          <t>09/04/2023 06:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.27</v>
+        <v>3.82</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>01/04/2023 09:42</t>
+          <t>01/04/2023 12:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.8</v>
+        <v>3.73</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>09/04/2023 06:58</t>
+          <t>09/04/2023 06:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.05</v>
+        <v>3.69</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>01/04/2023 09:42</t>
+          <t>01/04/2023 12:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>8.5</v>
+        <v>3.83</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>09/04/2023 06:58</t>
+          <t>09/04/2023 06:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-sagan-tosu/dnr7SwDO/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-hokkaido-consadole-sapporo/lMvaUarC/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>01/04/2023 12:12</t>
+          <t>04/04/2023 15:43</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>09/04/2023 06:59</t>
+          <t>09/04/2023 06:34</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.82</v>
+        <v>3.95</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>01/04/2023 12:12</t>
+          <t>04/04/2023 15:43</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.73</v>
+        <v>3.79</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>09/04/2023 06:59</t>
+          <t>09/04/2023 06:35</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.69</v>
+        <v>5.24</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>01/04/2023 12:12</t>
+          <t>04/04/2023 15:43</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.83</v>
+        <v>4.79</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>09/04/2023 06:59</t>
+          <t>09/04/2023 06:35</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-hokkaido-consadole-sapporo/lMvaUarC/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-albirex-niigata/Ieq3TJcI/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>04/04/2023 15:43</t>
+          <t>01/04/2023 09:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.81</v>
+        <v>1.43</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:34</t>
+          <t>09/04/2023 06:43</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.95</v>
+        <v>4.27</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>04/04/2023 15:43</t>
+          <t>01/04/2023 09:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.79</v>
+        <v>4.8</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:35</t>
+          <t>09/04/2023 06:58</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>5.24</v>
+        <v>6.05</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>04/04/2023 15:43</t>
+          <t>01/04/2023 09:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.79</v>
+        <v>8.5</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/04/2023 06:35</t>
+          <t>09/04/2023 06:58</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-albirex-niigata/Ieq3TJcI/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-sagan-tosu/dnr7SwDO/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.54</v>
+        <v>2.03</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.51</v>
+        <v>2.43</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>09/04/2023 07:31</t>
+          <t>09/04/2023 07:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.22</v>
+        <v>3.26</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.26</v>
+        <v>3.15</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09/04/2023 07:53</t>
+          <t>09/04/2023 07:35</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.06</v>
+        <v>4.27</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.16</v>
+        <v>3.43</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>09/04/2023 07:31</t>
+          <t>09/04/2023 07:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-shonan-bellmare/biMkiNkP/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-kyoto/8QBPpLSh/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,22 +6009,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.03</v>
+        <v>4.33</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>01/04/2023 09:42</t>
+          <t>01/04/2023 12:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.43</v>
+        <v>3.27</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,40 +6032,40 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.26</v>
+        <v>3.95</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>01/04/2023 09:42</t>
+          <t>01/04/2023 12:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.15</v>
+        <v>3.54</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>09/04/2023 07:35</t>
+          <t>09/04/2023 07:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.27</v>
+        <v>1.82</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>01/04/2023 09:42</t>
+          <t>01/04/2023 12:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.43</v>
+        <v>2.3</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>09/04/2023 07:58</t>
+          <t>09/04/2023 07:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-kyoto/8QBPpLSh/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kawasaki-frontale/UZCLo1Dn/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.67</v>
+        <v>2.51</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>09/04/2023 07:57</t>
+          <t>09/04/2023 07:31</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,32 +6132,32 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.09</v>
+        <v>3.26</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>09/04/2023 07:40</t>
+          <t>09/04/2023 07:53</t>
         </is>
       </c>
       <c r="R62" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>01/04/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
         <v>3.16</v>
       </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>01/04/2023 09:42</t>
-        </is>
-      </c>
-      <c r="T62" t="n">
-        <v>3.09</v>
-      </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>09/04/2023 07:57</t>
+          <t>09/04/2023 07:31</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-urawa-reds/zDDHnsbt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-shonan-bellmare/biMkiNkP/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.33</v>
+        <v>2.55</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>01/04/2023 12:12</t>
+          <t>01/04/2023 09:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.27</v>
+        <v>2.67</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>09/04/2023 07:59</t>
+          <t>09/04/2023 07:57</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>01/04/2023 12:12</t>
+          <t>01/04/2023 09:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.54</v>
+        <v>3.09</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>09/04/2023 07:59</t>
+          <t>09/04/2023 07:40</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.82</v>
+        <v>3.16</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>01/04/2023 12:12</t>
+          <t>01/04/2023 09:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.3</v>
+        <v>3.09</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>09/04/2023 07:59</t>
+          <t>09/04/2023 07:57</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kawasaki-frontale/UZCLo1Dn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-urawa-reds/zDDHnsbt/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.06</v>
+        <v>2.95</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.11</v>
+        <v>2.72</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:57</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.69</v>
+        <v>3.8</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.66</v>
+        <v>3.96</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.62</v>
+        <v>2.29</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.57</v>
+        <v>2.45</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>15/04/2023 07:56</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-hokkaido-consadole-sapporo/zgVYtwSH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.46</v>
+        <v>1.88</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.68</v>
+        <v>2.89</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.32</v>
+        <v>3.75</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>15/04/2023 07:55</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>09/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
           <t>15/04/2023 07:56</t>
         </is>
       </c>
-      <c r="R68" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>09/04/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>15/04/2023 07:59</t>
-        </is>
-      </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kashiwa-reysol/8t0m00Su/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-nagoya-grampus/IHKwtcsO/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Nagoya Grampus</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,48 +6760,48 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.89</v>
+        <v>2.11</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>15/04/2023 07:59</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>09/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>15/04/2023 07:59</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>09/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>15/04/2023 07:56</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>09/04/2023 08:12</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>15/04/2023 07:55</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>09/04/2023 08:12</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>15/04/2023 07:56</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-nagoya-grampus/IHKwtcsO/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-hokkaido-consadole-sapporo/zgVYtwSH/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.95</v>
+        <v>2.46</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:57</t>
+          <t>15/04/2023 07:59</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.8</v>
+        <v>3.32</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.96</v>
+        <v>3.39</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:56</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.29</v>
+        <v>3.09</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.45</v>
+        <v>2.79</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kashiwa-reysol/8t0m00Su/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.37</v>
+        <v>1.76</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.4</v>
+        <v>2.01</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23/04/2023 06:44</t>
+          <t>23/04/2023 06:32</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.38</v>
+        <v>3.79</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.41</v>
+        <v>3.49</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>23/04/2023 06:50</t>
+          <t>23/04/2023 06:32</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.11</v>
+        <v>4.94</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.15</v>
+        <v>4.08</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/04/2023 06:59</t>
+          <t>23/04/2023 06:32</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-sagan-tosu/dMbGgGBN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashiwa-reysol/jqbKhzRT/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.76</v>
+        <v>3.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>15/04/2023 09:42</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.01</v>
+        <v>3.3</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>23/04/2023 06:32</t>
+          <t>23/04/2023 06:35</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.79</v>
+        <v>3.62</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>15/04/2023 09:42</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>23/04/2023 06:32</t>
+          <t>23/04/2023 06:35</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.94</v>
+        <v>2.22</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>15/04/2023 09:42</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.08</v>
+        <v>2.36</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>23/04/2023 06:32</t>
+          <t>23/04/2023 06:35</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashiwa-reysol/jqbKhzRT/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashima-antlers/IVaCfddH/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>3.2</v>
+        <v>2.37</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 09:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>23/04/2023 06:35</t>
+          <t>23/04/2023 06:44</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.62</v>
+        <v>3.38</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 09:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.33</v>
+        <v>3.41</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>23/04/2023 06:35</t>
+          <t>23/04/2023 06:50</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.22</v>
+        <v>3.11</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 09:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.36</v>
+        <v>3.15</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>23/04/2023 06:35</t>
+          <t>23/04/2023 06:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashima-antlers/IVaCfddH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-sagan-tosu/dMbGgGBN/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,38 +8401,38 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.41</v>
+        <v>1.94</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/04/2023 07:53</t>
+          <t>29/04/2023 07:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.81</v>
+        <v>3.41</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.76</v>
+        <v>3.62</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,24 +8440,24 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.28</v>
+        <v>3.56</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/04/2023 07:53</t>
+          <t>29/04/2023 07:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-nagoya-grampus/OdIc6geT/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-kyoto/jqKk8FQG/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,63 +8493,63 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.94</v>
+        <v>2.41</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>29/04/2023 07:53</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>23/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
           <t>29/04/2023 07:58</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>23/04/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>29/04/2023 07:58</t>
-        </is>
-      </c>
       <c r="R88" t="n">
-        <v>3.56</v>
+        <v>4.28</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/04/2023 07:59</t>
+          <t>29/04/2023 07:53</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-kyoto/jqKk8FQG/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-nagoya-grampus/OdIc6geT/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Cerezo Osaka</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
       <c r="J91" t="n">
-        <v>3.04</v>
+        <v>3.84</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.48</v>
+        <v>3.91</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>03/05/2023 06:54</t>
+          <t>03/05/2023 06:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.44</v>
+        <v>3.78</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.46</v>
+        <v>3.8</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>03/05/2023 06:33</t>
+          <t>03/05/2023 06:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.43</v>
+        <v>1.94</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.98</v>
+        <v>1.96</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>03/05/2023 06:54</t>
+          <t>03/05/2023 06:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-cerezo-osaka/KG14MK3H/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kawasaki-frontale/2u7aN0lB/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>3.84</v>
+        <v>3.04</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.91</v>
+        <v>2.48</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/05/2023 06:59</t>
+          <t>03/05/2023 06:54</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.78</v>
+        <v>3.44</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/05/2023 06:58</t>
+          <t>03/05/2023 06:33</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.94</v>
+        <v>2.43</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.96</v>
+        <v>2.98</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/05/2023 06:59</t>
+          <t>03/05/2023 06:54</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kawasaki-frontale/2u7aN0lB/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-cerezo-osaka/KG14MK3H/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,63 +9045,63 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>3.14</v>
+        <v>3.74</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.96</v>
+        <v>4.05</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>03/05/2023 07:44</t>
+          <t>03/05/2023 07:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.04</v>
+        <v>4.12</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2.97</v>
+        <v>4.4</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>03/05/2023 06:51</t>
+          <t>03/05/2023 07:58</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.83</v>
+        <v>1.8</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>03/05/2023 07:44</t>
+          <t>03/05/2023 07:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-fc-tokyo/SMjvGIto/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-f-marinos/URUMv2Jo/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.96</v>
+        <v>2.52</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.68</v>
+        <v>3.11</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.63</v>
+        <v>3.22</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/05/2023 07:56</t>
+          <t>03/05/2023 07:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.97</v>
+        <v>3.12</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/05/2023 07:58</t>
+          <t>03/05/2023 07:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashiwa-reysol/b708LvJN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-vissel-kobe/hUaCKbYT/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.74</v>
+        <v>3.14</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.05</v>
+        <v>2.96</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/05/2023 07:58</t>
+          <t>03/05/2023 07:44</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.12</v>
+        <v>3.04</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.4</v>
+        <v>2.97</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/05/2023 07:58</t>
+          <t>03/05/2023 06:51</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.8</v>
+        <v>2.83</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/05/2023 07:58</t>
+          <t>03/05/2023 07:44</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-f-marinos/URUMv2Jo/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-fc-tokyo/SMjvGIto/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.22</v>
+        <v>3.63</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/05/2023 07:59</t>
+          <t>03/05/2023 07:56</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.12</v>
+        <v>3.97</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/05/2023 07:59</t>
+          <t>03/05/2023 07:58</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-vissel-kobe/hUaCKbYT/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashiwa-reysol/b708LvJN/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:54</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.48</v>
+        <v>2.64</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,63 +9873,63 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.78</v>
+        <v>2.22</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.76</v>
+        <v>2.73</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.26</v>
+        <v>3.23</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:54</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.64</v>
+        <v>3.48</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.51</v>
+        <v>3.5</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.42</v>
+        <v>3.63</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.11</v>
+        <v>3.88</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.06</v>
+        <v>4.1</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>14/05/2023 06:29</t>
+          <t>14/05/2023 06:28</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.2</v>
+        <v>2.04</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>14/05/2023 06:28</t>
+          <t>14/05/2023 06:26</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-nagoya-grampus/QNa91491/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-yokohama-f-marinos/4EbD0OO7/</t>
         </is>
       </c>
     </row>
@@ -10877,71 +10877,71 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>3.5</v>
+        <v>1.94</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>07/05/2023 07:12</t>
+          <t>10/05/2023 12:42</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.63</v>
+        <v>2.12</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/05/2023 06:28</t>
+          <t>14/05/2023 06:18</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.88</v>
+        <v>3.56</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>07/05/2023 07:12</t>
+          <t>10/05/2023 12:42</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/05/2023 06:28</t>
+          <t>14/05/2023 06:18</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.04</v>
+        <v>4.23</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>07/05/2023 07:12</t>
+          <t>10/05/2023 12:42</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>1.96</v>
+        <v>4</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/05/2023 06:26</t>
+          <t>14/05/2023 06:18</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-yokohama-f-marinos/4EbD0OO7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-sagan-tosu/U7IiORGE/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.94</v>
+        <v>2.51</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>10/05/2023 12:42</t>
+          <t>07/05/2023 07:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.12</v>
+        <v>3.42</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/05/2023 06:18</t>
+          <t>14/05/2023 06:28</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.56</v>
+        <v>3.11</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>10/05/2023 12:42</t>
+          <t>07/05/2023 07:12</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/05/2023 06:18</t>
+          <t>14/05/2023 06:29</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>4.23</v>
+        <v>3.2</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>10/05/2023 12:42</t>
+          <t>07/05/2023 07:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/05/2023 06:18</t>
+          <t>14/05/2023 06:28</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-sagan-tosu/U7IiORGE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-nagoya-grampus/QNa91491/</t>
         </is>
       </c>
     </row>
@@ -12441,62 +12441,62 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.68</v>
+        <v>1.58</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>28/05/2023 06:57</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.37</v>
+        <v>4.27</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.52</v>
+        <v>4.45</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>28/05/2023 06:56</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.76</v>
+        <v>5.59</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.44</v>
+        <v>5.37</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-gamba-osaka/rZQDTMhf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-yokohama-fc/QcGISt80/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>1.56</v>
+        <v>2.68</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,48 +12556,48 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
+          <t>28/05/2023 06:57</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>28/05/2023 06:56</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
           <t>28/05/2023 06:59</t>
         </is>
       </c>
-      <c r="N132" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>20/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="P132" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:57</t>
-        </is>
-      </c>
-      <c r="R132" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>20/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T132" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:59</t>
-        </is>
-      </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-avispa-fukuoka/UVM9U2wl/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-gamba-osaka/rZQDTMhf/</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -12633,22 +12633,22 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>20/05/2023 09:42</t>
+          <t>20/05/2023 12:12</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -12656,40 +12656,40 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>4.27</v>
+        <v>4.38</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>20/05/2023 09:42</t>
+          <t>20/05/2023 12:12</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.45</v>
+        <v>3.78</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
+          <t>28/05/2023 06:57</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
           <t>28/05/2023 06:59</t>
         </is>
       </c>
-      <c r="R133" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>20/05/2023 09:42</t>
-        </is>
-      </c>
-      <c r="T133" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:59</t>
-        </is>
-      </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-yokohama-fc/QcGISt80/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-avispa-fukuoka/UVM9U2wl/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J154" t="n">
-        <v>3.13</v>
+        <v>2.1</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,48 +14580,48 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>3.54</v>
+        <v>2.21</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
+          <t>24/06/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
           <t>24/06/2023 11:58</t>
         </is>
       </c>
-      <c r="N154" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O154" t="inlineStr">
+      <c r="R154" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S154" t="inlineStr">
         <is>
           <t>16/06/2023 12:42</t>
         </is>
       </c>
-      <c r="P154" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R154" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
       <c r="T154" t="n">
-        <v>2.22</v>
+        <v>3.32</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:50</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-nagoya-grampus/ryh7ZlLp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sagan-tosu/dvdBY8zi/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>3.12</v>
+        <v>2.26</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,48 +14672,48 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.84</v>
+        <v>2.08</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="N155" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>24/06/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
         <v>3.25</v>
       </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
-      <c r="P155" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="Q155" t="inlineStr">
+      <c r="U155" t="inlineStr">
         <is>
           <t>24/06/2023 11:59</t>
         </is>
       </c>
-      <c r="R155" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T155" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:58</t>
-        </is>
-      </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kashima-antlers/v3LetLgc/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,14 +14841,14 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>2.26</v>
+        <v>2.41</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:52</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.71</v>
+        <v>3.4</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.16</v>
+        <v>3.55</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:57</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.11</v>
+        <v>3.03</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:52</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-albirex-niigata/juUwiHjI/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>2.1</v>
+        <v>3.12</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.21</v>
+        <v>2.84</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>24/06/2023 11:50</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,32 +14964,32 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.65</v>
+        <v>3.07</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
+          <t>24/06/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
           <t>24/06/2023 11:58</t>
         </is>
       </c>
-      <c r="R158" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T158" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="U158" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:50</t>
-        </is>
-      </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sagan-tosu/dvdBY8zi/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kashima-antlers/v3LetLgc/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.41</v>
+        <v>3.13</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.43</v>
+        <v>3.54</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>24/06/2023 11:52</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.55</v>
+        <v>3.39</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         </is>
       </c>
       <c r="R159" t="n">
-        <v>3.03</v>
+        <v>2.4</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2.99</v>
+        <v>2.22</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/06/2023 11:52</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-albirex-niigata/juUwiHjI/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-nagoya-grampus/ryh7ZlLp/</t>
         </is>
       </c>
     </row>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -15485,22 +15485,22 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.55</v>
+        <v>3.98</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>24/06/2023 12:42</t>
+          <t>24/06/2023 12:12</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.69</v>
+        <v>3.81</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,15 +15508,15 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.25</v>
+        <v>3.69</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>24/06/2023 12:42</t>
+          <t>24/06/2023 12:12</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.39</v>
+        <v>3.59</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,15 +15524,15 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>3.01</v>
+        <v>1.96</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>24/06/2023 12:42</t>
+          <t>24/06/2023 12:12</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>2.77</v>
+        <v>2.05</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kawasaki-frontale/fZcmWzWk/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-sanfrecce-hiroshima/xb3rXGGq/</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -15577,22 +15577,22 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>3.98</v>
+        <v>2.55</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>24/06/2023 12:12</t>
+          <t>24/06/2023 12:42</t>
         </is>
       </c>
       <c r="L165" t="n">
-        <v>3.81</v>
+        <v>2.69</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
@@ -15600,15 +15600,15 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>24/06/2023 12:12</t>
+          <t>24/06/2023 12:42</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.59</v>
+        <v>3.39</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -15616,15 +15616,15 @@
         </is>
       </c>
       <c r="R165" t="n">
-        <v>1.96</v>
+        <v>3.01</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>24/06/2023 12:12</t>
+          <t>24/06/2023 12:42</t>
         </is>
       </c>
       <c r="T165" t="n">
-        <v>2.05</v>
+        <v>2.77</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-sanfrecce-hiroshima/xb3rXGGq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kawasaki-frontale/fZcmWzWk/</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -15853,63 +15853,63 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>2.05</v>
+        <v>3.57</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>08/06/2023 16:31</t>
+          <t>28/06/2023 12:41</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.79</v>
+        <v>4.07</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>01/07/2023 11:56</t>
+          <t>01/07/2023 11:59</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.82</v>
+        <v>3.23</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>08/06/2023 16:31</t>
+          <t>28/06/2023 12:41</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4.22</v>
+        <v>3.72</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>01/07/2023 11:56</t>
+          <t>01/07/2023 11:22</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>3.43</v>
+        <v>2.22</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>08/06/2023 16:31</t>
+          <t>28/06/2023 12:41</t>
         </is>
       </c>
       <c r="T168" t="n">
-        <v>4.3</v>
+        <v>1.93</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>01/07/2023 11:56</t>
+          <t>01/07/2023 11:22</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-hokkaido-consadole-sapporo/0Wlwgbw3/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-urawa-reds/revrhIh9/</t>
         </is>
       </c>
     </row>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -15945,63 +15945,63 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>3.57</v>
+        <v>2.05</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>28/06/2023 12:41</t>
+          <t>08/06/2023 16:31</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>4.07</v>
+        <v>1.79</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>01/07/2023 11:59</t>
+          <t>01/07/2023 11:56</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.23</v>
+        <v>3.82</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>28/06/2023 12:41</t>
+          <t>08/06/2023 16:31</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.72</v>
+        <v>4.22</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>01/07/2023 11:22</t>
+          <t>01/07/2023 11:56</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>2.22</v>
+        <v>3.43</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>28/06/2023 12:41</t>
+          <t>08/06/2023 16:31</t>
         </is>
       </c>
       <c r="T169" t="n">
-        <v>1.93</v>
+        <v>4.3</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>01/07/2023 11:22</t>
+          <t>01/07/2023 11:56</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-urawa-reds/revrhIh9/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-hokkaido-consadole-sapporo/0Wlwgbw3/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G175" t="n">
+        <v>2</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
         <v>1</v>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Kyoto</t>
-        </is>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
       <c r="J175" t="n">
-        <v>1.96</v>
+        <v>2.93</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>01/07/2023 11:42</t>
+          <t>01/07/2023 12:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.88</v>
+        <v>2.93</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>08/07/2023 11:51</t>
+          <t>08/07/2023 11:58</t>
         </is>
       </c>
       <c r="N175" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>01/07/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
         <v>3.65</v>
       </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>01/07/2023 11:42</t>
-        </is>
-      </c>
-      <c r="P175" t="n">
-        <v>3.78</v>
-      </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>08/07/2023 11:51</t>
+          <t>08/07/2023 11:58</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>4.02</v>
+        <v>2.57</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>01/07/2023 11:42</t>
+          <t>01/07/2023 12:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>4.32</v>
+        <v>2.43</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>08/07/2023 11:51</t>
+          <t>08/07/2023 11:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kyoto/OSEG6H72/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-hokkaido-consadole-sapporo/2JDK5yN8/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>2.93</v>
+        <v>1.77</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.93</v>
+        <v>1.91</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:59</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.36</v>
+        <v>3.81</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.65</v>
+        <v>3.54</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:59</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.57</v>
+        <v>4.92</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.43</v>
+        <v>4.46</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:59</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-hokkaido-consadole-sapporo/2JDK5yN8/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-fc-tokyo/EcXPqf0k/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>2.43</v>
+        <v>1.33</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>02/07/2023 12:11</t>
+          <t>01/07/2023 11:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.27</v>
+        <v>1.49</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>08/07/2023 11:54</t>
+          <t>08/07/2023 11:44</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.42</v>
+        <v>5.66</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>02/07/2023 12:11</t>
+          <t>01/07/2023 11:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.68</v>
+        <v>4.77</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:57</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.05</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>02/07/2023 12:11</t>
+          <t>01/07/2023 11:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.17</v>
+        <v>6.62</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>08/07/2023 11:54</t>
+          <t>08/07/2023 11:50</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-shonan-bellmare/8KWTrEFe/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-yokohama-fc/nBVXsYU1/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>1.77</v>
+        <v>2.43</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>01/07/2023 12:12</t>
+          <t>02/07/2023 12:11</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>08/07/2023 11:59</t>
+          <t>08/07/2023 11:54</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.81</v>
+        <v>3.42</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>01/07/2023 12:12</t>
+          <t>02/07/2023 12:11</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.54</v>
+        <v>3.68</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>08/07/2023 11:59</t>
+          <t>08/07/2023 11:58</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>4.92</v>
+        <v>3.05</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>01/07/2023 12:12</t>
+          <t>02/07/2023 12:11</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.46</v>
+        <v>3.17</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>08/07/2023 11:59</t>
+          <t>08/07/2023 11:54</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-fc-tokyo/EcXPqf0k/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-shonan-bellmare/8KWTrEFe/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.33</v>
+        <v>1.96</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.49</v>
+        <v>1.88</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>08/07/2023 11:44</t>
+          <t>08/07/2023 11:51</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>5.66</v>
+        <v>3.65</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>4.77</v>
+        <v>3.78</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>08/07/2023 11:57</t>
+          <t>08/07/2023 11:51</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>8.609999999999999</v>
+        <v>4.02</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>6.62</v>
+        <v>4.32</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>08/07/2023 11:50</t>
+          <t>08/07/2023 11:51</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-yokohama-fc/nBVXsYU1/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kyoto/OSEG6H72/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,14 +17969,14 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1.89</v>
+        <v>3.16</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>4.02</v>
+        <v>3.81</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.43</v>
+        <v>3.57</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>05/08/2023 11:58</t>
+          <t>05/08/2023 11:59</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>4.08</v>
+        <v>1.95</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>4.75</v>
+        <v>2.32</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-albirex-niigata/8xh3GhyR/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sanfrecce-hiroshima/UogaHYLK/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,14 +18061,14 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.16</v>
+        <v>1.89</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.81</v>
+        <v>4.02</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,32 +18092,32 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.57</v>
+        <v>3.43</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
+          <t>05/08/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>28/07/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
           <t>05/08/2023 11:59</t>
         </is>
       </c>
-      <c r="R192" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>28/07/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T192" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U192" t="inlineStr">
-        <is>
-          <t>05/08/2023 11:59</t>
-        </is>
-      </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sanfrecce-hiroshima/UogaHYLK/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-albirex-niigata/8xh3GhyR/</t>
         </is>
       </c>
     </row>
@@ -18329,22 +18329,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J195" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.57</v>
+        <v>1.62</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>06/08/2023 11:59</t>
+          <t>06/08/2023 11:51</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.76</v>
+        <v>4.05</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>4.05</v>
+        <v>4.17</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>06/08/2023 11:59</t>
+          <t>06/08/2023 11:53</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.97</v>
+        <v>5.24</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.56</v>
+        <v>5.71</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>06/08/2023 11:59</t>
+          <t>06/08/2023 11:53</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-yokohama-f-marinos/MqYwAjEf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-gamba-osaka/0zXs9AT0/</t>
         </is>
       </c>
     </row>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -18521,14 +18521,14 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I197" t="n">
         <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>2.39</v>
+        <v>2.09</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>06/08/2023 11:57</t>
+          <t>06/08/2023 11:59</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,15 +18552,15 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>06/08/2023 11:56</t>
+          <t>06/08/2023 11:50</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,16 +18568,16 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>2.73</v>
+        <v>3.3</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>06/08/2023 11:57</t>
+          <t>06/08/2023 11:59</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kashiwa-reysol/U9yn8Ur7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-fc-tokyo/80zj7lbD/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>1.65</v>
+        <v>2.39</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.62</v>
+        <v>2.73</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>06/08/2023 11:51</t>
+          <t>06/08/2023 11:57</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>4.05</v>
+        <v>3.56</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>4.17</v>
+        <v>3.39</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>06/08/2023 11:53</t>
+          <t>06/08/2023 11:56</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>5.24</v>
+        <v>2.95</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>5.71</v>
+        <v>2.73</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>06/08/2023 11:53</t>
+          <t>06/08/2023 11:57</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-gamba-osaka/0zXs9AT0/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kashiwa-reysol/U9yn8Ur7/</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -18705,14 +18705,14 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.34</v>
+        <v>4.05</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>06/08/2023 11:50</t>
+          <t>06/08/2023 11:59</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>3.65</v>
+        <v>2.97</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-fc-tokyo/80zj7lbD/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-yokohama-f-marinos/MqYwAjEf/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>2.46</v>
+        <v>2.93</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>2.32</v>
+        <v>2.61</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>12/08/2023 11:56</t>
+          <t>12/08/2023 11:58</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,15 +19104,15 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>12/08/2023 11:51</t>
+          <t>12/08/2023 11:59</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>12/08/2023 11:56</t>
+          <t>12/08/2023 11:59</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-vissel-kobe/h4GLoyXS/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-cerezo-osaka/WlSCmc2G/</t>
         </is>
       </c>
     </row>
@@ -19157,22 +19157,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I204" t="n">
         <v>1</v>
       </c>
       <c r="J204" t="n">
-        <v>2.93</v>
+        <v>2.46</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -19180,15 +19180,15 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.61</v>
+        <v>2.32</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>12/08/2023 11:58</t>
+          <t>12/08/2023 11:56</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -19196,15 +19196,15 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.39</v>
+        <v>3.72</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>12/08/2023 11:59</t>
+          <t>12/08/2023 11:51</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
@@ -19212,16 +19212,16 @@
         </is>
       </c>
       <c r="T204" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>12/08/2023 11:59</t>
+          <t>12/08/2023 11:56</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-cerezo-osaka/WlSCmc2G/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-vissel-kobe/h4GLoyXS/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>12/08/2023 11:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.94</v>
+        <v>2.31</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 11:57</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>4.2</v>
+        <v>3.57</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>12/08/2023 11:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.67</v>
+        <v>3.51</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 11:57</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>5.37</v>
+        <v>3.25</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>12/08/2023 11:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>4.12</v>
+        <v>3.23</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>19/08/2023 11:59</t>
+          <t>19/08/2023 11:57</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashiwa-reysol/jc3SsSVf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-kawasaki-frontale/Um2Wtno1/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
         <v>2.25</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 11:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.31</v>
+        <v>1.98</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>19/08/2023 11:57</t>
+          <t>19/08/2023 11:59</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.57</v>
+        <v>3.53</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 11:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.51</v>
+        <v>3.73</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>19/08/2023 11:57</t>
+          <t>19/08/2023 11:59</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 11:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.23</v>
+        <v>3.91</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>19/08/2023 11:57</t>
+          <t>19/08/2023 11:59</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-kawasaki-frontale/Um2Wtno1/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-shonan-bellmare/rX3Or8Gl/</t>
         </is>
       </c>
     </row>
@@ -20077,71 +20077,71 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>12/08/2023 11:42</t>
+          <t>12/08/2023 11:12</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
+          <t>19/08/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>12/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>19/08/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>12/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
           <t>19/08/2023 11:59</t>
         </is>
       </c>
-      <c r="N214" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>12/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="P214" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>19/08/2023 11:59</t>
-        </is>
-      </c>
-      <c r="R214" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>12/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T214" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>19/08/2023 11:59</t>
-        </is>
-      </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-shonan-bellmare/rX3Or8Gl/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashiwa-reysol/jc3SsSVf/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="n">
-        <v>2.98</v>
+        <v>3.84</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21572,15 +21572,15 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>2.36</v>
+        <v>4.46</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:34</t>
+          <t>02/09/2023 11:58</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.49</v>
+        <v>3.73</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,15 +21588,15 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3.76</v>
+        <v>4.07</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:33</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="R230" t="n">
-        <v>2.44</v>
+        <v>1.98</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>2.93</v>
+        <v>1.79</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:56</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kawasaki-frontale/Wj5whXAa/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-sanfrecce-hiroshima/vH8ojBuC/</t>
         </is>
       </c>
     </row>
@@ -21641,7 +21641,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G231" t="n">
@@ -21649,14 +21649,14 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J231" t="n">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21664,15 +21664,15 @@
         </is>
       </c>
       <c r="L231" t="n">
-        <v>2.84</v>
+        <v>3.09</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>3.93</v>
+        <v>3.32</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         </is>
       </c>
       <c r="R231" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
         </is>
       </c>
     </row>
@@ -21733,22 +21733,22 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G232" t="n">
+        <v>3</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Sanfrecce Hiroshima</t>
-        </is>
-      </c>
-      <c r="I232" t="n">
-        <v>2</v>
-      </c>
       <c r="J232" t="n">
-        <v>3.84</v>
+        <v>2.98</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -21756,15 +21756,15 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>4.46</v>
+        <v>2.36</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:58</t>
+          <t>02/09/2023 11:34</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3.73</v>
+        <v>3.49</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -21772,15 +21772,15 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>4.07</v>
+        <v>3.76</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:33</t>
         </is>
       </c>
       <c r="R232" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -21788,16 +21788,16 @@
         </is>
       </c>
       <c r="T232" t="n">
-        <v>1.79</v>
+        <v>2.93</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:56</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-sanfrecce-hiroshima/vH8ojBuC/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kawasaki-frontale/Wj5whXAa/</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -21833,14 +21833,14 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -21848,15 +21848,15 @@
         </is>
       </c>
       <c r="L233" t="n">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         </is>
       </c>
       <c r="R233" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
@@ -21880,16 +21880,16 @@
         </is>
       </c>
       <c r="T233" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
         </is>
       </c>
     </row>
@@ -22469,22 +22469,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>Shonan Bellmare</t>
-        </is>
-      </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
       <c r="J240" t="n">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -22492,15 +22492,15 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>1.65</v>
+        <v>3.73</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>4.34</v>
+        <v>3.2</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -22508,15 +22508,15 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>4.49</v>
+        <v>2.98</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:58</t>
+          <t>16/09/2023 11:57</t>
         </is>
       </c>
       <c r="R240" t="n">
-        <v>4.87</v>
+        <v>2.64</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="T240" t="n">
-        <v>4.92</v>
+        <v>2.35</v>
       </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:55</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
         </is>
       </c>
     </row>
@@ -22561,22 +22561,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -22584,15 +22584,15 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>3.58</v>
+        <v>4.34</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>3.63</v>
+        <v>4.49</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         </is>
       </c>
       <c r="R241" t="n">
-        <v>3.8</v>
+        <v>4.87</v>
       </c>
       <c r="S241" t="inlineStr">
         <is>
@@ -22616,16 +22616,16 @@
         </is>
       </c>
       <c r="T241" t="n">
-        <v>3.73</v>
+        <v>4.92</v>
       </c>
       <c r="U241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:55</t>
         </is>
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
         </is>
       </c>
     </row>
@@ -22653,22 +22653,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>2.94</v>
+        <v>2.04</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,48 +22676,48 @@
         </is>
       </c>
       <c r="L242" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T242" t="n">
         <v>3.73</v>
       </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>16/09/2023 11:59</t>
-        </is>
-      </c>
-      <c r="N242" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P242" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q242" t="inlineStr">
-        <is>
-          <t>16/09/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R242" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="S242" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T242" t="n">
-        <v>2.35</v>
-      </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:59</t>
+          <t>16/09/2023 11:56</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
         </is>
       </c>
     </row>
@@ -23757,42 +23757,42 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
         <v>2</v>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Albirex Niigata</t>
-        </is>
-      </c>
-      <c r="I254" t="n">
-        <v>3</v>
-      </c>
       <c r="J254" t="n">
-        <v>1.7</v>
+        <v>2.11</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="L254" t="n">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:36</t>
+          <t>29/09/2023 11:49</t>
         </is>
       </c>
       <c r="N254" t="n">
-        <v>4.09</v>
+        <v>3.54</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="P254" t="n">
@@ -23800,28 +23800,28 @@
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:57</t>
+          <t>29/09/2023 11:54</t>
         </is>
       </c>
       <c r="R254" t="n">
-        <v>4.95</v>
+        <v>3.54</v>
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="T254" t="n">
-        <v>4.51</v>
+        <v>2.87</v>
       </c>
       <c r="U254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:57</t>
+          <t>29/09/2023 11:54</t>
         </is>
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-albirex-niigata/lUd6G7gH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-vissel-kobe/QgKZbuOq/</t>
         </is>
       </c>
     </row>
@@ -23849,42 +23849,42 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J255" t="n">
-        <v>2.11</v>
+        <v>1.7</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:49</t>
+          <t>29/09/2023 11:36</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="P255" t="n">
@@ -23892,28 +23892,28 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:54</t>
+          <t>29/09/2023 11:57</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>3.54</v>
+        <v>4.95</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>2.87</v>
+        <v>4.51</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:54</t>
+          <t>29/09/2023 11:57</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-vissel-kobe/QgKZbuOq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-albirex-niigata/lUd6G7gH/</t>
         </is>
       </c>
     </row>
@@ -24742,6 +24742,558 @@
       <c r="V264" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kashiwa-reysol/zPwIBI7k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45220.25</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>21/10/2023 05:58</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P265" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>21/10/2023 05:59</t>
+        </is>
+      </c>
+      <c r="R265" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T265" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>21/10/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-sagan-tosu/8Us1YuF2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45220.29166666666</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Yokohama FC</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>FC Tokyo</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P266" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="R266" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T266" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-fc-tokyo/8xxQ9dx2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45220.29166666666</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:59</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:59</t>
+        </is>
+      </c>
+      <c r="R267" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T267" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:59</t>
+        </is>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-nagoya-grampus/trt9WJqF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45220.29166666666</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>3</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:55</t>
+        </is>
+      </c>
+      <c r="R268" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T268" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashima-antlers/fopDVwaL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45220.29166666666</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>4</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:55</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R269" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T269" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>21/10/2023 06:55</t>
+        </is>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-hokkaido-consadole-sapporo/MLZDCbhq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:47</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R270" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T270" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:56</t>
+        </is>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-cerezo-osaka/UowMAxNe/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j1-league_2023.xlsx
+++ b/2023/japan_j1-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V279"/>
+  <dimension ref="A1:V285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4529,46 +4529,46 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.87</v>
+        <v>1.71</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.11</v>
+        <v>1.59</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/03/2023 05:47</t>
+          <t>19/03/2023 05:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.16</v>
+        <v>3.98</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.01</v>
+        <v>4.12</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,15 +4576,15 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.68</v>
+        <v>5.07</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.68</v>
+        <v>6.26</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-shonan-bellmare/0djBVlNl/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-kashiwa-reysol/6Ly8WU7r/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Kashiwa Reysol</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.71</v>
+        <v>2.87</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 07:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.59</v>
+        <v>3.11</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>19/03/2023 05:47</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>12/03/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>19/03/2023 05:59</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>12/03/2023 08:12</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>12/03/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>19/03/2023 05:59</t>
         </is>
       </c>
-      <c r="R46" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>12/03/2023 08:12</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:59</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-kashiwa-reysol/6Ly8WU7r/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-shonan-bellmare/0djBVlNl/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>FC Tokyo</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.96</v>
+        <v>2.04</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4.24</v>
+        <v>2.07</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>01/04/2023 07:58</t>
+          <t>01/04/2023 07:51</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.24</v>
+        <v>3.36</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>01/04/2023 07:58</t>
+          <t>01/04/2023 07:51</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.6</v>
+        <v>4.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>01/04/2023 07:56</t>
+          <t>01/04/2023 07:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-fc-tokyo/M9mrYsqm/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-gamba-osaka/rJlvZNTt/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.07</v>
+        <v>4.24</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/04/2023 07:51</t>
+          <t>01/04/2023 07:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/04/2023 07:51</t>
+          <t>01/04/2023 07:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.09</v>
+        <v>2.6</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.85</v>
+        <v>1.94</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/04/2023 07:52</t>
+          <t>01/04/2023 07:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-gamba-osaka/rJlvZNTt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-fc-tokyo/M9mrYsqm/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.95</v>
+        <v>2.06</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.72</v>
+        <v>2.11</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:57</t>
+          <t>15/04/2023 07:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.8</v>
+        <v>3.69</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.96</v>
+        <v>3.66</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.29</v>
+        <v>3.62</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.45</v>
+        <v>3.57</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-hokkaido-consadole-sapporo/zgVYtwSH/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.06</v>
+        <v>2.95</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.11</v>
+        <v>2.72</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:57</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>3.8</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.66</v>
+        <v>3.96</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.62</v>
+        <v>2.29</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.57</v>
+        <v>2.45</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:56</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-hokkaido-consadole-sapporo/zgVYtwSH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Cerezo Osaka</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.57</v>
+        <v>3.39</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>15/04/2023 08:52</t>
+          <t>15/04/2023 08:58</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.99</v>
+        <v>2.22</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-cerezo-osaka/Ueldbvch/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-gamba-osaka/St7acbCb/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Gamba Osaka</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.49</v>
+        <v>2.59</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.39</v>
+        <v>2.57</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.53</v>
+        <v>3.3</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>15/04/2023 08:58</t>
+          <t>15/04/2023 08:52</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.22</v>
+        <v>2.99</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-gamba-osaka/St7acbCb/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-cerezo-osaka/Ueldbvch/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.11</v>
+        <v>2.91</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>29/04/2023 06:56</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.44</v>
+        <v>3.54</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>29/04/2023 06:56</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.63</v>
+        <v>2.42</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>29/04/2023 06:56</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-shonan-bellmare/xtGo9eBA/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-sanfrecce-hiroshima/fHQtAyd4/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Sanfrecce Hiroshima</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.91</v>
+        <v>2.11</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:56</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:56</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.42</v>
+        <v>3.63</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-sanfrecce-hiroshima/fHQtAyd4/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-shonan-bellmare/xtGo9eBA/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.41</v>
+        <v>2.15</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/04/2023 07:53</t>
+          <t>29/04/2023 07:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.81</v>
+        <v>3.78</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.76</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/04/2023 07:58</t>
+          <t>29/04/2023 07:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.28</v>
+        <v>3.84</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/04/2023 07:53</t>
+          <t>29/04/2023 07:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-nagoya-grampus/OdIc6geT/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-albirex-niigata/p6Jg7ZuN/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>24/04/2023 03:42</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.15</v>
+        <v>2.41</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>29/04/2023 07:53</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>23/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
           <t>29/04/2023 07:58</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>24/04/2023 03:42</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>29/04/2023 07:59</t>
-        </is>
-      </c>
       <c r="R88" t="n">
-        <v>3.84</v>
+        <v>4.28</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>24/04/2023 03:42</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/04/2023 07:59</t>
+          <t>29/04/2023 07:53</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-albirex-niigata/p6Jg7ZuN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-nagoya-grampus/OdIc6geT/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.39</v>
+        <v>2.78</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.38</v>
+        <v>2.76</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>5.05</v>
+        <v>3.34</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>5.27</v>
+        <v>3.26</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:54</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>7.97</v>
+        <v>2.64</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>8.31</v>
+        <v>2.79</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,63 +9965,63 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.78</v>
+        <v>2.22</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.76</v>
+        <v>2.73</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.26</v>
+        <v>3.23</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:54</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.64</v>
+        <v>3.48</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.22</v>
+        <v>1.39</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.73</v>
+        <v>1.38</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.39</v>
+        <v>5.05</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.23</v>
+        <v>5.27</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.48</v>
+        <v>7.97</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.86</v>
+        <v>8.31</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>5.03</v>
+        <v>3.38</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>7.83</v>
+        <v>3.36</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>4.27</v>
+        <v>3.45</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>4.96</v>
+        <v>3.65</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>20/05/2023 08:56</t>
+          <t>20/05/2023 08:58</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>1.66</v>
+        <v>2.21</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>1.42</v>
+        <v>2.19</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>20/05/2023 08:56</t>
+          <t>20/05/2023 08:58</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kawasaki-frontale/OUgmD18D/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-vissel-kobe/CfjqEsg7/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>3.38</v>
+        <v>5.03</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>3.36</v>
+        <v>7.83</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.45</v>
+        <v>4.27</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.65</v>
+        <v>4.96</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>20/05/2023 08:58</t>
+          <t>20/05/2023 08:56</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.21</v>
+        <v>1.66</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.19</v>
+        <v>1.42</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>20/05/2023 08:58</t>
+          <t>20/05/2023 08:56</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-vissel-kobe/CfjqEsg7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kawasaki-frontale/OUgmD18D/</t>
         </is>
       </c>
     </row>
@@ -12073,26 +12073,26 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>20/05/2023 08:13</t>
+          <t>20/05/2023 09:13</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -12100,44 +12100,44 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/05/2023 06:57</t>
+          <t>27/05/2023 06:56</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.93</v>
+        <v>3.65</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>20/05/2023 08:13</t>
+          <t>20/05/2023 09:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/05/2023 06:57</t>
+          <t>27/05/2023 06:56</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.93</v>
+        <v>4.52</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>20/05/2023 08:13</t>
+          <t>20/05/2023 09:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.04</v>
+        <v>5.15</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/05/2023 06:57</t>
+          <t>27/05/2023 06:58</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-shonan-bellmare/t0ZajaIc/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-fc-tokyo/SdVeiu3i/</t>
         </is>
       </c>
     </row>
@@ -12165,26 +12165,26 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>20/05/2023 09:13</t>
+          <t>20/05/2023 08:13</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -12192,44 +12192,44 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>27/05/2023 06:56</t>
+          <t>27/05/2023 06:57</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.65</v>
+        <v>3.93</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>20/05/2023 09:13</t>
+          <t>20/05/2023 08:13</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>27/05/2023 06:56</t>
+          <t>27/05/2023 06:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.52</v>
+        <v>4.93</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>20/05/2023 09:13</t>
+          <t>20/05/2023 08:13</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.15</v>
+        <v>5.04</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>27/05/2023 06:58</t>
+          <t>27/05/2023 06:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-fc-tokyo/SdVeiu3i/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-shonan-bellmare/t0ZajaIc/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,22 +12449,22 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,31 +12472,31 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>4.38</v>
+        <v>4.27</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.78</v>
+        <v>4.45</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>28/05/2023 06:57</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.73</v>
+        <v>5.59</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.77</v>
+        <v>5.37</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-avispa-fukuoka/UVM9U2wl/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-yokohama-fc/QcGISt80/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>1.58</v>
+        <v>2.68</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>20/05/2023 09:42</t>
+          <t>20/05/2023 12:12</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
+          <t>28/05/2023 06:57</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>28/05/2023 06:56</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
           <t>28/05/2023 06:59</t>
         </is>
       </c>
-      <c r="N132" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>20/05/2023 09:42</t>
-        </is>
-      </c>
-      <c r="P132" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:59</t>
-        </is>
-      </c>
-      <c r="R132" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>20/05/2023 09:42</t>
-        </is>
-      </c>
-      <c r="T132" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:59</t>
-        </is>
-      </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-yokohama-fc/QcGISt80/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-gamba-osaka/rZQDTMhf/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>2.68</v>
+        <v>1.56</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,39 +12648,39 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
+          <t>28/05/2023 06:59</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
           <t>28/05/2023 06:57</t>
         </is>
       </c>
-      <c r="N133" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O133" t="inlineStr">
+      <c r="R133" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="S133" t="inlineStr">
         <is>
           <t>20/05/2023 12:12</t>
         </is>
       </c>
-      <c r="P133" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:56</t>
-        </is>
-      </c>
-      <c r="R133" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>20/05/2023 12:12</t>
-        </is>
-      </c>
       <c r="T133" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-gamba-osaka/rZQDTMhf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-avispa-fukuoka/UVM9U2wl/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.81</v>
+        <v>3.71</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.64</v>
+        <v>4.16</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         </is>
       </c>
       <c r="R156" t="n">
-        <v>4.39</v>
+        <v>3.11</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>3.91</v>
+        <v>3.25</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-yokohama-fc/0CMis1vi/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,48 +14856,48 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
+          <t>24/06/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
           <t>24/06/2023 11:59</t>
         </is>
       </c>
-      <c r="N157" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O157" t="inlineStr">
+      <c r="R157" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S157" t="inlineStr">
         <is>
           <t>16/06/2023 12:42</t>
         </is>
       </c>
-      <c r="P157" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:59</t>
-        </is>
-      </c>
-      <c r="R157" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
       <c r="T157" t="n">
-        <v>3.25</v>
+        <v>3.91</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-yokohama-fc/0CMis1vi/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>1.52</v>
+        <v>2.5</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.58</v>
+        <v>2.5</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>16/07/2023 11:58</t>
+          <t>16/07/2023 11:51</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>4.37</v>
+        <v>3.18</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4.61</v>
+        <v>3.25</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>16/07/2023 11:42</t>
+          <t>16/07/2023 11:55</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>6.41</v>
+        <v>3.15</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>5.51</v>
+        <v>3.14</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>16/07/2023 11:42</t>
+          <t>16/07/2023 11:55</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-sagan-tosu/lzx2IE6E/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-avispa-fukuoka/0Ee7dXqe/</t>
         </is>
       </c>
     </row>
@@ -17685,22 +17685,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I188" t="n">
         <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.5</v>
+        <v>1.58</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>16/07/2023 11:51</t>
+          <t>16/07/2023 11:58</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.18</v>
+        <v>4.37</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.25</v>
+        <v>4.61</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>16/07/2023 11:55</t>
+          <t>16/07/2023 11:42</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.15</v>
+        <v>6.41</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.14</v>
+        <v>5.51</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>16/07/2023 11:55</t>
+          <t>16/07/2023 11:42</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-avispa-fukuoka/0Ee7dXqe/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-sagan-tosu/lzx2IE6E/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21572,15 +21572,15 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>2.36</v>
+        <v>3.09</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:34</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,15 +21588,15 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3.76</v>
+        <v>3.35</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:33</t>
+          <t>02/09/2023 11:57</t>
         </is>
       </c>
       <c r="R230" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>2.93</v>
+        <v>2.47</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:56</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kawasaki-frontale/Wj5whXAa/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
         <v>2</v>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Yokohama F. Marinos</t>
-        </is>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
       <c r="J231" t="n">
-        <v>3.06</v>
+        <v>3.84</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21664,15 +21664,15 @@
         </is>
       </c>
       <c r="L231" t="n">
-        <v>2.84</v>
+        <v>4.46</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:58</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>3.93</v>
+        <v>3.73</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,15 +21680,15 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3.88</v>
+        <v>4.07</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>02/09/2023 11:57</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>2.39</v>
+        <v>1.79</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-sanfrecce-hiroshima/vH8ojBuC/</t>
         </is>
       </c>
     </row>
@@ -21733,22 +21733,22 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G232" t="n">
+        <v>3</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Sanfrecce Hiroshima</t>
-        </is>
-      </c>
-      <c r="I232" t="n">
-        <v>2</v>
-      </c>
       <c r="J232" t="n">
-        <v>3.84</v>
+        <v>2.98</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -21756,15 +21756,15 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>4.46</v>
+        <v>2.36</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:58</t>
+          <t>02/09/2023 11:34</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3.73</v>
+        <v>3.49</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -21772,15 +21772,15 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>4.07</v>
+        <v>3.76</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:33</t>
         </is>
       </c>
       <c r="R232" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -21788,16 +21788,16 @@
         </is>
       </c>
       <c r="T232" t="n">
-        <v>1.79</v>
+        <v>2.93</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:56</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-sanfrecce-hiroshima/vH8ojBuC/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kawasaki-frontale/Wj5whXAa/</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -21833,14 +21833,14 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -21848,15 +21848,15 @@
         </is>
       </c>
       <c r="L233" t="n">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         </is>
       </c>
       <c r="R233" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
@@ -21880,16 +21880,16 @@
         </is>
       </c>
       <c r="T233" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
         </is>
       </c>
     </row>
@@ -21917,22 +21917,22 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
         <v>2</v>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Kyoto</t>
-        </is>
-      </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
       <c r="J234" t="n">
-        <v>1.53</v>
+        <v>2.17</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -21940,15 +21940,15 @@
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1.78</v>
+        <v>2.33</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>03/09/2023 11:20</t>
+          <t>03/09/2023 11:57</t>
         </is>
       </c>
       <c r="N234" t="n">
-        <v>4.35</v>
+        <v>3.2</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
@@ -21956,15 +21956,15 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>3.82</v>
+        <v>3.25</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>03/09/2023 11:34</t>
+          <t>03/09/2023 11:53</t>
         </is>
       </c>
       <c r="R234" t="n">
-        <v>6.19</v>
+        <v>3.88</v>
       </c>
       <c r="S234" t="inlineStr">
         <is>
@@ -21972,16 +21972,16 @@
         </is>
       </c>
       <c r="T234" t="n">
-        <v>4.87</v>
+        <v>3.44</v>
       </c>
       <c r="U234" t="inlineStr">
         <is>
-          <t>03/09/2023 11:34</t>
+          <t>03/09/2023 11:57</t>
         </is>
       </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kyoto/QD4siiQ5/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-avispa-fukuoka/GI36aFIP/</t>
         </is>
       </c>
     </row>
@@ -22009,22 +22009,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G235" t="n">
+        <v>2</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
         <v>1</v>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Avispa Fukuoka</t>
-        </is>
-      </c>
-      <c r="I235" t="n">
-        <v>2</v>
-      </c>
       <c r="J235" t="n">
-        <v>2.17</v>
+        <v>1.53</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -22032,15 +22032,15 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>2.33</v>
+        <v>1.78</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>03/09/2023 11:57</t>
+          <t>03/09/2023 11:20</t>
         </is>
       </c>
       <c r="N235" t="n">
-        <v>3.2</v>
+        <v>4.35</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -22048,15 +22048,15 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>3.25</v>
+        <v>3.82</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>03/09/2023 11:53</t>
+          <t>03/09/2023 11:34</t>
         </is>
       </c>
       <c r="R235" t="n">
-        <v>3.88</v>
+        <v>6.19</v>
       </c>
       <c r="S235" t="inlineStr">
         <is>
@@ -22064,16 +22064,16 @@
         </is>
       </c>
       <c r="T235" t="n">
-        <v>3.44</v>
+        <v>4.87</v>
       </c>
       <c r="U235" t="inlineStr">
         <is>
-          <t>03/09/2023 11:57</t>
+          <t>03/09/2023 11:34</t>
         </is>
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-avispa-fukuoka/GI36aFIP/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kyoto/QD4siiQ5/</t>
         </is>
       </c>
     </row>
@@ -22193,22 +22193,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -22216,15 +22216,15 @@
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>15/09/2023 12:28</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="N237" t="n">
-        <v>3.98</v>
+        <v>5.81</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -22232,15 +22232,15 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3.8</v>
+        <v>5.12</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>15/09/2023 12:29</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="R237" t="n">
-        <v>5.66</v>
+        <v>7.23</v>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -22248,16 +22248,16 @@
         </is>
       </c>
       <c r="T237" t="n">
-        <v>5.3</v>
+        <v>5.03</v>
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>15/09/2023 12:29</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kyoto/lnjxDYnP/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-sagan-tosu/0WdflkAO/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:28</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>5.81</v>
+        <v>3.98</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>5.12</v>
+        <v>3.8</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:29</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>7.23</v>
+        <v>5.66</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>5.03</v>
+        <v>5.3</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:29</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-sagan-tosu/0WdflkAO/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kyoto/lnjxDYnP/</t>
         </is>
       </c>
     </row>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -23213,22 +23213,22 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J248" t="n">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>16/09/2023 11:13</t>
+          <t>17/09/2023 10:42</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
@@ -23236,31 +23236,31 @@
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.74</v>
+        <v>3.19</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>16/09/2023 11:13</t>
+          <t>17/09/2023 10:42</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3.48</v>
+        <v>2.82</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>23/09/2023 11:54</t>
+          <t>23/09/2023 11:58</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>3.96</v>
+        <v>3.58</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>16/09/2023 11:13</t>
+          <t>17/09/2023 10:42</t>
         </is>
       </c>
       <c r="T248" t="n">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-cerezo-osaka/f7c2HmvB/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-avispa-fukuoka/MaQy1SgU/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,63 +23305,63 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2.28</v>
+        <v>3.73</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>17/09/2023 10:42</t>
+          <t>16/09/2023 11:13</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>2.48</v>
+        <v>4.92</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>23/09/2023 11:57</t>
+          <t>23/09/2023 11:55</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.19</v>
+        <v>3.59</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>17/09/2023 10:42</t>
+          <t>16/09/2023 11:13</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>2.82</v>
+        <v>3.95</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>23/09/2023 11:58</t>
+          <t>23/09/2023 11:56</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>3.58</v>
+        <v>2.06</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>17/09/2023 10:42</t>
+          <t>16/09/2023 11:13</t>
         </is>
       </c>
       <c r="T249" t="n">
-        <v>3.7</v>
+        <v>1.74</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>23/09/2023 11:57</t>
+          <t>23/09/2023 11:56</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-avispa-fukuoka/MaQy1SgU/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-sanfrecce-hiroshima/bu4gJ99b/</t>
         </is>
       </c>
     </row>
@@ -23389,7 +23389,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -23397,14 +23397,14 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>3.73</v>
+        <v>1.94</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -23412,15 +23412,15 @@
         </is>
       </c>
       <c r="L250" t="n">
-        <v>4.92</v>
+        <v>2.42</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>23/09/2023 11:55</t>
+          <t>23/09/2023 11:57</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>3.59</v>
+        <v>3.74</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -23428,15 +23428,15 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3.95</v>
+        <v>3.48</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>23/09/2023 11:56</t>
+          <t>23/09/2023 11:54</t>
         </is>
       </c>
       <c r="R250" t="n">
-        <v>2.06</v>
+        <v>3.96</v>
       </c>
       <c r="S250" t="inlineStr">
         <is>
@@ -23444,16 +23444,16 @@
         </is>
       </c>
       <c r="T250" t="n">
-        <v>1.74</v>
+        <v>3.06</v>
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>23/09/2023 11:56</t>
+          <t>23/09/2023 11:57</t>
         </is>
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-sanfrecce-hiroshima/bu4gJ99b/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-cerezo-osaka/f7c2HmvB/</t>
         </is>
       </c>
     </row>
@@ -24861,22 +24861,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G266" t="n">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>FC Tokyo</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Nagoya Grampus</t>
-        </is>
-      </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
       <c r="J266" t="n">
-        <v>2.77</v>
+        <v>3.04</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -24884,15 +24884,15 @@
         </is>
       </c>
       <c r="L266" t="n">
-        <v>2.89</v>
+        <v>2.65</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>21/10/2023 06:59</t>
+          <t>21/10/2023 06:58</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>3.23</v>
+        <v>3.47</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -24900,15 +24900,15 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3.12</v>
+        <v>3.56</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>21/10/2023 06:59</t>
+          <t>21/10/2023 06:57</t>
         </is>
       </c>
       <c r="R266" t="n">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="T266" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="U266" t="inlineStr">
         <is>
-          <t>21/10/2023 06:59</t>
+          <t>21/10/2023 06:58</t>
         </is>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-nagoya-grampus/trt9WJqF/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-fc-tokyo/8xxQ9dx2/</t>
         </is>
       </c>
     </row>
@@ -24953,22 +24953,22 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I267" t="n">
         <v>1</v>
       </c>
       <c r="J267" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -24976,48 +24976,48 @@
         </is>
       </c>
       <c r="L267" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
+          <t>21/10/2023 06:55</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
           <t>21/10/2023 06:58</t>
         </is>
       </c>
-      <c r="N267" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O267" t="inlineStr">
+      <c r="R267" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S267" t="inlineStr">
         <is>
           <t>10/10/2023 13:12</t>
         </is>
       </c>
-      <c r="P267" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q267" t="inlineStr">
+      <c r="T267" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U267" t="inlineStr">
         <is>
           <t>21/10/2023 06:55</t>
         </is>
       </c>
-      <c r="R267" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S267" t="inlineStr">
-        <is>
-          <t>10/10/2023 13:12</t>
-        </is>
-      </c>
-      <c r="T267" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="U267" t="inlineStr">
-        <is>
-          <t>21/10/2023 06:58</t>
-        </is>
-      </c>
       <c r="V267" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashima-antlers/fopDVwaL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-hokkaido-consadole-sapporo/MLZDCbhq/</t>
         </is>
       </c>
     </row>
@@ -25045,22 +25045,22 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
         <v>1</v>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>FC Tokyo</t>
-        </is>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
       <c r="J268" t="n">
-        <v>3.04</v>
+        <v>2.77</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -25068,15 +25068,15 @@
         </is>
       </c>
       <c r="L268" t="n">
-        <v>2.65</v>
+        <v>2.89</v>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>21/10/2023 06:58</t>
+          <t>21/10/2023 06:59</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>3.47</v>
+        <v>3.23</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -25084,15 +25084,15 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3.56</v>
+        <v>3.12</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>21/10/2023 06:57</t>
+          <t>21/10/2023 06:59</t>
         </is>
       </c>
       <c r="R268" t="n">
-        <v>2.37</v>
+        <v>2.77</v>
       </c>
       <c r="S268" t="inlineStr">
         <is>
@@ -25100,16 +25100,16 @@
         </is>
       </c>
       <c r="T268" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="U268" t="inlineStr">
         <is>
-          <t>21/10/2023 06:58</t>
+          <t>21/10/2023 06:59</t>
         </is>
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-fc-tokyo/8xxQ9dx2/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-nagoya-grampus/trt9WJqF/</t>
         </is>
       </c>
     </row>
@@ -25137,22 +25137,22 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I269" t="n">
         <v>1</v>
       </c>
       <c r="J269" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -25160,48 +25160,48 @@
         </is>
       </c>
       <c r="L269" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M269" t="inlineStr">
         <is>
+          <t>21/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
           <t>21/10/2023 06:55</t>
         </is>
       </c>
-      <c r="N269" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O269" t="inlineStr">
+      <c r="R269" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S269" t="inlineStr">
         <is>
           <t>10/10/2023 13:12</t>
         </is>
       </c>
-      <c r="P269" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="Q269" t="inlineStr">
+      <c r="T269" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U269" t="inlineStr">
         <is>
           <t>21/10/2023 06:58</t>
         </is>
       </c>
-      <c r="R269" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S269" t="inlineStr">
-        <is>
-          <t>10/10/2023 13:12</t>
-        </is>
-      </c>
-      <c r="T269" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U269" t="inlineStr">
-        <is>
-          <t>21/10/2023 06:55</t>
-        </is>
-      </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-hokkaido-consadole-sapporo/MLZDCbhq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashima-antlers/fopDVwaL/</t>
         </is>
       </c>
     </row>
@@ -26122,6 +26122,558 @@
       <c r="V279" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-kawasaki-frontale/8hQmPyxk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45241.25</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:53</t>
+        </is>
+      </c>
+      <c r="R280" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:53</t>
+        </is>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-sanfrecce-hiroshima/Gxhwzgj7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45241.25</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>2</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:59</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P281" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T281" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-nagoya-grampus/Yg0Mwyir/</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45241.25</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>FC Tokyo</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:45</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:40</t>
+        </is>
+      </c>
+      <c r="R282" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>03/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T282" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>11/11/2023 05:47</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-fc-tokyo/nc4Qxe6l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45241.29166666666</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:57</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="P283" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:39</t>
+        </is>
+      </c>
+      <c r="R283" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="T283" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:57</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kashiwa-reysol/GEDfrHrR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45241.29166666666</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>1</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>2</v>
+      </c>
+      <c r="J284" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:59</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="T284" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:56</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-avispa-fukuoka/ULgVyFLf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45241.29166666666</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Yokohama FC</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>3</v>
+      </c>
+      <c r="J285" t="n">
+        <v>2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:46</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="T285" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:59</t>
+        </is>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-fc/8ChZzZz1/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j1-league_2023.xlsx
+++ b/2023/japan_j1-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V285"/>
+  <dimension ref="A1:V288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Kashiwa Reysol</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.71</v>
+        <v>2.87</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 07:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.59</v>
+        <v>3.11</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>19/03/2023 05:47</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>12/03/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>19/03/2023 05:59</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>12/03/2023 08:12</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="Q45" t="inlineStr">
+      <c r="R45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>12/03/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U45" t="inlineStr">
         <is>
           <t>19/03/2023 05:59</t>
         </is>
       </c>
-      <c r="R45" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>12/03/2023 08:12</t>
-        </is>
-      </c>
-      <c r="T45" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:59</t>
-        </is>
-      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-kashiwa-reysol/6Ly8WU7r/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-shonan-bellmare/0djBVlNl/</t>
         </is>
       </c>
     </row>
@@ -4621,46 +4621,46 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.87</v>
+        <v>1.71</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.11</v>
+        <v>1.59</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/03/2023 05:47</t>
+          <t>19/03/2023 05:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.16</v>
+        <v>3.98</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.01</v>
+        <v>4.12</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,15 +4668,15 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.68</v>
+        <v>5.07</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.68</v>
+        <v>6.26</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-shonan-bellmare/0djBVlNl/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-kashiwa-reysol/6Ly8WU7r/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.07</v>
+        <v>4.24</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>01/04/2023 07:51</t>
+          <t>01/04/2023 07:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>01/04/2023 07:51</t>
+          <t>01/04/2023 07:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.09</v>
+        <v>2.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.85</v>
+        <v>1.94</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>01/04/2023 07:52</t>
+          <t>01/04/2023 07:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-gamba-osaka/rJlvZNTt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-fc-tokyo/M9mrYsqm/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>FC Tokyo</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.96</v>
+        <v>2.04</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4.24</v>
+        <v>2.07</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/04/2023 07:58</t>
+          <t>01/04/2023 07:51</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.24</v>
+        <v>3.36</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/04/2023 07:58</t>
+          <t>01/04/2023 07:51</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.6</v>
+        <v>4.09</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/04/2023 07:56</t>
+          <t>01/04/2023 07:52</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-fc-tokyo/M9mrYsqm/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-gamba-osaka/rJlvZNTt/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.06</v>
+        <v>2.95</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.11</v>
+        <v>2.72</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:57</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.69</v>
+        <v>3.8</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.66</v>
+        <v>3.96</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.62</v>
+        <v>2.29</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.57</v>
+        <v>2.45</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:56</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-hokkaido-consadole-sapporo/zgVYtwSH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.95</v>
+        <v>2.06</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.72</v>
+        <v>2.11</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:57</t>
+          <t>15/04/2023 07:59</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.8</v>
+        <v>3.69</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.96</v>
+        <v>3.66</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:59</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.29</v>
+        <v>3.62</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.45</v>
+        <v>3.57</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:56</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-hokkaido-consadole-sapporo/zgVYtwSH/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Gamba Osaka</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.49</v>
+        <v>2.59</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.39</v>
+        <v>2.57</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.53</v>
+        <v>3.3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>15/04/2023 08:58</t>
+          <t>15/04/2023 08:52</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.22</v>
+        <v>2.99</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-gamba-osaka/St7acbCb/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-cerezo-osaka/Ueldbvch/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Cerezo Osaka</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.57</v>
+        <v>3.39</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>15/04/2023 08:52</t>
+          <t>15/04/2023 08:58</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.99</v>
+        <v>2.22</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-cerezo-osaka/Ueldbvch/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-gamba-osaka/St7acbCb/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Sanfrecce Hiroshima</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
       <c r="J84" t="n">
-        <v>2.91</v>
+        <v>2.11</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:56</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:56</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.42</v>
+        <v>3.63</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-sanfrecce-hiroshima/fHQtAyd4/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-shonan-bellmare/xtGo9eBA/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.11</v>
+        <v>2.91</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/04/2023 06:56</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.44</v>
+        <v>3.54</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/04/2023 06:56</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.63</v>
+        <v>2.42</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/04/2023 06:56</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-shonan-bellmare/xtGo9eBA/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-sanfrecce-hiroshima/fHQtAyd4/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G103" t="n">
+        <v>3</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Yokohama FC</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Kashima Antlers</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
       <c r="J103" t="n">
-        <v>2.78</v>
+        <v>1.39</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.76</v>
+        <v>1.38</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.34</v>
+        <v>5.05</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.26</v>
+        <v>5.27</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:54</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.64</v>
+        <v>7.97</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.79</v>
+        <v>8.31</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,63 +9965,63 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.39</v>
+        <v>3.34</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:54</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.48</v>
+        <v>2.64</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.39</v>
+        <v>2.22</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,48 +10072,48 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.38</v>
+        <v>2.73</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
+          <t>07/05/2023 06:52</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>03/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
           <t>07/05/2023 06:41</t>
         </is>
       </c>
-      <c r="N105" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="O105" t="inlineStr">
+      <c r="R105" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S105" t="inlineStr">
         <is>
           <t>03/05/2023 12:12</t>
         </is>
       </c>
-      <c r="P105" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>07/05/2023 06:41</t>
-        </is>
-      </c>
-      <c r="R105" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>03/05/2023 12:12</t>
-        </is>
-      </c>
       <c r="T105" t="n">
-        <v>8.31</v>
+        <v>2.86</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I122" t="n">
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>3.38</v>
+        <v>5.03</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>3.36</v>
+        <v>7.83</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.45</v>
+        <v>4.27</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.65</v>
+        <v>4.96</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>20/05/2023 08:58</t>
+          <t>20/05/2023 08:56</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.21</v>
+        <v>1.66</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.19</v>
+        <v>1.42</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>20/05/2023 08:58</t>
+          <t>20/05/2023 08:56</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-vissel-kobe/CfjqEsg7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kawasaki-frontale/OUgmD18D/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>5.03</v>
+        <v>3.38</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>7.83</v>
+        <v>3.36</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>4.27</v>
+        <v>3.45</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>4.96</v>
+        <v>3.65</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>20/05/2023 08:56</t>
+          <t>20/05/2023 08:58</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>1.66</v>
+        <v>2.21</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>1.42</v>
+        <v>2.19</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>20/05/2023 08:56</t>
+          <t>20/05/2023 08:58</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kawasaki-frontale/OUgmD18D/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-vissel-kobe/CfjqEsg7/</t>
         </is>
       </c>
     </row>
@@ -12073,26 +12073,26 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>20/05/2023 09:13</t>
+          <t>20/05/2023 08:13</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -12100,44 +12100,44 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/05/2023 06:56</t>
+          <t>27/05/2023 06:57</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.65</v>
+        <v>3.93</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>20/05/2023 09:13</t>
+          <t>20/05/2023 08:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/05/2023 06:56</t>
+          <t>27/05/2023 06:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.52</v>
+        <v>4.93</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>20/05/2023 09:13</t>
+          <t>20/05/2023 08:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.15</v>
+        <v>5.04</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/05/2023 06:58</t>
+          <t>27/05/2023 06:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-fc-tokyo/SdVeiu3i/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-shonan-bellmare/t0ZajaIc/</t>
         </is>
       </c>
     </row>
@@ -12165,26 +12165,26 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>20/05/2023 08:13</t>
+          <t>20/05/2023 09:13</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -12192,44 +12192,44 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>27/05/2023 06:57</t>
+          <t>27/05/2023 06:56</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.93</v>
+        <v>3.65</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>20/05/2023 08:13</t>
+          <t>20/05/2023 09:13</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>27/05/2023 06:57</t>
+          <t>27/05/2023 06:56</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.93</v>
+        <v>4.52</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>20/05/2023 08:13</t>
+          <t>20/05/2023 09:13</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.04</v>
+        <v>5.15</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>27/05/2023 06:57</t>
+          <t>27/05/2023 06:58</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-shonan-bellmare/t0ZajaIc/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-fc-tokyo/SdVeiu3i/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,22 +12449,22 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>20/05/2023 09:42</t>
+          <t>20/05/2023 12:12</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,40 +12472,40 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>4.27</v>
+        <v>4.38</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>20/05/2023 09:42</t>
+          <t>20/05/2023 12:12</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4.45</v>
+        <v>3.78</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
+          <t>28/05/2023 06:57</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
           <t>28/05/2023 06:59</t>
         </is>
       </c>
-      <c r="R131" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>20/05/2023 09:42</t>
-        </is>
-      </c>
-      <c r="T131" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="U131" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:59</t>
-        </is>
-      </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-yokohama-fc/QcGISt80/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-avispa-fukuoka/UVM9U2wl/</t>
         </is>
       </c>
     </row>
@@ -12533,62 +12533,62 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2.68</v>
+        <v>1.58</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>28/05/2023 06:57</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.37</v>
+        <v>4.27</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.52</v>
+        <v>4.45</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>28/05/2023 06:56</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.76</v>
+        <v>5.59</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.44</v>
+        <v>5.37</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-gamba-osaka/rZQDTMhf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-yokohama-fc/QcGISt80/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="n">
-        <v>1.56</v>
+        <v>2.68</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,48 +12648,48 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
+          <t>28/05/2023 06:57</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>28/05/2023 06:56</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
           <t>28/05/2023 06:59</t>
         </is>
       </c>
-      <c r="N133" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>20/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="P133" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:57</t>
-        </is>
-      </c>
-      <c r="R133" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>20/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T133" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:59</t>
-        </is>
-      </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-avispa-fukuoka/UVM9U2wl/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-gamba-osaka/rZQDTMhf/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,48 +14764,48 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
+          <t>24/06/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
           <t>24/06/2023 11:59</t>
         </is>
       </c>
-      <c r="N156" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O156" t="inlineStr">
+      <c r="R156" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S156" t="inlineStr">
         <is>
           <t>16/06/2023 12:42</t>
         </is>
       </c>
-      <c r="P156" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="Q156" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:59</t>
-        </is>
-      </c>
-      <c r="R156" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
       <c r="T156" t="n">
-        <v>3.25</v>
+        <v>3.91</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-yokohama-fc/0CMis1vi/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.81</v>
+        <v>3.71</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.64</v>
+        <v>4.16</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.39</v>
+        <v>3.11</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>3.91</v>
+        <v>3.25</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-yokohama-fc/0CMis1vi/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>2.5</v>
+        <v>1.58</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>16/07/2023 11:51</t>
+          <t>16/07/2023 11:58</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.18</v>
+        <v>4.37</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.25</v>
+        <v>4.61</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>16/07/2023 11:55</t>
+          <t>16/07/2023 11:42</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>3.15</v>
+        <v>6.41</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>3.14</v>
+        <v>5.51</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>16/07/2023 11:55</t>
+          <t>16/07/2023 11:42</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-avispa-fukuoka/0Ee7dXqe/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-sagan-tosu/lzx2IE6E/</t>
         </is>
       </c>
     </row>
@@ -17685,22 +17685,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I188" t="n">
         <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>1.52</v>
+        <v>2.5</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.58</v>
+        <v>2.5</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>16/07/2023 11:58</t>
+          <t>16/07/2023 11:51</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>4.37</v>
+        <v>3.18</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>4.61</v>
+        <v>3.25</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>16/07/2023 11:42</t>
+          <t>16/07/2023 11:55</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>6.41</v>
+        <v>3.15</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>5.51</v>
+        <v>3.14</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>16/07/2023 11:42</t>
+          <t>16/07/2023 11:55</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-sagan-tosu/lzx2IE6E/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-avispa-fukuoka/0Ee7dXqe/</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -21373,54 +21373,54 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I228" t="n">
         <v>1</v>
       </c>
       <c r="J228" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>26/08/2023 10:13</t>
+          <t>26/08/2023 11:12</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>3.4</v>
+        <v>1.51</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>02/09/2023 10:58</t>
+          <t>02/09/2023 10:52</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>3.35</v>
+        <v>4.65</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>26/08/2023 10:13</t>
+          <t>26/08/2023 11:12</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>3.24</v>
+        <v>4.49</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>02/09/2023 10:34</t>
+          <t>02/09/2023 10:59</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>2.4</v>
+        <v>7.08</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>26/08/2023 10:13</t>
+          <t>26/08/2023 11:12</t>
         </is>
       </c>
       <c r="T228" t="n">
-        <v>2.36</v>
+        <v>6.87</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-urawa-reds/Clkxfgtm/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-yokohama-fc/h06ZhDeg/</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -21465,63 +21465,63 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="I229" t="n">
         <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>26/08/2023 11:12</t>
+          <t>26/08/2023 10:13</t>
         </is>
       </c>
       <c r="L229" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>02/09/2023 10:52</t>
+          <t>02/09/2023 10:58</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>4.65</v>
+        <v>3.35</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>26/08/2023 11:12</t>
+          <t>26/08/2023 10:13</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>4.49</v>
+        <v>3.24</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
+          <t>02/09/2023 10:34</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>26/08/2023 10:13</t>
+        </is>
+      </c>
+      <c r="T229" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
           <t>02/09/2023 10:59</t>
         </is>
       </c>
-      <c r="R229" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="S229" t="inlineStr">
-        <is>
-          <t>26/08/2023 11:12</t>
-        </is>
-      </c>
-      <c r="T229" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="U229" t="inlineStr">
-        <is>
-          <t>02/09/2023 10:59</t>
-        </is>
-      </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-yokohama-fc/h06ZhDeg/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-urawa-reds/Clkxfgtm/</t>
         </is>
       </c>
     </row>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G230" t="n">
@@ -21557,14 +21557,14 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21572,15 +21572,15 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="R230" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
         </is>
       </c>
     </row>
@@ -21733,22 +21733,22 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J232" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -21756,15 +21756,15 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>2.36</v>
+        <v>3.09</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:34</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -21772,15 +21772,15 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>3.76</v>
+        <v>3.35</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:33</t>
+          <t>02/09/2023 11:57</t>
         </is>
       </c>
       <c r="R232" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -21788,16 +21788,16 @@
         </is>
       </c>
       <c r="T232" t="n">
-        <v>2.93</v>
+        <v>2.47</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:56</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kawasaki-frontale/Wj5whXAa/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
         </is>
       </c>
     </row>
@@ -21825,22 +21825,22 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -21848,15 +21848,15 @@
         </is>
       </c>
       <c r="L233" t="n">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:34</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>3.93</v>
+        <v>3.49</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -21864,15 +21864,15 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3.88</v>
+        <v>3.76</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:57</t>
+          <t>02/09/2023 11:33</t>
         </is>
       </c>
       <c r="R233" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
@@ -21880,16 +21880,16 @@
         </is>
       </c>
       <c r="T233" t="n">
-        <v>2.39</v>
+        <v>2.93</v>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:56</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kawasaki-frontale/Wj5whXAa/</t>
         </is>
       </c>
     </row>
@@ -22469,22 +22469,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>2.94</v>
+        <v>2.04</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -22492,48 +22492,48 @@
         </is>
       </c>
       <c r="L240" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>16/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T240" t="n">
         <v>3.73</v>
       </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>16/09/2023 11:59</t>
-        </is>
-      </c>
-      <c r="N240" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P240" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q240" t="inlineStr">
-        <is>
-          <t>16/09/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R240" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="S240" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T240" t="n">
-        <v>2.35</v>
-      </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:59</t>
+          <t>16/09/2023 11:56</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
         </is>
       </c>
     </row>
@@ -22653,22 +22653,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>2.04</v>
+        <v>2.94</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>2.06</v>
+        <v>3.73</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>3.58</v>
+        <v>3.2</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,15 +22692,15 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>3.63</v>
+        <v>2.98</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:58</t>
+          <t>16/09/2023 11:57</t>
         </is>
       </c>
       <c r="R242" t="n">
-        <v>3.8</v>
+        <v>2.64</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>3.73</v>
+        <v>2.35</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
         </is>
       </c>
     </row>
@@ -23757,42 +23757,42 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
         <v>2</v>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Albirex Niigata</t>
-        </is>
-      </c>
-      <c r="I254" t="n">
-        <v>3</v>
-      </c>
       <c r="J254" t="n">
-        <v>1.7</v>
+        <v>2.11</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="L254" t="n">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:36</t>
+          <t>29/09/2023 11:49</t>
         </is>
       </c>
       <c r="N254" t="n">
-        <v>4.09</v>
+        <v>3.54</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="P254" t="n">
@@ -23800,28 +23800,28 @@
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:57</t>
+          <t>29/09/2023 11:54</t>
         </is>
       </c>
       <c r="R254" t="n">
-        <v>4.95</v>
+        <v>3.54</v>
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="T254" t="n">
-        <v>4.51</v>
+        <v>2.87</v>
       </c>
       <c r="U254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:57</t>
+          <t>29/09/2023 11:54</t>
         </is>
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-albirex-niigata/lUd6G7gH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-vissel-kobe/QgKZbuOq/</t>
         </is>
       </c>
     </row>
@@ -23849,42 +23849,42 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J255" t="n">
-        <v>2.11</v>
+        <v>1.7</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:49</t>
+          <t>29/09/2023 11:36</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="P255" t="n">
@@ -23892,28 +23892,28 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:54</t>
+          <t>29/09/2023 11:57</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>3.54</v>
+        <v>4.95</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>2.87</v>
+        <v>4.51</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:54</t>
+          <t>29/09/2023 11:57</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-vissel-kobe/QgKZbuOq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-albirex-niigata/lUd6G7gH/</t>
         </is>
       </c>
     </row>
@@ -24309,7 +24309,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -24317,14 +24317,14 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J260" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:58</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>3.08</v>
+        <v>3.81</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>3.26</v>
+        <v>4.71</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kyoto/xlbsIKUL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-nagoya-grampus/MLDrcJhd/</t>
         </is>
       </c>
     </row>
@@ -24401,7 +24401,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -24409,14 +24409,14 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J261" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -24424,15 +24424,15 @@
         </is>
       </c>
       <c r="L261" t="n">
-        <v>1.85</v>
+        <v>2.23</v>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:58</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="N261" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -24440,15 +24440,15 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="R261" t="n">
-        <v>3.81</v>
+        <v>3.08</v>
       </c>
       <c r="S261" t="inlineStr">
         <is>
@@ -24456,16 +24456,16 @@
         </is>
       </c>
       <c r="T261" t="n">
-        <v>4.71</v>
+        <v>3.26</v>
       </c>
       <c r="U261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-nagoya-grampus/MLDrcJhd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kyoto/xlbsIKUL/</t>
         </is>
       </c>
     </row>
@@ -24861,22 +24861,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
         <v>1</v>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>FC Tokyo</t>
-        </is>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
       <c r="J266" t="n">
-        <v>3.04</v>
+        <v>2.77</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -24884,15 +24884,15 @@
         </is>
       </c>
       <c r="L266" t="n">
-        <v>2.65</v>
+        <v>2.89</v>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>21/10/2023 06:58</t>
+          <t>21/10/2023 06:59</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>3.47</v>
+        <v>3.23</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -24900,15 +24900,15 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3.56</v>
+        <v>3.12</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>21/10/2023 06:57</t>
+          <t>21/10/2023 06:59</t>
         </is>
       </c>
       <c r="R266" t="n">
-        <v>2.37</v>
+        <v>2.77</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="T266" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="U266" t="inlineStr">
         <is>
-          <t>21/10/2023 06:58</t>
+          <t>21/10/2023 06:59</t>
         </is>
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-fc-tokyo/8xxQ9dx2/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-nagoya-grampus/trt9WJqF/</t>
         </is>
       </c>
     </row>
@@ -25045,22 +25045,22 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I268" t="n">
         <v>1</v>
       </c>
       <c r="J268" t="n">
-        <v>2.77</v>
+        <v>2.15</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -25068,15 +25068,15 @@
         </is>
       </c>
       <c r="L268" t="n">
-        <v>2.89</v>
+        <v>2.4</v>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>21/10/2023 06:59</t>
+          <t>21/10/2023 06:58</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -25084,15 +25084,15 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>21/10/2023 06:59</t>
+          <t>21/10/2023 06:55</t>
         </is>
       </c>
       <c r="R268" t="n">
-        <v>2.77</v>
+        <v>3.81</v>
       </c>
       <c r="S268" t="inlineStr">
         <is>
@@ -25100,16 +25100,16 @@
         </is>
       </c>
       <c r="T268" t="n">
-        <v>2.78</v>
+        <v>3.39</v>
       </c>
       <c r="U268" t="inlineStr">
         <is>
-          <t>21/10/2023 06:59</t>
+          <t>21/10/2023 06:58</t>
         </is>
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-nagoya-grampus/trt9WJqF/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashima-antlers/fopDVwaL/</t>
         </is>
       </c>
     </row>
@@ -25137,22 +25137,22 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>2.15</v>
+        <v>3.04</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         </is>
       </c>
       <c r="L269" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="M269" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         </is>
       </c>
       <c r="N269" t="n">
-        <v>3.29</v>
+        <v>3.47</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -25176,15 +25176,15 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>3.17</v>
+        <v>3.56</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>21/10/2023 06:55</t>
+          <t>21/10/2023 06:57</t>
         </is>
       </c>
       <c r="R269" t="n">
-        <v>3.81</v>
+        <v>2.37</v>
       </c>
       <c r="S269" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         </is>
       </c>
       <c r="T269" t="n">
-        <v>3.39</v>
+        <v>2.7</v>
       </c>
       <c r="U269" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashima-antlers/fopDVwaL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-fc-tokyo/8xxQ9dx2/</t>
         </is>
       </c>
     </row>
@@ -25505,71 +25505,71 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J273" t="n">
-        <v>3.17</v>
+        <v>3.42</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>3.1</v>
+        <v>3.69</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>28/10/2023 06:38</t>
+          <t>28/10/2023 06:58</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>28/10/2023 06:48</t>
+          <t>28/10/2023 06:55</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="T273" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>28/10/2023 06:38</t>
+          <t>28/10/2023 06:40</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-yokohama-f-marinos/xOEjqcTK/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-vissel-kobe/U7EdNF61/</t>
         </is>
       </c>
     </row>
@@ -25597,71 +25597,71 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
         <v>1</v>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Gamba Osaka</t>
-        </is>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
       <c r="J274" t="n">
-        <v>1.97</v>
+        <v>2.64</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>21/10/2023 09:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>2.04</v>
+        <v>3.36</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>28/10/2023 06:38</t>
+          <t>28/10/2023 06:42</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.76</v>
+        <v>3.28</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>21/10/2023 09:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3.72</v>
+        <v>3.18</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>28/10/2023 06:38</t>
+          <t>28/10/2023 06:56</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>3.86</v>
+        <v>2.88</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>21/10/2023 09:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="T274" t="n">
-        <v>3.71</v>
+        <v>2.4</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>28/10/2023 06:46</t>
+          <t>28/10/2023 06:55</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-gamba-osaka/KnKopwEE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-albirex-niigata/tdLsoJb8/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G276" t="n">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Albirex Niigata</t>
-        </is>
-      </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
       <c r="J276" t="n">
-        <v>2.64</v>
+        <v>1.97</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 09:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>3.36</v>
+        <v>2.04</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>28/10/2023 06:42</t>
+          <t>28/10/2023 06:38</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.28</v>
+        <v>3.76</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 09:12</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.18</v>
+        <v>3.72</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>28/10/2023 06:56</t>
+          <t>28/10/2023 06:38</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>2.88</v>
+        <v>3.86</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 09:12</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>2.4</v>
+        <v>3.71</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>28/10/2023 06:55</t>
+          <t>28/10/2023 06:46</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-albirex-niigata/tdLsoJb8/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-gamba-osaka/KnKopwEE/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J277" t="n">
-        <v>3.42</v>
+        <v>3.17</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>3.69</v>
+        <v>3.1</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>28/10/2023 06:58</t>
+          <t>28/10/2023 06:38</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>28/10/2023 06:55</t>
+          <t>28/10/2023 06:48</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>28/10/2023 06:40</t>
+          <t>28/10/2023 06:38</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-vissel-kobe/U7EdNF61/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-yokohama-f-marinos/xOEjqcTK/</t>
         </is>
       </c>
     </row>
@@ -26149,7 +26149,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G280" t="n">
@@ -26157,14 +26157,14 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>3.11</v>
+        <v>2.25</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -26172,15 +26172,15 @@
         </is>
       </c>
       <c r="L280" t="n">
-        <v>3.78</v>
+        <v>2.33</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>11/11/2023 05:58</t>
+          <t>11/11/2023 05:45</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>3.71</v>
+        <v>3.46</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -26188,15 +26188,15 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>4.17</v>
+        <v>3.47</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>11/11/2023 05:53</t>
+          <t>11/11/2023 05:40</t>
         </is>
       </c>
       <c r="R280" t="n">
-        <v>2.23</v>
+        <v>3.27</v>
       </c>
       <c r="S280" t="inlineStr">
         <is>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="T280" t="n">
-        <v>1.9</v>
+        <v>3.22</v>
       </c>
       <c r="U280" t="inlineStr">
         <is>
-          <t>11/11/2023 05:53</t>
+          <t>11/11/2023 05:47</t>
         </is>
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-sanfrecce-hiroshima/Gxhwzgj7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-fc-tokyo/nc4Qxe6l/</t>
         </is>
       </c>
     </row>
@@ -26241,22 +26241,22 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -26264,15 +26264,15 @@
         </is>
       </c>
       <c r="L281" t="n">
-        <v>2.85</v>
+        <v>3.78</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>11/11/2023 05:59</t>
+          <t>11/11/2023 05:58</t>
         </is>
       </c>
       <c r="N281" t="n">
-        <v>3.31</v>
+        <v>3.71</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
@@ -26280,15 +26280,15 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>3.33</v>
+        <v>4.17</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>11/11/2023 05:54</t>
+          <t>11/11/2023 05:53</t>
         </is>
       </c>
       <c r="R281" t="n">
-        <v>2.46</v>
+        <v>2.23</v>
       </c>
       <c r="S281" t="inlineStr">
         <is>
@@ -26296,16 +26296,16 @@
         </is>
       </c>
       <c r="T281" t="n">
-        <v>2.66</v>
+        <v>1.9</v>
       </c>
       <c r="U281" t="inlineStr">
         <is>
-          <t>11/11/2023 05:59</t>
+          <t>11/11/2023 05:53</t>
         </is>
       </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-nagoya-grampus/Yg0Mwyir/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-sanfrecce-hiroshima/Gxhwzgj7/</t>
         </is>
       </c>
     </row>
@@ -26333,22 +26333,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="n">
-        <v>2.25</v>
+        <v>3.03</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -26356,15 +26356,15 @@
         </is>
       </c>
       <c r="L282" t="n">
-        <v>2.33</v>
+        <v>2.85</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>11/11/2023 05:45</t>
+          <t>11/11/2023 05:59</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>3.46</v>
+        <v>3.31</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -26372,15 +26372,15 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>11/11/2023 05:40</t>
+          <t>11/11/2023 05:54</t>
         </is>
       </c>
       <c r="R282" t="n">
-        <v>3.27</v>
+        <v>2.46</v>
       </c>
       <c r="S282" t="inlineStr">
         <is>
@@ -26388,16 +26388,16 @@
         </is>
       </c>
       <c r="T282" t="n">
-        <v>3.22</v>
+        <v>2.66</v>
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>11/11/2023 05:47</t>
+          <t>11/11/2023 05:59</t>
         </is>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-fc-tokyo/nc4Qxe6l/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-nagoya-grampus/Yg0Mwyir/</t>
         </is>
       </c>
     </row>
@@ -26425,7 +26425,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -26433,14 +26433,14 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="n">
-        <v>2.03</v>
+        <v>2.39</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -26448,15 +26448,15 @@
         </is>
       </c>
       <c r="L283" t="n">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>11/11/2023 06:57</t>
+          <t>11/11/2023 06:58</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>3.33</v>
+        <v>3.28</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -26464,15 +26464,15 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>11/11/2023 06:39</t>
+          <t>11/11/2023 06:59</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>4.04</v>
+        <v>3.17</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
@@ -26480,16 +26480,16 @@
         </is>
       </c>
       <c r="T283" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>11/11/2023 06:57</t>
+          <t>11/11/2023 06:56</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kashiwa-reysol/GEDfrHrR/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-avispa-fukuoka/ULgVyFLf/</t>
         </is>
       </c>
     </row>
@@ -26517,7 +26517,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G284" t="n">
@@ -26525,14 +26525,14 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="n">
-        <v>2.39</v>
+        <v>2.03</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -26540,15 +26540,15 @@
         </is>
       </c>
       <c r="L284" t="n">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>11/11/2023 06:58</t>
+          <t>11/11/2023 06:57</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -26556,15 +26556,15 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>11/11/2023 06:59</t>
+          <t>11/11/2023 06:39</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>3.17</v>
+        <v>4.04</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
@@ -26572,16 +26572,16 @@
         </is>
       </c>
       <c r="T284" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>11/11/2023 06:56</t>
+          <t>11/11/2023 06:57</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-avispa-fukuoka/ULgVyFLf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kashiwa-reysol/GEDfrHrR/</t>
         </is>
       </c>
     </row>
@@ -26674,6 +26674,282 @@
       <c r="V285" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-fc/8ChZzZz1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45242.25</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>3</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>3</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:59</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="P286" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:59</t>
+        </is>
+      </c>
+      <c r="R286" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="T286" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-kyoto/dYUPcdrE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45242.25</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>2</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:56</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="T287" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:57</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-cerezo-osaka/AyZTdGcK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45242.29166666666</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>2</v>
+      </c>
+      <c r="J288" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>04/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>12/11/2023 06:54</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>04/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>12/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>04/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T288" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>12/11/2023 06:54</t>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-vissel-kobe/fTjsZC5D/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j1-league_2023.xlsx
+++ b/2023/japan_j1-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V288"/>
+  <dimension ref="A1:V290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.71</v>
+        <v>2.91</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.53</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.67</v>
+        <v>3.38</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>25/02/2023 08:00</t>
+          <t>25/02/2023 07:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.78</v>
+        <v>2.59</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>25/02/2023 08:00</t>
+          <t>25/02/2023 07:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kyoto/IZD3ynbK/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kawasaki-frontale/2RVGDr6D/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.91</v>
+        <v>1.71</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>3.53</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.38</v>
+        <v>3.67</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25/02/2023 07:53</t>
+          <t>25/02/2023 08:00</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.59</v>
+        <v>5.78</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>25/02/2023 07:54</t>
+          <t>25/02/2023 08:00</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kawasaki-frontale/2RVGDr6D/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kyoto/IZD3ynbK/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.64</v>
+        <v>2.48</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4.12</v>
+        <v>2.31</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>04/03/2023 05:57</t>
+          <t>04/03/2023 05:55</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.51</v>
+        <v>3.76</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>04/03/2023 05:58</t>
+          <t>04/03/2023 05:55</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.04</v>
+        <v>2.82</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>3.03</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>04/03/2023 05:56</t>
+          <t>04/03/2023 05:55</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kashima-antlers/lK1YPPZS/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-hokkaido-consadole-sapporo/AXhrU3jf/</t>
         </is>
       </c>
     </row>
@@ -2505,30 +2505,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.04</v>
+        <v>2.69</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>26/02/2023 07:13</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.8</v>
+        <v>4.56</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,40 +2536,40 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>26/02/2023 07:13</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.62</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>04/03/2023 05:34</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>26/02/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>04/03/2023 05:59</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>25/02/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>04/03/2023 05:59</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-gamba-osaka/Wv5cK3cj/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-fc-tokyo/jTm0Lqrp/</t>
         </is>
       </c>
     </row>
@@ -2597,30 +2597,30 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.69</v>
+        <v>2.04</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>26/02/2023 07:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4.56</v>
+        <v>1.8</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>26/02/2023 07:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.62</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>04/03/2023 05:34</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.69</v>
+        <v>3.84</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>26/02/2023 07:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.87</v>
+        <v>4.82</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-fc-tokyo/jTm0Lqrp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-gamba-osaka/Wv5cK3cj/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>26/02/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>04/03/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>26/02/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>04/03/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>26/02/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Hokkaido Consadole Sapporo</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>26/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>04/03/2023 05:55</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>26/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>04/03/2023 05:55</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>26/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>3.03</v>
-      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/03/2023 05:55</t>
+          <t>04/03/2023 05:56</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-hokkaido-consadole-sapporo/AXhrU3jf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kashima-antlers/lK1YPPZS/</t>
         </is>
       </c>
     </row>
@@ -3057,62 +3057,62 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Kawasaki Frontale</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>3.13</v>
+        <v>2.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>04/03/2023 07:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4.48</v>
+        <v>2.41</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>11/03/2023 05:58</t>
+          <t>11/03/2023 05:56</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.63</v>
+        <v>3.42</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>04/03/2023 07:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.96</v>
+        <v>3.27</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>11/03/2023 05:58</t>
+          <t>11/03/2023 05:56</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>04/03/2023 07:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.81</v>
+        <v>3.26</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kawasaki-frontale/YaFrRrkn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-urawa-reds/GO4mQ24h/</t>
         </is>
       </c>
     </row>
@@ -3149,62 +3149,62 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Urawa Reds</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.57</v>
+        <v>3.13</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>04/03/2023 07:13</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.41</v>
+        <v>4.48</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>11/03/2023 05:56</t>
+          <t>11/03/2023 05:58</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.42</v>
+        <v>3.63</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>04/03/2023 07:13</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.27</v>
+        <v>3.96</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>11/03/2023 05:56</t>
+          <t>11/03/2023 05:58</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>04/03/2023 07:13</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.26</v>
+        <v>1.81</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-urawa-reds/GO4mQ24h/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kawasaki-frontale/YaFrRrkn/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>1.69</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.46</v>
+        <v>1.88</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.08</v>
+        <v>3.75</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.11</v>
+        <v>3.52</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.52</v>
+        <v>5.4</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-nagoya-grampus/SQl0vPlM/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kyoto/CbQWY2Cq/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.99</v>
+        <v>3.46</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>12/03/2023 06:54</t>
+          <t>12/03/2023 06:59</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.43</v>
+        <v>3.08</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.27</v>
+        <v>3.11</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>12/03/2023 06:57</t>
+          <t>12/03/2023 06:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.64</v>
+        <v>2.52</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.54</v>
+        <v>2.4</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-avispa-fukuoka/bipdu5ZF/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-nagoya-grampus/SQl0vPlM/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.73</v>
+        <v>1.87</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.96</v>
+        <v>1.99</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>12/03/2023 06:54</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>05/03/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>12/03/2023 06:57</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>05/03/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
           <t>12/03/2023 06:59</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>05/03/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>12/03/2023 06:59</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>05/03/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>12/03/2023 06:59</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-yokohama-f-marinos/K0ohtoK9/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-avispa-fukuoka/bipdu5ZF/</t>
         </is>
       </c>
     </row>
@@ -3609,46 +3609,46 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.62</v>
+        <v>3.73</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>05/03/2023 07:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.71</v>
+        <v>2.96</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>12/03/2023 06:49</t>
+          <t>12/03/2023 06:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.02</v>
+        <v>4.14</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>05/03/2023 07:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.84</v>
+        <v>3.94</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.62</v>
+        <v>1.91</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>05/03/2023 17:12</t>
+          <t>05/03/2023 07:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.35</v>
+        <v>2.29</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-yokohama-fc/6Hm4wq4S/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-yokohama-f-marinos/K0ohtoK9/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>05/03/2023 07:12</t>
+          <t>05/03/2023 17:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>12/03/2023 06:49</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>05/03/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>12/03/2023 06:59</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>05/03/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q36" t="inlineStr">
+      <c r="R36" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>05/03/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="U36" t="inlineStr">
         <is>
           <t>12/03/2023 06:59</t>
         </is>
       </c>
-      <c r="R36" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>05/03/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>12/03/2023 06:59</t>
-        </is>
-      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kyoto/CbQWY2Cq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-yokohama-fc/6Hm4wq4S/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.71</v>
+        <v>2.17</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>18/03/2023 05:57</t>
+          <t>18/03/2023 05:40</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.45</v>
+        <v>3.44</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.94</v>
+        <v>3.11</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>18/03/2023 05:58</t>
+          <t>18/03/2023 05:38</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.27</v>
+        <v>3.47</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.19</v>
+        <v>3.45</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>18/03/2023 05:57</t>
+          <t>18/03/2023 05:53</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kashima-antlers/IeTvXtsd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-fc-tokyo/zXcPvg02/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>12/03/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
         <v>2.17</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>18/03/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O40" t="inlineStr">
         <is>
           <t>12/03/2023 07:13</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>18/03/2023 05:40</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="P40" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>18/03/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>12/03/2023 07:13</t>
         </is>
       </c>
-      <c r="P40" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>18/03/2023 05:38</t>
-        </is>
-      </c>
-      <c r="R40" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>12/03/2023 07:13</t>
-        </is>
-      </c>
       <c r="T40" t="n">
-        <v>3.45</v>
+        <v>3.19</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>18/03/2023 05:53</t>
+          <t>18/03/2023 05:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-fc-tokyo/zXcPvg02/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kashima-antlers/IeTvXtsd/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.85</v>
+        <v>3.03</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.77</v>
+        <v>3.34</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,40 +4192,40 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.85</v>
+        <v>3.24</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.91</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
+          <t>18/03/2023 06:49</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>12/03/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
           <t>18/03/2023 06:59</t>
         </is>
       </c>
-      <c r="R41" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>12/03/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T41" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>18/03/2023 06:59</t>
-        </is>
-      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-albirex-niigata/ENdTwDF8/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-vissel-kobe/Mm0yxipL/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.03</v>
+        <v>2.64</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>18/03/2023 06:59</t>
+          <t>18/03/2023 06:56</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.24</v>
+        <v>3.57</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>18/03/2023 06:49</t>
+          <t>18/03/2023 06:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>18/03/2023 06:59</t>
+          <t>18/03/2023 06:56</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-vissel-kobe/Mm0yxipL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-hokkaido-consadole-sapporo/8pdXxXUE/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.64</v>
+        <v>1.85</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.27</v>
+        <v>1.77</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>18/03/2023 06:56</t>
+          <t>18/03/2023 06:59</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.57</v>
+        <v>3.85</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.91</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>18/03/2023 06:58</t>
+          <t>18/03/2023 06:59</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.63</v>
+        <v>4.13</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.25</v>
+        <v>4.78</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>18/03/2023 06:56</t>
+          <t>18/03/2023 06:59</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-hokkaido-consadole-sapporo/8pdXxXUE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-albirex-niigata/ENdTwDF8/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>FC Tokyo</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.96</v>
+        <v>2.04</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4.24</v>
+        <v>2.07</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>01/04/2023 07:58</t>
+          <t>01/04/2023 07:51</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.24</v>
+        <v>3.36</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>01/04/2023 07:58</t>
+          <t>01/04/2023 07:51</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.6</v>
+        <v>4.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/03/2023 16:43</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>01/04/2023 07:56</t>
+          <t>01/04/2023 07:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-fc-tokyo/M9mrYsqm/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-gamba-osaka/rJlvZNTt/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.64</v>
+        <v>4.24</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/04/2023 07:50</t>
+          <t>01/04/2023 07:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.52</v>
+        <v>3.24</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>01/04/2023 07:59</t>
+          <t>01/04/2023 07:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.86</v>
+        <v>1.94</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>01/04/2023 07:50</t>
+          <t>01/04/2023 07:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-sanfrecce-hiroshima/S8V9jjaE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-fc-tokyo/M9mrYsqm/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.07</v>
+        <v>2.64</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/04/2023 07:51</t>
+          <t>01/04/2023 07:50</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.36</v>
+        <v>3.52</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/04/2023 07:51</t>
+          <t>01/04/2023 07:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.09</v>
+        <v>2.73</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 16:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.85</v>
+        <v>2.86</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/04/2023 07:52</t>
+          <t>01/04/2023 07:50</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-gamba-osaka/rJlvZNTt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-sanfrecce-hiroshima/S8V9jjaE/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.55</v>
+        <v>2.03</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>09/04/2023 07:57</t>
+          <t>09/04/2023 07:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.09</v>
+        <v>3.15</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>09/04/2023 07:40</t>
+          <t>09/04/2023 07:35</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>09/04/2023 07:57</t>
+          <t>09/04/2023 07:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-urawa-reds/zDDHnsbt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-kyoto/8QBPpLSh/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.51</v>
+        <v>2.67</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>09/04/2023 07:31</t>
+          <t>09/04/2023 07:57</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.26</v>
+        <v>3.09</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>09/04/2023 07:53</t>
+          <t>09/04/2023 07:40</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.06</v>
+        <v>3.16</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.16</v>
+        <v>3.09</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>09/04/2023 07:31</t>
+          <t>09/04/2023 07:57</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-shonan-bellmare/biMkiNkP/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-urawa-reds/zDDHnsbt/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.03</v>
+        <v>2.54</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,48 +6208,48 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.43</v>
+        <v>2.51</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>09/04/2023 07:59</t>
+          <t>09/04/2023 07:31</t>
         </is>
       </c>
       <c r="N63" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>01/04/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
         <v>3.26</v>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>09/04/2023 07:53</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S63" t="inlineStr">
         <is>
           <t>01/04/2023 09:42</t>
         </is>
       </c>
-      <c r="P63" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>09/04/2023 07:35</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>01/04/2023 09:42</t>
-        </is>
-      </c>
       <c r="T63" t="n">
-        <v>3.43</v>
+        <v>3.16</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>09/04/2023 07:58</t>
+          <t>09/04/2023 07:31</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-kyoto/8QBPpLSh/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-shonan-bellmare/biMkiNkP/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.88</v>
+        <v>2.95</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.89</v>
+        <v>2.72</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>15/04/2023 07:56</t>
+          <t>15/04/2023 07:57</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>15/04/2023 07:55</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.12</v>
+        <v>2.29</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>15/04/2023 07:56</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-nagoya-grampus/IHKwtcsO/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.95</v>
+        <v>1.88</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.72</v>
+        <v>2.89</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:57</t>
+          <t>15/04/2023 07:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:55</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.29</v>
+        <v>4.12</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-nagoya-grampus/IHKwtcsO/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Vissel Kobe</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>5</v>
-      </c>
       <c r="J71" t="n">
-        <v>2.2</v>
+        <v>2.49</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.46</v>
+        <v>3.39</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
+          <t>15/04/2023 08:59</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>09/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
           <t>15/04/2023 08:58</t>
         </is>
       </c>
-      <c r="N71" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>09/04/2023 12:12</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>15/04/2023 08:58</t>
-        </is>
-      </c>
       <c r="R71" t="n">
-        <v>3.42</v>
+        <v>2.92</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>15/04/2023 08:58</t>
+          <t>15/04/2023 08:59</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-vissel-kobe/nXbiaKsn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-gamba-osaka/St7acbCb/</t>
         </is>
       </c>
     </row>
@@ -7105,46 +7105,46 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.39</v>
+        <v>2.46</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>15/04/2023 08:59</t>
+          <t>15/04/2023 08:58</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.53</v>
+        <v>3.28</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -7152,24 +7152,24 @@
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.92</v>
+        <v>3.42</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.22</v>
+        <v>3.15</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>15/04/2023 08:59</t>
+          <t>15/04/2023 08:58</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-gamba-osaka/St7acbCb/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-vissel-kobe/nXbiaKsn/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,22 +7849,22 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.73</v>
+        <v>2.23</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 19:13</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.64</v>
+        <v>2.23</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,15 +7872,15 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.1</v>
+        <v>3.49</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 19:13</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.41</v>
+        <v>3.43</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,24 +7888,24 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.54</v>
+        <v>3.29</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 19:13</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>5.18</v>
+        <v>3.47</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>23/04/2023 08:59</t>
+          <t>23/04/2023 08:51</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-yokohama-fc/80SYBcRi/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-urawa-reds/U9TUCwCo/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,22 +7941,22 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>15/04/2023 19:13</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.23</v>
+        <v>1.64</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,15 +7964,15 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.49</v>
+        <v>4.1</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>15/04/2023 19:13</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.43</v>
+        <v>4.41</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,24 +7980,24 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.29</v>
+        <v>4.54</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>15/04/2023 19:13</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.47</v>
+        <v>5.18</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>23/04/2023 08:51</t>
+          <t>23/04/2023 08:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-urawa-reds/U9TUCwCo/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-yokohama-fc/80SYBcRi/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,63 +8309,63 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.94</v>
+        <v>2.41</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>29/04/2023 07:53</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>23/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
           <t>29/04/2023 07:58</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>23/04/2023 07:12</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>29/04/2023 07:58</t>
-        </is>
-      </c>
       <c r="R86" t="n">
-        <v>3.56</v>
+        <v>4.28</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/04/2023 07:59</t>
+          <t>29/04/2023 07:53</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-kyoto/jqKk8FQG/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-nagoya-grampus/OdIc6geT/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>23/04/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
         <v>1.94</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>24/04/2023 03:42</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>2.15</v>
-      </c>
       <c r="M87" t="inlineStr">
         <is>
           <t>29/04/2023 07:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.78</v>
+        <v>3.41</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>24/04/2023 03:42</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.62</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
+          <t>29/04/2023 07:58</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>23/04/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
           <t>29/04/2023 07:59</t>
         </is>
       </c>
-      <c r="R87" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>24/04/2023 03:42</t>
-        </is>
-      </c>
-      <c r="T87" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>29/04/2023 07:59</t>
-        </is>
-      </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-albirex-niigata/p6Jg7ZuN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-kyoto/jqKk8FQG/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.41</v>
+        <v>2.15</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/04/2023 07:53</t>
+          <t>29/04/2023 07:58</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.81</v>
+        <v>3.78</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.76</v>
+        <v>3.38</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/04/2023 07:58</t>
+          <t>29/04/2023 07:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.28</v>
+        <v>3.84</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/04/2023 07:53</t>
+          <t>29/04/2023 07:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-nagoya-grampus/OdIc6geT/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-albirex-niigata/p6Jg7ZuN/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>3.84</v>
+        <v>3.04</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.91</v>
+        <v>2.48</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>03/05/2023 06:59</t>
+          <t>03/05/2023 06:54</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.78</v>
+        <v>3.44</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>03/05/2023 06:58</t>
+          <t>03/05/2023 06:33</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.94</v>
+        <v>2.43</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.96</v>
+        <v>2.98</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>03/05/2023 06:59</t>
+          <t>03/05/2023 06:54</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kawasaki-frontale/2u7aN0lB/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-cerezo-osaka/KG14MK3H/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Cerezo Osaka</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
       <c r="J93" t="n">
-        <v>3.04</v>
+        <v>3.84</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.48</v>
+        <v>3.91</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/05/2023 06:54</t>
+          <t>03/05/2023 06:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.44</v>
+        <v>3.78</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.46</v>
+        <v>3.8</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/05/2023 06:33</t>
+          <t>03/05/2023 06:58</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.43</v>
+        <v>1.94</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.98</v>
+        <v>1.96</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/05/2023 06:54</t>
+          <t>03/05/2023 06:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-cerezo-osaka/KG14MK3H/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kawasaki-frontale/2u7aN0lB/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,63 +9045,63 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.96</v>
+        <v>3.14</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.2</v>
+        <v>2.96</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>03/05/2023 07:59</t>
+          <t>03/05/2023 07:44</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.68</v>
+        <v>3.04</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.63</v>
+        <v>2.97</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>03/05/2023 07:56</t>
+          <t>03/05/2023 06:51</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.97</v>
+        <v>2.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.37</v>
+        <v>2.83</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>03/05/2023 07:58</t>
+          <t>03/05/2023 07:44</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashiwa-reysol/b708LvJN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-fc-tokyo/SMjvGIto/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.11</v>
+        <v>3.68</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.22</v>
+        <v>3.63</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/05/2023 07:59</t>
+          <t>03/05/2023 07:56</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.12</v>
+        <v>3.97</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/05/2023 07:59</t>
+          <t>03/05/2023 07:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-vissel-kobe/hUaCKbYT/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashiwa-reysol/b708LvJN/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>3.14</v>
+        <v>2.52</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/05/2023 07:44</t>
+          <t>03/05/2023 07:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/05/2023 06:51</t>
+          <t>03/05/2023 07:59</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.6</v>
+        <v>3.12</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.83</v>
+        <v>3.26</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/05/2023 07:44</t>
+          <t>03/05/2023 07:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-fc-tokyo/SMjvGIto/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-vissel-kobe/hUaCKbYT/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.48</v>
+        <v>2.22</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/05/2023 08:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>07/05/2023 06:51</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>5.02</v>
+        <v>3.39</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/05/2023 08:12</t>
+          <t>03/05/2023 12:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.95</v>
+        <v>3.23</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
+          <t>07/05/2023 06:41</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>03/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>07/05/2023 06:52</t>
         </is>
       </c>
-      <c r="R102" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>03/05/2023 08:12</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>07/05/2023 06:52</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kyoto/CAQszvYG/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.39</v>
+        <v>2.78</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.38</v>
+        <v>2.76</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>5.05</v>
+        <v>3.34</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>5.27</v>
+        <v>3.26</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:54</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>7.97</v>
+        <v>2.64</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>03/05/2023 12:12</t>
+          <t>03/05/2023 07:12</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>8.31</v>
+        <v>2.79</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/05/2023 06:41</t>
+          <t>07/05/2023 06:59</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.78</v>
+        <v>1.48</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 08:12</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.76</v>
+        <v>1.55</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:51</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.34</v>
+        <v>5.02</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 08:12</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.26</v>
+        <v>4.95</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:54</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.64</v>
+        <v>5.84</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>03/05/2023 07:12</t>
+          <t>03/05/2023 08:12</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.79</v>
+        <v>5.46</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/05/2023 06:59</t>
+          <t>07/05/2023 06:52</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kashima-antlers/pOOkYH2T/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kyoto/CAQszvYG/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.22</v>
+        <v>1.39</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.73</v>
+        <v>1.38</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.39</v>
+        <v>5.05</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.23</v>
+        <v>5.27</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.48</v>
+        <v>7.97</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.86</v>
+        <v>8.31</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/05/2023 06:52</t>
+          <t>07/05/2023 06:41</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashiwa-reysol/6XPoZcmN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-yokohama-fc/z3rATyBp/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,14 +10793,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.51</v>
+        <v>3.5</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.42</v>
+        <v>3.63</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.11</v>
+        <v>3.88</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.06</v>
+        <v>4.1</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>14/05/2023 06:29</t>
+          <t>14/05/2023 06:28</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.2</v>
+        <v>2.04</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>14/05/2023 06:28</t>
+          <t>14/05/2023 06:26</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-nagoya-grampus/QNa91491/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-yokohama-f-marinos/4EbD0OO7/</t>
         </is>
       </c>
     </row>
@@ -10877,71 +10877,71 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>3.5</v>
+        <v>1.94</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>07/05/2023 07:12</t>
+          <t>10/05/2023 12:42</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.63</v>
+        <v>2.12</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/05/2023 06:28</t>
+          <t>14/05/2023 06:18</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.88</v>
+        <v>3.56</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>07/05/2023 07:12</t>
+          <t>10/05/2023 12:42</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/05/2023 06:28</t>
+          <t>14/05/2023 06:18</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.04</v>
+        <v>4.23</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>07/05/2023 07:12</t>
+          <t>10/05/2023 12:42</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>1.96</v>
+        <v>4</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/05/2023 06:26</t>
+          <t>14/05/2023 06:18</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-yokohama-f-marinos/4EbD0OO7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-sagan-tosu/U7IiORGE/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.94</v>
+        <v>2.51</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>10/05/2023 12:42</t>
+          <t>07/05/2023 07:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.12</v>
+        <v>3.42</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/05/2023 06:18</t>
+          <t>14/05/2023 06:28</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.56</v>
+        <v>3.11</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>10/05/2023 12:42</t>
+          <t>07/05/2023 07:12</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/05/2023 06:18</t>
+          <t>14/05/2023 06:29</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>4.23</v>
+        <v>3.2</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>10/05/2023 12:42</t>
+          <t>07/05/2023 07:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/05/2023 06:18</t>
+          <t>14/05/2023 06:28</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-sagan-tosu/U7IiORGE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-nagoya-grampus/QNa91491/</t>
         </is>
       </c>
     </row>
@@ -12073,26 +12073,26 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>20/05/2023 08:13</t>
+          <t>20/05/2023 09:13</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -12100,44 +12100,44 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/05/2023 06:57</t>
+          <t>27/05/2023 06:56</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.93</v>
+        <v>3.65</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>20/05/2023 08:13</t>
+          <t>20/05/2023 09:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/05/2023 06:57</t>
+          <t>27/05/2023 06:56</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.93</v>
+        <v>4.52</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>20/05/2023 08:13</t>
+          <t>20/05/2023 09:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.04</v>
+        <v>5.15</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/05/2023 06:57</t>
+          <t>27/05/2023 06:58</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-shonan-bellmare/t0ZajaIc/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-fc-tokyo/SdVeiu3i/</t>
         </is>
       </c>
     </row>
@@ -12165,26 +12165,26 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>20/05/2023 09:13</t>
+          <t>20/05/2023 08:13</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -12192,44 +12192,44 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>27/05/2023 06:56</t>
+          <t>27/05/2023 06:57</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.65</v>
+        <v>3.93</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>20/05/2023 09:13</t>
+          <t>20/05/2023 08:13</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>27/05/2023 06:56</t>
+          <t>27/05/2023 06:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.52</v>
+        <v>4.93</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>20/05/2023 09:13</t>
+          <t>20/05/2023 08:13</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.15</v>
+        <v>5.04</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>27/05/2023 06:58</t>
+          <t>27/05/2023 06:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-fc-tokyo/SdVeiu3i/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-shonan-bellmare/t0ZajaIc/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>1.58</v>
+        <v>2.68</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>20/05/2023 09:42</t>
+          <t>20/05/2023 12:12</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
+          <t>28/05/2023 06:57</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>28/05/2023 06:56</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>20/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
           <t>28/05/2023 06:59</t>
         </is>
       </c>
-      <c r="N132" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>20/05/2023 09:42</t>
-        </is>
-      </c>
-      <c r="P132" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:59</t>
-        </is>
-      </c>
-      <c r="R132" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>20/05/2023 09:42</t>
-        </is>
-      </c>
-      <c r="T132" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:59</t>
-        </is>
-      </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-yokohama-fc/QcGISt80/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-gamba-osaka/rZQDTMhf/</t>
         </is>
       </c>
     </row>
@@ -12625,62 +12625,62 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>2.68</v>
+        <v>1.58</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>28/05/2023 06:57</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.37</v>
+        <v>4.27</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.52</v>
+        <v>4.45</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>28/05/2023 06:56</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.76</v>
+        <v>5.59</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>20/05/2023 12:12</t>
+          <t>20/05/2023 09:42</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3.44</v>
+        <v>5.37</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-gamba-osaka/rZQDTMhf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-yokohama-fc/QcGISt80/</t>
         </is>
       </c>
     </row>
@@ -14097,46 +14097,46 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G149" t="n">
+        <v>3</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>FC Tokyo</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
         <v>1</v>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Shonan Bellmare</t>
-        </is>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
       <c r="J149" t="n">
-        <v>2.07</v>
+        <v>2.37</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>04/06/2023 10:11</t>
+          <t>03/06/2023 17:43</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.79</v>
+        <v>2.43</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>11/06/2023 10:58</t>
+          <t>11/06/2023 10:59</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>04/06/2023 10:11</t>
+          <t>03/06/2023 17:43</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.63</v>
+        <v>3.31</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -14144,24 +14144,24 @@
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.79</v>
+        <v>3.11</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>04/06/2023 10:11</t>
+          <t>03/06/2023 17:43</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>5.07</v>
+        <v>3.14</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>11/06/2023 10:59</t>
+          <t>11/06/2023 10:54</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-shonan-bellmare/pMBQeuxm/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-fc-tokyo/bPFUfaig/</t>
         </is>
       </c>
     </row>
@@ -14189,71 +14189,71 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.37</v>
+        <v>2.07</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>03/06/2023 17:43</t>
+          <t>04/06/2023 10:11</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.43</v>
+        <v>1.79</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
+          <t>11/06/2023 10:58</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>04/06/2023 10:11</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
           <t>11/06/2023 10:59</t>
         </is>
       </c>
-      <c r="N150" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>03/06/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P150" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q150" t="inlineStr">
+      <c r="R150" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>04/06/2023 10:11</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="U150" t="inlineStr">
         <is>
           <t>11/06/2023 10:59</t>
         </is>
       </c>
-      <c r="R150" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>03/06/2023 17:43</t>
-        </is>
-      </c>
-      <c r="T150" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="U150" t="inlineStr">
-        <is>
-          <t>11/06/2023 10:54</t>
-        </is>
-      </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-fc-tokyo/bPFUfaig/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-shonan-bellmare/pMBQeuxm/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J154" t="n">
-        <v>3.13</v>
+        <v>2.1</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,48 +14580,48 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>3.54</v>
+        <v>2.21</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
+          <t>24/06/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
           <t>24/06/2023 11:58</t>
         </is>
       </c>
-      <c r="N154" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O154" t="inlineStr">
+      <c r="R154" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S154" t="inlineStr">
         <is>
           <t>16/06/2023 12:42</t>
         </is>
       </c>
-      <c r="P154" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R154" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
       <c r="T154" t="n">
-        <v>2.22</v>
+        <v>3.32</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:50</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-nagoya-grampus/ryh7ZlLp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sagan-tosu/dvdBY8zi/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>3.12</v>
+        <v>2.26</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,48 +14672,48 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.84</v>
+        <v>2.08</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="N155" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>24/06/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
         <v>3.25</v>
       </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
-      <c r="P155" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="Q155" t="inlineStr">
+      <c r="U155" t="inlineStr">
         <is>
           <t>24/06/2023 11:59</t>
         </is>
       </c>
-      <c r="R155" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T155" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:58</t>
-        </is>
-      </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kashima-antlers/v3LetLgc/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,14 +14841,14 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>2.26</v>
+        <v>2.41</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:52</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.71</v>
+        <v>3.4</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.16</v>
+        <v>3.55</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:57</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.11</v>
+        <v>3.03</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:52</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-albirex-niigata/juUwiHjI/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>2.1</v>
+        <v>3.12</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.21</v>
+        <v>2.84</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>24/06/2023 11:50</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,32 +14964,32 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.65</v>
+        <v>3.07</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
+          <t>24/06/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
           <t>24/06/2023 11:58</t>
         </is>
       </c>
-      <c r="R158" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T158" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="U158" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:50</t>
-        </is>
-      </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sagan-tosu/dvdBY8zi/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kashima-antlers/v3LetLgc/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.41</v>
+        <v>3.13</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.43</v>
+        <v>3.54</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>24/06/2023 11:52</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.55</v>
+        <v>3.39</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         </is>
       </c>
       <c r="R159" t="n">
-        <v>3.03</v>
+        <v>2.4</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2.99</v>
+        <v>2.22</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/06/2023 11:52</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-albirex-niigata/juUwiHjI/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-nagoya-grampus/ryh7ZlLp/</t>
         </is>
       </c>
     </row>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -15485,22 +15485,22 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>3.98</v>
+        <v>2.55</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>24/06/2023 12:12</t>
+          <t>24/06/2023 12:42</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>3.81</v>
+        <v>2.69</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,15 +15508,15 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>24/06/2023 12:12</t>
+          <t>24/06/2023 12:42</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.59</v>
+        <v>3.39</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,15 +15524,15 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>1.96</v>
+        <v>3.01</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>24/06/2023 12:12</t>
+          <t>24/06/2023 12:42</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>2.05</v>
+        <v>2.77</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-sanfrecce-hiroshima/xb3rXGGq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kawasaki-frontale/fZcmWzWk/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,22 +15669,22 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>2.55</v>
+        <v>3.98</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>24/06/2023 12:42</t>
+          <t>24/06/2023 12:12</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.69</v>
+        <v>3.81</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -15692,15 +15692,15 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.25</v>
+        <v>3.69</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>24/06/2023 12:42</t>
+          <t>24/06/2023 12:12</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.39</v>
+        <v>3.59</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -15708,15 +15708,15 @@
         </is>
       </c>
       <c r="R166" t="n">
-        <v>3.01</v>
+        <v>1.96</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>24/06/2023 12:42</t>
+          <t>24/06/2023 12:12</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.77</v>
+        <v>2.05</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kawasaki-frontale/fZcmWzWk/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-sanfrecce-hiroshima/xb3rXGGq/</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -15853,63 +15853,63 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>24/06/2023 12:12</t>
+          <t>08/06/2023 16:31</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.19</v>
+        <v>1.79</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>01/07/2023 11:48</t>
+          <t>01/07/2023 11:56</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.48</v>
+        <v>3.82</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>24/06/2023 12:12</t>
+          <t>08/06/2023 16:31</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.49</v>
+        <v>4.22</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>01/07/2023 11:41</t>
+          <t>01/07/2023 11:56</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>3.68</v>
+        <v>3.43</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>24/06/2023 12:12</t>
+          <t>08/06/2023 16:31</t>
         </is>
       </c>
       <c r="T168" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>01/07/2023 11:59</t>
+          <t>01/07/2023 11:56</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-kashiwa-reysol/nTpZgvOd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-hokkaido-consadole-sapporo/0Wlwgbw3/</t>
         </is>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -16037,63 +16037,63 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>08/06/2023 16:31</t>
+          <t>24/06/2023 12:12</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.79</v>
+        <v>2.19</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>01/07/2023 11:56</t>
+          <t>01/07/2023 11:48</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>08/06/2023 16:31</t>
+          <t>24/06/2023 12:12</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4.22</v>
+        <v>3.49</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>01/07/2023 11:56</t>
+          <t>01/07/2023 11:41</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>3.43</v>
+        <v>3.68</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>08/06/2023 16:31</t>
+          <t>24/06/2023 12:12</t>
         </is>
       </c>
       <c r="T170" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>01/07/2023 11:56</t>
+          <t>01/07/2023 11:59</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-hokkaido-consadole-sapporo/0Wlwgbw3/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-kashiwa-reysol/nTpZgvOd/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.93</v>
+        <v>1.33</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>01/07/2023 12:12</t>
+          <t>01/07/2023 11:42</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.93</v>
+        <v>1.49</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:44</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.36</v>
+        <v>5.66</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>01/07/2023 12:12</t>
+          <t>01/07/2023 11:42</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.65</v>
+        <v>4.77</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.57</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>01/07/2023 12:12</t>
+          <t>01/07/2023 11:42</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.43</v>
+        <v>6.62</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:50</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-hokkaido-consadole-sapporo/2JDK5yN8/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-yokohama-fc/nBVXsYU1/</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -16589,63 +16589,63 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>1.96</v>
+        <v>2.43</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>01/07/2023 11:42</t>
+          <t>02/07/2023 12:11</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.88</v>
+        <v>2.27</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>08/07/2023 11:51</t>
+          <t>08/07/2023 11:54</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>01/07/2023 11:42</t>
+          <t>02/07/2023 12:11</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>08/07/2023 11:51</t>
+          <t>08/07/2023 11:58</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>4.02</v>
+        <v>3.05</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>01/07/2023 11:42</t>
+          <t>02/07/2023 12:11</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>4.32</v>
+        <v>3.17</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>08/07/2023 11:51</t>
+          <t>08/07/2023 11:54</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kyoto/OSEG6H72/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-shonan-bellmare/8KWTrEFe/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1.77</v>
+        <v>1.96</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>01/07/2023 12:12</t>
+          <t>01/07/2023 11:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>08/07/2023 11:59</t>
+          <t>08/07/2023 11:51</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.81</v>
+        <v>3.65</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>01/07/2023 12:12</t>
+          <t>01/07/2023 11:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.54</v>
+        <v>3.78</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>08/07/2023 11:59</t>
+          <t>08/07/2023 11:51</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>4.92</v>
+        <v>4.02</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>01/07/2023 12:12</t>
+          <t>01/07/2023 11:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>4.46</v>
+        <v>4.32</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>08/07/2023 11:59</t>
+          <t>08/07/2023 11:51</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-fc-tokyo/EcXPqf0k/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kyoto/OSEG6H72/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>1.33</v>
+        <v>2.93</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>01/07/2023 11:42</t>
+          <t>01/07/2023 12:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.49</v>
+        <v>2.93</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>08/07/2023 11:44</t>
+          <t>08/07/2023 11:58</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>5.66</v>
+        <v>3.36</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>01/07/2023 11:42</t>
+          <t>01/07/2023 12:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4.77</v>
+        <v>3.65</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>08/07/2023 11:57</t>
+          <t>08/07/2023 11:58</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>8.609999999999999</v>
+        <v>2.57</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>01/07/2023 11:42</t>
+          <t>01/07/2023 12:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>6.62</v>
+        <v>2.43</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>08/07/2023 11:50</t>
+          <t>08/07/2023 11:58</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-yokohama-fc/nBVXsYU1/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-hokkaido-consadole-sapporo/2JDK5yN8/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>2.43</v>
+        <v>1.77</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>02/07/2023 12:11</t>
+          <t>01/07/2023 12:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>08/07/2023 11:54</t>
+          <t>08/07/2023 11:59</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.42</v>
+        <v>3.81</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>02/07/2023 12:11</t>
+          <t>01/07/2023 12:12</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.68</v>
+        <v>3.54</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>08/07/2023 11:58</t>
+          <t>08/07/2023 11:59</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.05</v>
+        <v>4.92</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>02/07/2023 12:11</t>
+          <t>01/07/2023 12:12</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.17</v>
+        <v>4.46</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>08/07/2023 11:54</t>
+          <t>08/07/2023 11:59</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-shonan-bellmare/8KWTrEFe/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-fc-tokyo/EcXPqf0k/</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -17509,14 +17509,14 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I186" t="n">
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>1.52</v>
+        <v>4.34</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1.58</v>
+        <v>3.59</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>16/07/2023 11:58</t>
+          <t>16/07/2023 11:59</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>4.37</v>
+        <v>3.56</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4.61</v>
+        <v>3.54</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>16/07/2023 11:42</t>
+          <t>16/07/2023 11:59</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>6.41</v>
+        <v>1.92</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>5.51</v>
+        <v>2.14</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>16/07/2023 11:42</t>
+          <t>16/07/2023 11:59</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-sagan-tosu/lzx2IE6E/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-nagoya-grampus/rwoCeia1/</t>
         </is>
       </c>
     </row>
@@ -17593,22 +17593,22 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>4.34</v>
+        <v>2.5</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,15 +17616,15 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>3.59</v>
+        <v>2.5</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>16/07/2023 11:59</t>
+          <t>16/07/2023 11:51</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.56</v>
+        <v>3.18</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -17632,15 +17632,15 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.54</v>
+        <v>3.25</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>16/07/2023 11:59</t>
+          <t>16/07/2023 11:55</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -17648,16 +17648,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>2.14</v>
+        <v>3.14</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>16/07/2023 11:59</t>
+          <t>16/07/2023 11:55</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-nagoya-grampus/rwoCeia1/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-avispa-fukuoka/0Ee7dXqe/</t>
         </is>
       </c>
     </row>
@@ -17685,22 +17685,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I188" t="n">
         <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>16/07/2023 11:51</t>
+          <t>16/07/2023 11:36</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.18</v>
+        <v>3.64</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>16/07/2023 11:55</t>
+          <t>16/07/2023 11:35</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.15</v>
+        <v>3.71</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.14</v>
+        <v>3.66</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>16/07/2023 11:55</t>
+          <t>16/07/2023 11:41</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-avispa-fukuoka/0Ee7dXqe/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kashiwa-reysol/dtkGfBE7/</t>
         </is>
       </c>
     </row>
@@ -17777,22 +17777,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I189" t="n">
         <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>2.05</v>
+        <v>1.52</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,15 +17800,15 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>16/07/2023 11:36</t>
+          <t>16/07/2023 11:58</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.64</v>
+        <v>4.37</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -17816,15 +17816,15 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.43</v>
+        <v>4.61</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>16/07/2023 11:35</t>
+          <t>16/07/2023 11:42</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.71</v>
+        <v>6.41</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -17832,16 +17832,16 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.66</v>
+        <v>5.51</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>16/07/2023 11:41</t>
+          <t>16/07/2023 11:42</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kashiwa-reysol/dtkGfBE7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-sagan-tosu/lzx2IE6E/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,14 +17969,14 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1.89</v>
+        <v>3.16</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>4.02</v>
+        <v>3.81</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.43</v>
+        <v>3.57</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>05/08/2023 11:58</t>
+          <t>05/08/2023 11:59</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>4.08</v>
+        <v>1.95</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>4.75</v>
+        <v>2.32</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-albirex-niigata/8xh3GhyR/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sanfrecce-hiroshima/UogaHYLK/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,14 +18061,14 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.16</v>
+        <v>1.89</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.81</v>
+        <v>4.02</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,32 +18092,32 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.57</v>
+        <v>3.43</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
+          <t>05/08/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>28/07/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
           <t>05/08/2023 11:59</t>
         </is>
       </c>
-      <c r="R192" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>28/07/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T192" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U192" t="inlineStr">
-        <is>
-          <t>05/08/2023 11:59</t>
-        </is>
-      </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sanfrecce-hiroshima/UogaHYLK/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-albirex-niigata/8xh3GhyR/</t>
         </is>
       </c>
     </row>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -18337,14 +18337,14 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>06/08/2023 11:59</t>
+          <t>06/08/2023 11:57</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.76</v>
+        <v>3.56</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>4.05</v>
+        <v>3.39</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>06/08/2023 11:59</t>
+          <t>06/08/2023 11:56</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.56</v>
+        <v>2.73</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>06/08/2023 11:59</t>
+          <t>06/08/2023 11:57</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-yokohama-f-marinos/MqYwAjEf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kashiwa-reysol/U9yn8Ur7/</t>
         </is>
       </c>
     </row>
@@ -18421,22 +18421,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J196" t="n">
-        <v>2.53</v>
+        <v>1.65</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -18444,15 +18444,15 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.69</v>
+        <v>1.62</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>06/08/2023 11:58</t>
+          <t>06/08/2023 11:51</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.19</v>
+        <v>4.05</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -18460,15 +18460,15 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.17</v>
+        <v>4.17</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>06/08/2023 11:58</t>
+          <t>06/08/2023 11:53</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>3.04</v>
+        <v>5.24</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -18476,16 +18476,16 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2.95</v>
+        <v>5.71</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>06/08/2023 11:58</t>
+          <t>06/08/2023 11:53</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-avispa-fukuoka/A5EYVXzE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-gamba-osaka/0zXs9AT0/</t>
         </is>
       </c>
     </row>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -18521,14 +18521,14 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>06/08/2023 11:57</t>
+          <t>06/08/2023 11:59</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>3.56</v>
+        <v>3.76</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,15 +18552,15 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3.39</v>
+        <v>4.05</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>06/08/2023 11:56</t>
+          <t>06/08/2023 11:59</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,16 +18568,16 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>06/08/2023 11:57</t>
+          <t>06/08/2023 11:59</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kashiwa-reysol/U9yn8Ur7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-yokohama-f-marinos/MqYwAjEf/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>1.65</v>
+        <v>2.09</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.62</v>
+        <v>2.35</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>06/08/2023 11:51</t>
+          <t>06/08/2023 11:59</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>4.05</v>
+        <v>3.5</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>4.17</v>
+        <v>3.34</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>06/08/2023 11:53</t>
+          <t>06/08/2023 11:50</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>5.24</v>
+        <v>3.65</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>5.71</v>
+        <v>3.3</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>06/08/2023 11:53</t>
+          <t>06/08/2023 11:59</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-gamba-osaka/0zXs9AT0/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-fc-tokyo/80zj7lbD/</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -18705,14 +18705,14 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I199" t="n">
         <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>2.09</v>
+        <v>2.53</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.35</v>
+        <v>2.69</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>06/08/2023 11:59</t>
+          <t>06/08/2023 11:58</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.5</v>
+        <v>3.19</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>06/08/2023 11:50</t>
+          <t>06/08/2023 11:58</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>3.65</v>
+        <v>3.04</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>06/08/2023 11:59</t>
+          <t>06/08/2023 11:58</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-fc-tokyo/80zj7lbD/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-avispa-fukuoka/A5EYVXzE/</t>
         </is>
       </c>
     </row>
@@ -19893,22 +19893,22 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>1.62</v>
+        <v>3.22</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -19916,15 +19916,15 @@
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.94</v>
+        <v>3.45</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 11:59</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>4.2</v>
+        <v>3.67</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -19932,15 +19932,15 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.67</v>
+        <v>3.81</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>19/08/2023 11:55</t>
+          <t>19/08/2023 11:59</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>5.37</v>
+        <v>2.23</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         </is>
       </c>
       <c r="T212" t="n">
-        <v>4.12</v>
+        <v>2.1</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashiwa-reysol/jc3SsSVf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-hokkaido-consadole-sapporo/4t5Kql1r/</t>
         </is>
       </c>
     </row>
@@ -19985,30 +19985,30 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>3.22</v>
+        <v>2.25</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>12/08/2023 11:12</t>
+          <t>12/08/2023 11:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>3.45</v>
+        <v>1.98</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
@@ -20016,15 +20016,15 @@
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.67</v>
+        <v>3.53</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>12/08/2023 11:12</t>
+          <t>12/08/2023 11:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.81</v>
+        <v>3.73</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -20032,15 +20032,15 @@
         </is>
       </c>
       <c r="R213" t="n">
-        <v>2.23</v>
+        <v>3.28</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>12/08/2023 11:12</t>
+          <t>12/08/2023 11:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>2.1</v>
+        <v>3.91</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-hokkaido-consadole-sapporo/4t5Kql1r/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-shonan-bellmare/rX3Or8Gl/</t>
         </is>
       </c>
     </row>
@@ -20077,71 +20077,71 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I214" t="n">
         <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>12/08/2023 11:42</t>
+          <t>12/08/2023 11:12</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
+          <t>19/08/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>12/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>19/08/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>12/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
           <t>19/08/2023 11:59</t>
         </is>
       </c>
-      <c r="N214" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>12/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="P214" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>19/08/2023 11:59</t>
-        </is>
-      </c>
-      <c r="R214" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>12/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T214" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>19/08/2023 11:59</t>
-        </is>
-      </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-shonan-bellmare/rX3Or8Gl/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashiwa-reysol/jc3SsSVf/</t>
         </is>
       </c>
     </row>
@@ -21365,7 +21365,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -21373,63 +21373,63 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="I228" t="n">
         <v>1</v>
       </c>
       <c r="J228" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>26/08/2023 11:12</t>
+          <t>26/08/2023 10:13</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1.51</v>
+        <v>3.4</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>02/09/2023 10:52</t>
+          <t>02/09/2023 10:58</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>4.65</v>
+        <v>3.35</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>26/08/2023 11:12</t>
+          <t>26/08/2023 10:13</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>4.49</v>
+        <v>3.24</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
+          <t>02/09/2023 10:34</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>26/08/2023 10:13</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
           <t>02/09/2023 10:59</t>
         </is>
       </c>
-      <c r="R228" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="S228" t="inlineStr">
-        <is>
-          <t>26/08/2023 11:12</t>
-        </is>
-      </c>
-      <c r="T228" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="U228" t="inlineStr">
-        <is>
-          <t>02/09/2023 10:59</t>
-        </is>
-      </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-yokohama-fc/h06ZhDeg/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-urawa-reds/Clkxfgtm/</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -21465,54 +21465,54 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I229" t="n">
         <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>26/08/2023 10:13</t>
+          <t>26/08/2023 11:12</t>
         </is>
       </c>
       <c r="L229" t="n">
-        <v>3.4</v>
+        <v>1.51</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>02/09/2023 10:58</t>
+          <t>02/09/2023 10:52</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>3.35</v>
+        <v>4.65</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>26/08/2023 10:13</t>
+          <t>26/08/2023 11:12</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>3.24</v>
+        <v>4.49</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>02/09/2023 10:34</t>
+          <t>02/09/2023 10:59</t>
         </is>
       </c>
       <c r="R229" t="n">
-        <v>2.4</v>
+        <v>7.08</v>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>26/08/2023 10:13</t>
+          <t>26/08/2023 11:12</t>
         </is>
       </c>
       <c r="T229" t="n">
-        <v>2.36</v>
+        <v>6.87</v>
       </c>
       <c r="U229" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-urawa-reds/Clkxfgtm/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-yokohama-fc/h06ZhDeg/</t>
         </is>
       </c>
     </row>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G230" t="n">
@@ -21557,14 +21557,14 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="n">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21572,15 +21572,15 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>2.84</v>
+        <v>3.09</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.93</v>
+        <v>3.32</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="R230" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -21741,14 +21741,14 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -21756,15 +21756,15 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3.32</v>
+        <v>3.93</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         </is>
       </c>
       <c r="R232" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -21788,16 +21788,16 @@
         </is>
       </c>
       <c r="T232" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
         </is>
       </c>
     </row>
@@ -22561,22 +22561,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Shonan Bellmare</t>
-        </is>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
       <c r="J241" t="n">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -22584,15 +22584,15 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>1.65</v>
+        <v>3.73</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>4.34</v>
+        <v>3.2</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -22600,15 +22600,15 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4.49</v>
+        <v>2.98</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:58</t>
+          <t>16/09/2023 11:57</t>
         </is>
       </c>
       <c r="R241" t="n">
-        <v>4.87</v>
+        <v>2.64</v>
       </c>
       <c r="S241" t="inlineStr">
         <is>
@@ -22616,16 +22616,16 @@
         </is>
       </c>
       <c r="T241" t="n">
-        <v>4.92</v>
+        <v>2.35</v>
       </c>
       <c r="U241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:55</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
         </is>
       </c>
     </row>
@@ -22653,22 +22653,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
         <v>1</v>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Nagoya Grampus</t>
-        </is>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
       <c r="J242" t="n">
-        <v>2.94</v>
+        <v>1.67</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>3.73</v>
+        <v>1.65</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:59</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>3.2</v>
+        <v>4.34</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,15 +22692,15 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>2.98</v>
+        <v>4.49</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:57</t>
+          <t>16/09/2023 11:58</t>
         </is>
       </c>
       <c r="R242" t="n">
-        <v>2.64</v>
+        <v>4.87</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>2.35</v>
+        <v>4.92</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:59</t>
+          <t>16/09/2023 11:55</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
         </is>
       </c>
     </row>
@@ -23757,42 +23757,42 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J254" t="n">
-        <v>2.11</v>
+        <v>1.7</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="L254" t="n">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:49</t>
+          <t>29/09/2023 11:36</t>
         </is>
       </c>
       <c r="N254" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="P254" t="n">
@@ -23800,28 +23800,28 @@
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:54</t>
+          <t>29/09/2023 11:57</t>
         </is>
       </c>
       <c r="R254" t="n">
-        <v>3.54</v>
+        <v>4.95</v>
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="T254" t="n">
-        <v>2.87</v>
+        <v>4.51</v>
       </c>
       <c r="U254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:54</t>
+          <t>29/09/2023 11:57</t>
         </is>
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-vissel-kobe/QgKZbuOq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-albirex-niigata/lUd6G7gH/</t>
         </is>
       </c>
     </row>
@@ -23849,42 +23849,42 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
         <v>2</v>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Albirex Niigata</t>
-        </is>
-      </c>
-      <c r="I255" t="n">
-        <v>3</v>
-      </c>
       <c r="J255" t="n">
-        <v>1.7</v>
+        <v>2.11</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:36</t>
+          <t>29/09/2023 11:49</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>4.09</v>
+        <v>3.54</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="P255" t="n">
@@ -23892,28 +23892,28 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:57</t>
+          <t>29/09/2023 11:54</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>4.95</v>
+        <v>3.54</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>4.51</v>
+        <v>2.87</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:57</t>
+          <t>29/09/2023 11:54</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-albirex-niigata/lUd6G7gH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-vissel-kobe/QgKZbuOq/</t>
         </is>
       </c>
     </row>
@@ -24309,7 +24309,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -24317,14 +24317,14 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J260" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>1.85</v>
+        <v>2.23</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:58</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>3.81</v>
+        <v>3.08</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>4.71</v>
+        <v>3.26</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-nagoya-grampus/MLDrcJhd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kyoto/xlbsIKUL/</t>
         </is>
       </c>
     </row>
@@ -24401,7 +24401,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -24409,14 +24409,14 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J261" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -24424,15 +24424,15 @@
         </is>
       </c>
       <c r="L261" t="n">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:58</t>
         </is>
       </c>
       <c r="N261" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -24440,15 +24440,15 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="R261" t="n">
-        <v>3.08</v>
+        <v>3.81</v>
       </c>
       <c r="S261" t="inlineStr">
         <is>
@@ -24456,16 +24456,16 @@
         </is>
       </c>
       <c r="T261" t="n">
-        <v>3.26</v>
+        <v>4.71</v>
       </c>
       <c r="U261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kyoto/xlbsIKUL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-nagoya-grampus/MLDrcJhd/</t>
         </is>
       </c>
     </row>
@@ -24953,22 +24953,22 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I267" t="n">
         <v>1</v>
       </c>
       <c r="J267" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -24976,48 +24976,48 @@
         </is>
       </c>
       <c r="L267" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M267" t="inlineStr">
         <is>
+          <t>21/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
           <t>21/10/2023 06:55</t>
         </is>
       </c>
-      <c r="N267" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O267" t="inlineStr">
+      <c r="R267" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S267" t="inlineStr">
         <is>
           <t>10/10/2023 13:12</t>
         </is>
       </c>
-      <c r="P267" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="Q267" t="inlineStr">
+      <c r="T267" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U267" t="inlineStr">
         <is>
           <t>21/10/2023 06:58</t>
         </is>
       </c>
-      <c r="R267" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S267" t="inlineStr">
-        <is>
-          <t>10/10/2023 13:12</t>
-        </is>
-      </c>
-      <c r="T267" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U267" t="inlineStr">
-        <is>
-          <t>21/10/2023 06:55</t>
-        </is>
-      </c>
       <c r="V267" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-hokkaido-consadole-sapporo/MLZDCbhq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashima-antlers/fopDVwaL/</t>
         </is>
       </c>
     </row>
@@ -25045,22 +25045,22 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>2.15</v>
+        <v>3.04</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         </is>
       </c>
       <c r="L268" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="M268" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         </is>
       </c>
       <c r="N268" t="n">
-        <v>3.29</v>
+        <v>3.47</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -25084,15 +25084,15 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3.17</v>
+        <v>3.56</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>21/10/2023 06:55</t>
+          <t>21/10/2023 06:57</t>
         </is>
       </c>
       <c r="R268" t="n">
-        <v>3.81</v>
+        <v>2.37</v>
       </c>
       <c r="S268" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         </is>
       </c>
       <c r="T268" t="n">
-        <v>3.39</v>
+        <v>2.7</v>
       </c>
       <c r="U268" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-kashima-antlers/fopDVwaL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-fc-tokyo/8xxQ9dx2/</t>
         </is>
       </c>
     </row>
@@ -25137,22 +25137,22 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G269" t="n">
+        <v>4</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
         <v>1</v>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>FC Tokyo</t>
-        </is>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
       <c r="J269" t="n">
-        <v>3.04</v>
+        <v>1.89</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -25160,48 +25160,48 @@
         </is>
       </c>
       <c r="L269" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="M269" t="inlineStr">
         <is>
+          <t>21/10/2023 06:55</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
           <t>21/10/2023 06:58</t>
         </is>
       </c>
-      <c r="N269" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O269" t="inlineStr">
+      <c r="R269" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S269" t="inlineStr">
         <is>
           <t>10/10/2023 13:12</t>
         </is>
       </c>
-      <c r="P269" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q269" t="inlineStr">
-        <is>
-          <t>21/10/2023 06:57</t>
-        </is>
-      </c>
-      <c r="R269" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S269" t="inlineStr">
-        <is>
-          <t>10/10/2023 13:12</t>
-        </is>
-      </c>
       <c r="T269" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="U269" t="inlineStr">
         <is>
-          <t>21/10/2023 06:58</t>
+          <t>21/10/2023 06:55</t>
         </is>
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-fc-tokyo/8xxQ9dx2/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-hokkaido-consadole-sapporo/MLZDCbhq/</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G273" t="n">
@@ -25513,63 +25513,63 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>3.42</v>
+        <v>1.97</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 09:12</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>3.69</v>
+        <v>2.04</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>28/10/2023 06:58</t>
+          <t>28/10/2023 06:38</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>3.67</v>
+        <v>3.76</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 09:12</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>28/10/2023 06:55</t>
+          <t>28/10/2023 06:38</t>
         </is>
       </c>
       <c r="R273" t="n">
-        <v>2.14</v>
+        <v>3.86</v>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 09:12</t>
         </is>
       </c>
       <c r="T273" t="n">
-        <v>2.02</v>
+        <v>3.71</v>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>28/10/2023 06:40</t>
+          <t>28/10/2023 06:46</t>
         </is>
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-vissel-kobe/U7EdNF61/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-gamba-osaka/KnKopwEE/</t>
         </is>
       </c>
     </row>
@@ -25597,7 +25597,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -25605,38 +25605,38 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>3.36</v>
+        <v>2.78</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>28/10/2023 06:42</t>
+          <t>28/10/2023 06:59</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -25644,24 +25644,24 @@
         </is>
       </c>
       <c r="R274" t="n">
-        <v>2.88</v>
+        <v>3.19</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="T274" t="n">
-        <v>2.4</v>
+        <v>2.93</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>28/10/2023 06:55</t>
+          <t>28/10/2023 06:59</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-albirex-niigata/tdLsoJb8/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-urawa-reds/vJLqQHMr/</t>
         </is>
       </c>
     </row>
@@ -25689,7 +25689,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -25697,38 +25697,38 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="n">
-        <v>2.51</v>
+        <v>2.64</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>2.78</v>
+        <v>3.36</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>28/10/2023 06:59</t>
+          <t>28/10/2023 06:42</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -25736,24 +25736,24 @@
         </is>
       </c>
       <c r="R275" t="n">
-        <v>3.19</v>
+        <v>2.88</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="T275" t="n">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>28/10/2023 06:59</t>
+          <t>28/10/2023 06:55</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-urawa-reds/vJLqQHMr/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-albirex-niigata/tdLsoJb8/</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -25789,63 +25789,63 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>1.97</v>
+        <v>3.42</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>21/10/2023 09:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>2.04</v>
+        <v>3.69</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>28/10/2023 06:38</t>
+          <t>28/10/2023 06:58</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.76</v>
+        <v>3.67</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>21/10/2023 09:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.72</v>
+        <v>3.78</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>28/10/2023 06:38</t>
+          <t>28/10/2023 06:55</t>
         </is>
       </c>
       <c r="R276" t="n">
-        <v>3.86</v>
+        <v>2.14</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>21/10/2023 09:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>3.71</v>
+        <v>2.02</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
-          <t>28/10/2023 06:46</t>
+          <t>28/10/2023 06:40</t>
         </is>
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-gamba-osaka/KnKopwEE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-vissel-kobe/U7EdNF61/</t>
         </is>
       </c>
     </row>
@@ -26149,22 +26149,22 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>2.25</v>
+        <v>3.03</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -26172,15 +26172,15 @@
         </is>
       </c>
       <c r="L280" t="n">
-        <v>2.33</v>
+        <v>2.85</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>11/11/2023 05:45</t>
+          <t>11/11/2023 05:59</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>3.46</v>
+        <v>3.31</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -26188,15 +26188,15 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>11/11/2023 05:40</t>
+          <t>11/11/2023 05:54</t>
         </is>
       </c>
       <c r="R280" t="n">
-        <v>3.27</v>
+        <v>2.46</v>
       </c>
       <c r="S280" t="inlineStr">
         <is>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="T280" t="n">
-        <v>3.22</v>
+        <v>2.66</v>
       </c>
       <c r="U280" t="inlineStr">
         <is>
-          <t>11/11/2023 05:47</t>
+          <t>11/11/2023 05:59</t>
         </is>
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-fc-tokyo/nc4Qxe6l/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-nagoya-grampus/Yg0Mwyir/</t>
         </is>
       </c>
     </row>
@@ -26241,7 +26241,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G281" t="n">
@@ -26249,14 +26249,14 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>3.11</v>
+        <v>2.25</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -26264,15 +26264,15 @@
         </is>
       </c>
       <c r="L281" t="n">
-        <v>3.78</v>
+        <v>2.33</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>11/11/2023 05:58</t>
+          <t>11/11/2023 05:45</t>
         </is>
       </c>
       <c r="N281" t="n">
-        <v>3.71</v>
+        <v>3.46</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
@@ -26280,15 +26280,15 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>4.17</v>
+        <v>3.47</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>11/11/2023 05:53</t>
+          <t>11/11/2023 05:40</t>
         </is>
       </c>
       <c r="R281" t="n">
-        <v>2.23</v>
+        <v>3.27</v>
       </c>
       <c r="S281" t="inlineStr">
         <is>
@@ -26296,16 +26296,16 @@
         </is>
       </c>
       <c r="T281" t="n">
-        <v>1.9</v>
+        <v>3.22</v>
       </c>
       <c r="U281" t="inlineStr">
         <is>
-          <t>11/11/2023 05:53</t>
+          <t>11/11/2023 05:47</t>
         </is>
       </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-sanfrecce-hiroshima/Gxhwzgj7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-fc-tokyo/nc4Qxe6l/</t>
         </is>
       </c>
     </row>
@@ -26333,22 +26333,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -26356,15 +26356,15 @@
         </is>
       </c>
       <c r="L282" t="n">
-        <v>2.85</v>
+        <v>3.78</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>11/11/2023 05:59</t>
+          <t>11/11/2023 05:58</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>3.31</v>
+        <v>3.71</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -26372,15 +26372,15 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>3.33</v>
+        <v>4.17</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>11/11/2023 05:54</t>
+          <t>11/11/2023 05:53</t>
         </is>
       </c>
       <c r="R282" t="n">
-        <v>2.46</v>
+        <v>2.23</v>
       </c>
       <c r="S282" t="inlineStr">
         <is>
@@ -26388,16 +26388,16 @@
         </is>
       </c>
       <c r="T282" t="n">
-        <v>2.66</v>
+        <v>1.9</v>
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>11/11/2023 05:59</t>
+          <t>11/11/2023 05:53</t>
         </is>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-nagoya-grampus/Yg0Mwyir/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-sanfrecce-hiroshima/Gxhwzgj7/</t>
         </is>
       </c>
     </row>
@@ -26425,7 +26425,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -26433,22 +26433,22 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I283" t="n">
+        <v>3</v>
+      </c>
+      <c r="J283" t="n">
         <v>2</v>
       </c>
-      <c r="J283" t="n">
-        <v>2.39</v>
-      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>03/11/2023 07:43</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>2.84</v>
+        <v>3.06</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         </is>
       </c>
       <c r="N283" t="n">
-        <v>3.28</v>
+        <v>3.71</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -26464,32 +26464,32 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3.06</v>
+        <v>3.64</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
+          <t>11/11/2023 06:46</t>
+        </is>
+      </c>
+      <c r="R283" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="T283" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
           <t>11/11/2023 06:59</t>
         </is>
       </c>
-      <c r="R283" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="S283" t="inlineStr">
-        <is>
-          <t>03/11/2023 07:43</t>
-        </is>
-      </c>
-      <c r="T283" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U283" t="inlineStr">
-        <is>
-          <t>11/11/2023 06:56</t>
-        </is>
-      </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-avispa-fukuoka/ULgVyFLf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-fc/8ChZzZz1/</t>
         </is>
       </c>
     </row>
@@ -26517,7 +26517,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G284" t="n">
@@ -26525,14 +26525,14 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="n">
-        <v>2.03</v>
+        <v>2.39</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -26540,15 +26540,15 @@
         </is>
       </c>
       <c r="L284" t="n">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>11/11/2023 06:57</t>
+          <t>11/11/2023 06:58</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>3.33</v>
+        <v>3.28</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -26556,15 +26556,15 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>11/11/2023 06:39</t>
+          <t>11/11/2023 06:59</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>4.04</v>
+        <v>3.17</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
@@ -26572,16 +26572,16 @@
         </is>
       </c>
       <c r="T284" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>11/11/2023 06:57</t>
+          <t>11/11/2023 06:56</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kashiwa-reysol/GEDfrHrR/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-avispa-fukuoka/ULgVyFLf/</t>
         </is>
       </c>
     </row>
@@ -26609,7 +26609,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -26617,14 +26617,14 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J285" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -26632,15 +26632,15 @@
         </is>
       </c>
       <c r="L285" t="n">
-        <v>3.06</v>
+        <v>2.63</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>11/11/2023 06:58</t>
+          <t>11/11/2023 06:57</t>
         </is>
       </c>
       <c r="N285" t="n">
-        <v>3.71</v>
+        <v>3.33</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
@@ -26648,15 +26648,15 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3.64</v>
+        <v>3.13</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>11/11/2023 06:46</t>
+          <t>11/11/2023 06:39</t>
         </is>
       </c>
       <c r="R285" t="n">
-        <v>3.71</v>
+        <v>4.04</v>
       </c>
       <c r="S285" t="inlineStr">
         <is>
@@ -26664,16 +26664,16 @@
         </is>
       </c>
       <c r="T285" t="n">
-        <v>2.36</v>
+        <v>3.05</v>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>11/11/2023 06:59</t>
+          <t>11/11/2023 06:57</t>
         </is>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-fc/8ChZzZz1/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kashiwa-reysol/GEDfrHrR/</t>
         </is>
       </c>
     </row>
@@ -26950,6 +26950,190 @@
       <c r="V288" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-vissel-kobe/fTjsZC5D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45254.45833333334</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>3</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:47</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:58</t>
+        </is>
+      </c>
+      <c r="R289" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T289" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:49</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-kashima-antlers/8WGGmCK6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45254.45833333334</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:58</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:59</t>
+        </is>
+      </c>
+      <c r="R290" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T290" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:59</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-albirex-niigata/je6LnWZC/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j1-league_2023.xlsx
+++ b/2023/japan_j1-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V290"/>
+  <dimension ref="A1:V297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Kyoto</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>4</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 07:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.05</v>
+        <v>2.17</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>18/03/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>12/03/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>18/03/2023 05:58</t>
         </is>
       </c>
-      <c r="N39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>12/03/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>18/03/2023 05:56</t>
-        </is>
-      </c>
       <c r="R39" t="n">
-        <v>2.91</v>
+        <v>4.27</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 07:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.53</v>
+        <v>3.19</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>18/03/2023 05:58</t>
+          <t>18/03/2023 05:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kyoto/dnSrW0d2/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kashima-antlers/IeTvXtsd/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.17</v>
+        <v>3.05</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18/03/2023 05:57</t>
+          <t>18/03/2023 05:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.45</v>
+        <v>3.25</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.94</v>
+        <v>3.29</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
+          <t>18/03/2023 05:56</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>12/03/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
           <t>18/03/2023 05:58</t>
         </is>
       </c>
-      <c r="R40" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>12/03/2023 07:13</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>18/03/2023 05:57</t>
-        </is>
-      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kashima-antlers/IeTvXtsd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kyoto/dnSrW0d2/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>15/04/2023 09:42</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23/04/2023 06:59</t>
+          <t>23/04/2023 06:35</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.47</v>
+        <v>3.62</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>15/04/2023 09:42</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>23/04/2023 06:58</t>
+          <t>23/04/2023 06:35</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.91</v>
+        <v>2.22</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>15/04/2023 09:42</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.64</v>
+        <v>2.36</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/04/2023 06:59</t>
+          <t>23/04/2023 06:35</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-avispa-fukuoka/0f57exsB/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashima-antlers/IVaCfddH/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 09:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.3</v>
+        <v>1.87</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>23/04/2023 06:35</t>
+          <t>23/04/2023 06:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.62</v>
+        <v>3.47</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 09:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>23/04/2023 06:35</t>
+          <t>23/04/2023 06:58</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.22</v>
+        <v>3.91</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 09:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.36</v>
+        <v>4.64</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>23/04/2023 06:35</t>
+          <t>23/04/2023 06:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashima-antlers/IVaCfddH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-avispa-fukuoka/0f57exsB/</t>
         </is>
       </c>
     </row>
@@ -24309,7 +24309,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -24317,14 +24317,14 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J260" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:58</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>3.08</v>
+        <v>3.81</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>3.26</v>
+        <v>4.71</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kyoto/xlbsIKUL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-nagoya-grampus/MLDrcJhd/</t>
         </is>
       </c>
     </row>
@@ -24401,7 +24401,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -24409,14 +24409,14 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J261" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -24424,15 +24424,15 @@
         </is>
       </c>
       <c r="L261" t="n">
-        <v>1.85</v>
+        <v>2.23</v>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:58</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="N261" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -24440,15 +24440,15 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="R261" t="n">
-        <v>3.81</v>
+        <v>3.08</v>
       </c>
       <c r="S261" t="inlineStr">
         <is>
@@ -24456,16 +24456,16 @@
         </is>
       </c>
       <c r="T261" t="n">
-        <v>4.71</v>
+        <v>3.26</v>
       </c>
       <c r="U261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-nagoya-grampus/MLDrcJhd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kyoto/xlbsIKUL/</t>
         </is>
       </c>
     </row>
@@ -25505,30 +25505,30 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J273" t="n">
-        <v>1.97</v>
+        <v>3.17</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>21/10/2023 09:12</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>2.04</v>
+        <v>3.1</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
@@ -25536,40 +25536,40 @@
         </is>
       </c>
       <c r="N273" t="n">
-        <v>3.76</v>
+        <v>3.6</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>21/10/2023 09:12</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
+          <t>28/10/2023 06:48</t>
+        </is>
+      </c>
+      <c r="R273" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>21/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T273" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
           <t>28/10/2023 06:38</t>
         </is>
       </c>
-      <c r="R273" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="S273" t="inlineStr">
-        <is>
-          <t>21/10/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T273" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="U273" t="inlineStr">
-        <is>
-          <t>28/10/2023 06:46</t>
-        </is>
-      </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-gamba-osaka/KnKopwEE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-yokohama-f-marinos/xOEjqcTK/</t>
         </is>
       </c>
     </row>
@@ -25597,71 +25597,71 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>2.51</v>
+        <v>1.97</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 09:12</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>2.78</v>
+        <v>2.04</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>28/10/2023 06:59</t>
+          <t>28/10/2023 06:38</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>3.12</v>
+        <v>3.76</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 09:12</t>
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3.07</v>
+        <v>3.72</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>28/10/2023 06:56</t>
+          <t>28/10/2023 06:38</t>
         </is>
       </c>
       <c r="R274" t="n">
-        <v>3.19</v>
+        <v>3.86</v>
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 09:12</t>
         </is>
       </c>
       <c r="T274" t="n">
-        <v>2.93</v>
+        <v>3.71</v>
       </c>
       <c r="U274" t="inlineStr">
         <is>
-          <t>28/10/2023 06:59</t>
+          <t>28/10/2023 06:46</t>
         </is>
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-urawa-reds/vJLqQHMr/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-gamba-osaka/KnKopwEE/</t>
         </is>
       </c>
     </row>
@@ -25689,7 +25689,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -25697,38 +25697,38 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>3.36</v>
+        <v>2.78</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>28/10/2023 06:42</t>
+          <t>28/10/2023 06:59</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -25736,24 +25736,24 @@
         </is>
       </c>
       <c r="R275" t="n">
-        <v>2.88</v>
+        <v>3.19</v>
       </c>
       <c r="S275" t="inlineStr">
         <is>
-          <t>21/10/2023 08:13</t>
+          <t>21/10/2023 07:12</t>
         </is>
       </c>
       <c r="T275" t="n">
-        <v>2.4</v>
+        <v>2.93</v>
       </c>
       <c r="U275" t="inlineStr">
         <is>
-          <t>28/10/2023 06:55</t>
+          <t>28/10/2023 06:59</t>
         </is>
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-albirex-niigata/tdLsoJb8/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-urawa-reds/vJLqQHMr/</t>
         </is>
       </c>
     </row>
@@ -25781,22 +25781,22 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>3.42</v>
+        <v>2.64</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -25804,15 +25804,15 @@
         </is>
       </c>
       <c r="L276" t="n">
-        <v>3.69</v>
+        <v>3.36</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>28/10/2023 06:58</t>
+          <t>28/10/2023 06:42</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>3.67</v>
+        <v>3.28</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -25820,32 +25820,32 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
+          <t>28/10/2023 06:56</t>
+        </is>
+      </c>
+      <c r="R276" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T276" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
           <t>28/10/2023 06:55</t>
         </is>
       </c>
-      <c r="R276" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="S276" t="inlineStr">
-        <is>
-          <t>21/10/2023 08:13</t>
-        </is>
-      </c>
-      <c r="T276" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U276" t="inlineStr">
-        <is>
-          <t>28/10/2023 06:40</t>
-        </is>
-      </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-vissel-kobe/U7EdNF61/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-albirex-niigata/tdLsoJb8/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>3.17</v>
+        <v>3.42</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>3.1</v>
+        <v>3.69</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>28/10/2023 06:38</t>
+          <t>28/10/2023 06:58</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>28/10/2023 06:48</t>
+          <t>28/10/2023 06:55</t>
         </is>
       </c>
       <c r="R277" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>21/10/2023 07:12</t>
+          <t>21/10/2023 08:13</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>28/10/2023 06:38</t>
+          <t>28/10/2023 06:40</t>
         </is>
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-yokohama-f-marinos/xOEjqcTK/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-vissel-kobe/U7EdNF61/</t>
         </is>
       </c>
     </row>
@@ -27134,6 +27134,650 @@
       <c r="V290" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-albirex-niigata/je6LnWZC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45255.25</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>2</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:31</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="R291" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T291" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:57</t>
+        </is>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-nagoya-grampus/ddDClh50/</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45255.25</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:49</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:49</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T292" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:49</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kyoto/2ZD8kYkf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45255.25</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>FC Tokyo</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>1</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>3</v>
+      </c>
+      <c r="J293" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:53</t>
+        </is>
+      </c>
+      <c r="R293" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T293" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:52</t>
+        </is>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-hokkaido-consadole-sapporo/67KaifLs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45255.25</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>2</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>2</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:56</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:56</t>
+        </is>
+      </c>
+      <c r="R294" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T294" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-sagan-tosu/4bYXezDQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45255.25</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>3</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P295" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:57</t>
+        </is>
+      </c>
+      <c r="R295" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T295" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:57</t>
+        </is>
+      </c>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-gamba-osaka/GzNWgmst/</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45255.25</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>2</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>3</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:43</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:57</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T296" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:57</t>
+        </is>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-avispa-fukuoka/Uo5PojkJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45255.25</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Yokohama FC</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T297" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-shonan-bellmare/OrF4jEzl/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j1-league_2023.xlsx
+++ b/2023/japan_j1-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V297"/>
+  <dimension ref="A1:V306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.91</v>
+        <v>1.71</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>3.53</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.38</v>
+        <v>3.67</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>25/02/2023 07:53</t>
+          <t>25/02/2023 08:00</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.59</v>
+        <v>5.78</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>25/02/2023 07:54</t>
+          <t>25/02/2023 08:00</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kawasaki-frontale/2RVGDr6D/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kyoto/IZD3ynbK/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.71</v>
+        <v>2.91</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.53</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.67</v>
+        <v>3.38</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25/02/2023 08:00</t>
+          <t>25/02/2023 07:53</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.78</v>
+        <v>2.59</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>25/02/2023 08:00</t>
+          <t>25/02/2023 07:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kyoto/IZD3ynbK/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kawasaki-frontale/2RVGDr6D/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>26/02/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>04/03/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>26/02/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>04/03/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>26/02/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Hokkaido Consadole Sapporo</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>26/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>04/03/2023 05:55</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>26/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>04/03/2023 05:55</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>26/02/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T22" t="n">
-        <v>3.03</v>
-      </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>04/03/2023 05:55</t>
+          <t>04/03/2023 05:56</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-hokkaido-consadole-sapporo/AXhrU3jf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kashima-antlers/lK1YPPZS/</t>
         </is>
       </c>
     </row>
@@ -2505,30 +2505,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.69</v>
+        <v>2.04</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>26/02/2023 07:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4.56</v>
+        <v>1.8</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,31 +2536,31 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>26/02/2023 07:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.62</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>04/03/2023 05:34</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.69</v>
+        <v>3.84</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>26/02/2023 07:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.87</v>
+        <v>4.82</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-fc-tokyo/jTm0Lqrp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-gamba-osaka/Wv5cK3cj/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>26/02/2023 15:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.8</v>
+        <v>2.31</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>04/03/2023 05:59</t>
+          <t>04/03/2023 05:55</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>26/02/2023 15:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>04/03/2023 05:59</t>
+          <t>04/03/2023 05:55</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.84</v>
+        <v>2.82</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>26/02/2023 15:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.82</v>
+        <v>3.03</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>04/03/2023 05:59</t>
+          <t>04/03/2023 05:55</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-gamba-osaka/Wv5cK3cj/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-hokkaido-consadole-sapporo/AXhrU3jf/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.64</v>
+        <v>2.69</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>26/02/2023 15:12</t>
+          <t>26/02/2023 07:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4.12</v>
+        <v>4.56</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>04/03/2023 05:57</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>26/02/2023 15:12</t>
+          <t>26/02/2023 07:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/03/2023 05:58</t>
+          <t>04/03/2023 05:34</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.04</v>
+        <v>2.69</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>26/02/2023 15:12</t>
+          <t>26/02/2023 07:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/03/2023 05:56</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kashima-antlers/lK1YPPZS/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-fc-tokyo/jTm0Lqrp/</t>
         </is>
       </c>
     </row>
@@ -2781,30 +2781,30 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>26/02/2023 07:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.22</v>
+        <v>2.51</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2812,15 +2812,15 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.39</v>
+        <v>3.17</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>26/02/2023 07:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.41</v>
+        <v>3.01</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,24 +2828,24 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.12</v>
+        <v>3.66</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>25/02/2023 07:12</t>
+          <t>26/02/2023 07:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.52</v>
+        <v>3.37</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/03/2023 06:59</t>
+          <t>04/03/2023 06:58</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-cerezo-osaka/WtfvVqyl/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-kashiwa-reysol/AV31JNCd/</t>
         </is>
       </c>
     </row>
@@ -2873,30 +2873,30 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Nagoya Grampus</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>25/02/2023 08:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.35</v>
+        <v>2.22</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,15 +2904,15 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.27</v>
+        <v>3.39</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25/02/2023 08:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.16</v>
+        <v>3.41</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,15 +2920,15 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.52</v>
+        <v>3.12</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>25/02/2023 08:13</t>
+          <t>25/02/2023 07:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.43</v>
+        <v>3.52</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-nagoya-grampus/OYiqr7kc/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-cerezo-osaka/WtfvVqyl/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,22 +2973,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.22</v>
+        <v>2.98</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>26/02/2023 07:13</t>
+          <t>25/02/2023 08:13</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.51</v>
+        <v>3.35</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,15 +2996,15 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>26/02/2023 07:13</t>
+          <t>25/02/2023 08:13</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,24 +3012,24 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.66</v>
+        <v>2.52</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>26/02/2023 07:13</t>
+          <t>25/02/2023 08:13</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.37</v>
+        <v>2.43</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>04/03/2023 06:58</t>
+          <t>04/03/2023 06:59</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-kashiwa-reysol/AV31JNCd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-nagoya-grampus/OYiqr7kc/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>12/03/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
         <v>2.17</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>18/03/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>12/03/2023 07:13</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>18/03/2023 05:40</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>18/03/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S38" t="inlineStr">
         <is>
           <t>12/03/2023 07:13</t>
         </is>
       </c>
-      <c r="P38" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>18/03/2023 05:38</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>12/03/2023 07:13</t>
-        </is>
-      </c>
       <c r="T38" t="n">
-        <v>3.45</v>
+        <v>3.19</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>18/03/2023 05:53</t>
+          <t>18/03/2023 05:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-fc-tokyo/zXcPvg02/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kashima-antlers/IeTvXtsd/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.17</v>
+        <v>3.05</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>18/03/2023 05:57</t>
+          <t>18/03/2023 05:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.45</v>
+        <v>3.25</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>12/03/2023 07:13</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.94</v>
+        <v>3.29</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
+          <t>18/03/2023 05:56</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>12/03/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
           <t>18/03/2023 05:58</t>
         </is>
       </c>
-      <c r="R39" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>12/03/2023 07:13</t>
-        </is>
-      </c>
-      <c r="T39" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>18/03/2023 05:57</t>
-        </is>
-      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-kashima-antlers/IeTvXtsd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kyoto/dnSrW0d2/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.63</v>
+        <v>2.17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 07:13</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.05</v>
+        <v>2.41</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18/03/2023 05:58</t>
+          <t>18/03/2023 05:40</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 07:13</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.29</v>
+        <v>3.11</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>18/03/2023 05:56</t>
+          <t>18/03/2023 05:38</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.91</v>
+        <v>3.47</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 07:13</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.53</v>
+        <v>3.45</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>18/03/2023 05:58</t>
+          <t>18/03/2023 05:53</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-kyoto/dnSrW0d2/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-fc-tokyo/zXcPvg02/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.03</v>
+        <v>2.64</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>18/03/2023 06:59</t>
+          <t>18/03/2023 06:56</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.24</v>
+        <v>3.57</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>18/03/2023 06:49</t>
+          <t>18/03/2023 06:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 08:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>18/03/2023 06:59</t>
+          <t>18/03/2023 06:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-vissel-kobe/Mm0yxipL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-hokkaido-consadole-sapporo/8pdXxXUE/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.64</v>
+        <v>3.03</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.27</v>
+        <v>3.34</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>18/03/2023 06:56</t>
+          <t>18/03/2023 06:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.57</v>
+        <v>3.24</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>18/03/2023 06:58</t>
+          <t>18/03/2023 06:49</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>12/03/2023 08:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>18/03/2023 06:56</t>
+          <t>18/03/2023 06:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-hokkaido-consadole-sapporo/8pdXxXUE/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-vissel-kobe/Mm0yxipL/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.95</v>
+        <v>2.06</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.72</v>
+        <v>2.11</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>15/04/2023 07:57</t>
+          <t>15/04/2023 07:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.8</v>
+        <v>3.69</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.96</v>
+        <v>3.66</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.29</v>
+        <v>3.62</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.45</v>
+        <v>3.57</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>15/04/2023 07:58</t>
+          <t>15/04/2023 07:56</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-hokkaido-consadole-sapporo/zgVYtwSH/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.46</v>
+        <v>2.95</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:57</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.32</v>
+        <v>3.8</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.39</v>
+        <v>3.96</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>15/04/2023 07:56</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.09</v>
+        <v>2.29</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.79</v>
+        <v>2.45</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:58</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kashiwa-reysol/8t0m00Su/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-yokohama-f-marinos/d8JsuHdU/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.88</v>
+        <v>2.46</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>15/04/2023 07:59</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>09/04/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>15/04/2023 07:56</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>09/04/2023 08:12</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>15/04/2023 07:55</t>
-        </is>
-      </c>
       <c r="R69" t="n">
-        <v>4.12</v>
+        <v>3.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.64</v>
+        <v>2.79</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>15/04/2023 07:56</t>
+          <t>15/04/2023 07:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-nagoya-grampus/IHKwtcsO/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kashiwa-reysol/8t0m00Su/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.11</v>
+        <v>2.89</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:56</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.66</v>
+        <v>3.31</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>15/04/2023 07:59</t>
+          <t>15/04/2023 07:55</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.62</v>
+        <v>4.12</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.57</v>
+        <v>2.64</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-hokkaido-consadole-sapporo/zgVYtwSH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-nagoya-grampus/IHKwtcsO/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>2.59</v>
+        <v>2.2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.57</v>
+        <v>2.46</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>15/04/2023 08:59</t>
+          <t>15/04/2023 08:58</t>
         </is>
       </c>
       <c r="N72" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>09/04/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
         <v>3.28</v>
       </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>09/04/2023 08:12</t>
-        </is>
-      </c>
-      <c r="P72" t="n">
-        <v>3.3</v>
-      </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>15/04/2023 08:52</t>
+          <t>15/04/2023 08:58</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.88</v>
+        <v>3.42</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>09/04/2023 12:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.99</v>
+        <v>3.15</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>15/04/2023 08:59</t>
+          <t>15/04/2023 08:58</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-cerezo-osaka/Ueldbvch/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-vissel-kobe/nXbiaKsn/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,63 +7113,63 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.2</v>
+        <v>2.59</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.46</v>
+        <v>2.57</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>15/04/2023 08:58</t>
+          <t>15/04/2023 08:59</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.43</v>
+        <v>3.28</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>15/04/2023 08:58</t>
+          <t>15/04/2023 08:52</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.42</v>
+        <v>2.88</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>09/04/2023 12:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>15/04/2023 08:58</t>
+          <t>15/04/2023 08:59</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-vissel-kobe/nXbiaKsn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-cerezo-osaka/Ueldbvch/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 09:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.3</v>
+        <v>1.87</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23/04/2023 06:35</t>
+          <t>23/04/2023 06:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.62</v>
+        <v>3.47</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 09:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.33</v>
+        <v>3.59</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>23/04/2023 06:35</t>
+          <t>23/04/2023 06:58</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.22</v>
+        <v>3.91</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 09:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.36</v>
+        <v>4.64</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/04/2023 06:35</t>
+          <t>23/04/2023 06:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashima-antlers/IVaCfddH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-avispa-fukuoka/0f57exsB/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>15/04/2023 09:42</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>23/04/2023 06:59</t>
+          <t>23/04/2023 06:35</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.47</v>
+        <v>3.62</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>15/04/2023 09:42</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>23/04/2023 06:58</t>
+          <t>23/04/2023 06:35</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.91</v>
+        <v>2.22</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>15/04/2023 09:42</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.64</v>
+        <v>2.36</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>23/04/2023 06:59</t>
+          <t>23/04/2023 06:35</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-avispa-fukuoka/0f57exsB/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-kashima-antlers/IVaCfddH/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,22 +7849,22 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>15/04/2023 19:13</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.23</v>
+        <v>1.64</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,15 +7872,15 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.49</v>
+        <v>4.1</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>15/04/2023 19:13</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.43</v>
+        <v>4.41</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,24 +7888,24 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.29</v>
+        <v>4.54</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>15/04/2023 19:13</t>
+          <t>17/04/2023 03:42</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.47</v>
+        <v>5.18</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>23/04/2023 08:51</t>
+          <t>23/04/2023 08:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-urawa-reds/U9TUCwCo/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-yokohama-fc/80SYBcRi/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,22 +7941,22 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.73</v>
+        <v>2.23</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 19:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.64</v>
+        <v>2.23</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,15 +7964,15 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.1</v>
+        <v>3.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 19:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.41</v>
+        <v>3.43</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,24 +7980,24 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.54</v>
+        <v>3.29</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>17/04/2023 03:42</t>
+          <t>15/04/2023 19:13</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.18</v>
+        <v>3.47</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>23/04/2023 08:59</t>
+          <t>23/04/2023 08:51</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-yokohama-fc/80SYBcRi/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-urawa-reds/U9TUCwCo/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>1</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Hokkaido Consadole Sapporo</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>4</v>
-      </c>
       <c r="J83" t="n">
-        <v>3.79</v>
+        <v>2.91</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>24/04/2023 03:42</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>29/04/2023 06:57</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>24/04/2023 03:42</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.23</v>
+        <v>3.6</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>29/04/2023 06:41</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>24/04/2023 03:42</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>29/04/2023 06:41</t>
+          <t>29/04/2023 06:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-hokkaido-consadole-sapporo/GQRxBHtb/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-sanfrecce-hiroshima/fHQtAyd4/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>2.91</v>
+        <v>3.79</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.6</v>
+        <v>4.67</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:57</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.54</v>
+        <v>3.7</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.6</v>
+        <v>4.23</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:41</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/04/2023 06:58</t>
+          <t>29/04/2023 06:41</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-sanfrecce-hiroshima/fHQtAyd4/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-hokkaido-consadole-sapporo/GQRxBHtb/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,38 +8309,38 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.41</v>
+        <v>1.94</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/04/2023 07:53</t>
+          <t>29/04/2023 07:58</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.81</v>
+        <v>3.41</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.76</v>
+        <v>3.62</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,24 +8348,24 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.28</v>
+        <v>3.56</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>23/04/2023 08:12</t>
+          <t>23/04/2023 07:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/04/2023 07:53</t>
+          <t>29/04/2023 07:59</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-nagoya-grampus/OdIc6geT/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-kyoto/jqKk8FQG/</t>
         </is>
       </c>
     </row>
@@ -8393,62 +8393,62 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>24/04/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
         <v>2.15</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>23/04/2023 07:12</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1.94</v>
-      </c>
       <c r="M87" t="inlineStr">
         <is>
           <t>29/04/2023 07:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.41</v>
+        <v>3.78</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.62</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/04/2023 07:58</t>
+          <t>29/04/2023 07:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.56</v>
+        <v>3.84</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>23/04/2023 07:12</t>
+          <t>24/04/2023 03:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-kyoto/jqKk8FQG/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-albirex-niigata/p6Jg7ZuN/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>24/04/2023 03:42</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.15</v>
+        <v>2.41</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>29/04/2023 07:53</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>23/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
           <t>29/04/2023 07:58</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>24/04/2023 03:42</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>29/04/2023 07:59</t>
-        </is>
-      </c>
       <c r="R88" t="n">
-        <v>3.84</v>
+        <v>4.28</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>24/04/2023 03:42</t>
+          <t>23/04/2023 08:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/04/2023 07:59</t>
+          <t>29/04/2023 07:53</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-albirex-niigata/p6Jg7ZuN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-nagoya-grampus/OdIc6geT/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,22 +8861,22 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.7</v>
+        <v>3.84</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.56</v>
+        <v>3.91</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,40 +8884,40 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>29/04/2023 12:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.43</v>
+        <v>3.8</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>03/05/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>29/04/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
           <t>03/05/2023 06:59</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>29/04/2023 12:13</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>03/05/2023 06:58</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-kashima-antlers/Ol8eOtZ4/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kawasaki-frontale/2u7aN0lB/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,22 +8953,22 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>3.84</v>
+        <v>2.7</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.91</v>
+        <v>2.56</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,40 +8976,40 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.78</v>
+        <v>3.46</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 12:13</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.8</v>
+        <v>3.43</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>03/05/2023 06:59</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>29/04/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>03/05/2023 06:58</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>29/04/2023 10:12</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>03/05/2023 06:59</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-kawasaki-frontale/2u7aN0lB/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-kashima-antlers/Ol8eOtZ4/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>3.14</v>
+        <v>2.52</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>03/05/2023 07:44</t>
+          <t>03/05/2023 07:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>03/05/2023 06:51</t>
+          <t>03/05/2023 07:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>3.12</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.83</v>
+        <v>3.26</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>03/05/2023 07:44</t>
+          <t>03/05/2023 07:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-fc-tokyo/SMjvGIto/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-vissel-kobe/hUaCKbYT/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>3.74</v>
+        <v>1.96</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>4.05</v>
+        <v>2.2</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>03/05/2023 07:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>29/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>03/05/2023 07:56</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>29/04/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
           <t>03/05/2023 07:58</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>29/04/2023 08:12</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>03/05/2023 07:58</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>29/04/2023 08:12</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>03/05/2023 07:58</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-f-marinos/URUMv2Jo/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashiwa-reysol/b708LvJN/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.96</v>
+        <v>3.14</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.2</v>
+        <v>2.96</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/05/2023 07:59</t>
+          <t>03/05/2023 07:44</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.68</v>
+        <v>3.04</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.63</v>
+        <v>2.97</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/05/2023 07:56</t>
+          <t>03/05/2023 06:51</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.97</v>
+        <v>2.6</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.37</v>
+        <v>2.83</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/05/2023 07:58</t>
+          <t>03/05/2023 07:44</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashiwa-reysol/b708LvJN/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-fc-tokyo/SMjvGIto/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>2.52</v>
+        <v>3.74</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.44</v>
+        <v>4.05</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/05/2023 07:59</t>
+          <t>03/05/2023 07:58</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.11</v>
+        <v>4.12</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.22</v>
+        <v>4.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/05/2023 07:59</t>
+          <t>03/05/2023 07:58</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.12</v>
+        <v>1.91</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.26</v>
+        <v>1.8</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/05/2023 07:59</t>
+          <t>03/05/2023 07:58</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-vissel-kobe/hUaCKbYT/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-f-marinos/URUMv2Jo/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.37</v>
+        <v>2.07</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>03/06/2023 17:43</t>
+          <t>04/06/2023 10:11</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.43</v>
+        <v>1.79</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
+          <t>11/06/2023 10:58</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>04/06/2023 10:11</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
           <t>11/06/2023 10:59</t>
         </is>
       </c>
-      <c r="N149" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>03/06/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P149" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q149" t="inlineStr">
+      <c r="R149" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>04/06/2023 10:11</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="U149" t="inlineStr">
         <is>
           <t>11/06/2023 10:59</t>
         </is>
       </c>
-      <c r="R149" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>03/06/2023 17:43</t>
-        </is>
-      </c>
-      <c r="T149" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="U149" t="inlineStr">
-        <is>
-          <t>11/06/2023 10:54</t>
-        </is>
-      </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-fc-tokyo/bPFUfaig/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-shonan-bellmare/pMBQeuxm/</t>
         </is>
       </c>
     </row>
@@ -14189,46 +14189,46 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G150" t="n">
+        <v>3</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>FC Tokyo</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
         <v>1</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Shonan Bellmare</t>
-        </is>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
       <c r="J150" t="n">
-        <v>2.07</v>
+        <v>2.37</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>04/06/2023 10:11</t>
+          <t>03/06/2023 17:43</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.79</v>
+        <v>2.43</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>11/06/2023 10:58</t>
+          <t>11/06/2023 10:59</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>04/06/2023 10:11</t>
+          <t>03/06/2023 17:43</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.63</v>
+        <v>3.31</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,24 +14236,24 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.79</v>
+        <v>3.11</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>04/06/2023 10:11</t>
+          <t>03/06/2023 17:43</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>5.07</v>
+        <v>3.14</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>11/06/2023 10:59</t>
+          <t>11/06/2023 10:54</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-shonan-bellmare/pMBQeuxm/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-fc-tokyo/bPFUfaig/</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -14565,14 +14565,14 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.21</v>
+        <v>2.08</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>24/06/2023 11:50</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.52</v>
+        <v>3.71</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.65</v>
+        <v>4.16</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.58</v>
+        <v>3.11</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>24/06/2023 11:50</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sagan-tosu/dvdBY8zi/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,48 +14672,48 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
+          <t>24/06/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
           <t>24/06/2023 11:59</t>
         </is>
       </c>
-      <c r="N155" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="O155" t="inlineStr">
+      <c r="R155" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S155" t="inlineStr">
         <is>
           <t>16/06/2023 12:42</t>
         </is>
       </c>
-      <c r="P155" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:59</t>
-        </is>
-      </c>
-      <c r="R155" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
       <c r="T155" t="n">
-        <v>3.25</v>
+        <v>3.91</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-yokohama-f-marinos/8xQauu93/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-yokohama-fc/0CMis1vi/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1.84</v>
+        <v>2.41</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:52</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.81</v>
+        <v>3.4</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:57</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>4.39</v>
+        <v>3.03</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>3.91</v>
+        <v>2.99</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:52</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-yokohama-fc/0CMis1vi/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-albirex-niigata/juUwiHjI/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.43</v>
+        <v>2.84</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:52</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.55</v>
+        <v>3.07</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:57</t>
+          <t>24/06/2023 11:59</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.03</v>
+        <v>2.44</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/06/2023 11:52</t>
+          <t>24/06/2023 11:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-albirex-niigata/juUwiHjI/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kashima-antlers/v3LetLgc/</t>
         </is>
       </c>
     </row>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -14933,14 +14933,14 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.84</v>
+        <v>3.54</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.07</v>
+        <v>3.39</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>24/06/2023 11:59</t>
+          <t>24/06/2023 11:57</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>2.85</v>
+        <v>2.22</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-kashima-antlers/v3LetLgc/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-nagoya-grampus/ryh7ZlLp/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J159" t="n">
-        <v>3.13</v>
+        <v>2.1</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,48 +15040,48 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>3.54</v>
+        <v>2.21</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
+          <t>24/06/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>16/06/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
           <t>24/06/2023 11:58</t>
         </is>
       </c>
-      <c r="N159" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O159" t="inlineStr">
+      <c r="R159" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S159" t="inlineStr">
         <is>
           <t>16/06/2023 12:42</t>
         </is>
       </c>
-      <c r="P159" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>24/06/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R159" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>16/06/2023 12:42</t>
-        </is>
-      </c>
       <c r="T159" t="n">
-        <v>2.22</v>
+        <v>3.32</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/06/2023 11:58</t>
+          <t>24/06/2023 11:50</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-nagoya-grampus/ryh7ZlLp/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-sagan-tosu/dvdBY8zi/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21572,15 +21572,15 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>3.09</v>
+        <v>2.36</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:34</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,15 +21588,15 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3.35</v>
+        <v>3.76</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:57</t>
+          <t>02/09/2023 11:33</t>
         </is>
       </c>
       <c r="R230" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>2.47</v>
+        <v>2.93</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:56</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kawasaki-frontale/Wj5whXAa/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G231" t="n">
+        <v>2</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Sanfrecce Hiroshima</t>
-        </is>
-      </c>
-      <c r="I231" t="n">
-        <v>2</v>
-      </c>
       <c r="J231" t="n">
-        <v>3.84</v>
+        <v>3.06</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21664,15 +21664,15 @@
         </is>
       </c>
       <c r="L231" t="n">
-        <v>4.46</v>
+        <v>2.84</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>02/09/2023 11:58</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>3.73</v>
+        <v>3.93</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,15 +21680,15 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>4.07</v>
+        <v>3.88</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:57</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>1.79</v>
+        <v>2.39</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>02/09/2023 11:59</t>
+          <t>02/09/2023 11:55</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-sanfrecce-hiroshima/vH8ojBuC/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
         </is>
       </c>
     </row>
@@ -21733,22 +21733,22 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
         <v>2</v>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Yokohama F. Marinos</t>
-        </is>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
       <c r="J232" t="n">
-        <v>3.06</v>
+        <v>3.84</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -21756,15 +21756,15 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>2.84</v>
+        <v>4.46</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:58</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3.93</v>
+        <v>3.73</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -21772,15 +21772,15 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>3.88</v>
+        <v>4.07</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:57</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="R232" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -21788,16 +21788,16 @@
         </is>
       </c>
       <c r="T232" t="n">
-        <v>2.39</v>
+        <v>1.79</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>02/09/2023 11:55</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-yokohama-f-marinos/2Fa20e3J/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-sanfrecce-hiroshima/vH8ojBuC/</t>
         </is>
       </c>
     </row>
@@ -21825,22 +21825,22 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233" t="n">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -21848,15 +21848,15 @@
         </is>
       </c>
       <c r="L233" t="n">
-        <v>2.36</v>
+        <v>3.09</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:34</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="N233" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -21864,15 +21864,15 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3.76</v>
+        <v>3.35</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:33</t>
+          <t>02/09/2023 11:57</t>
         </is>
       </c>
       <c r="R233" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="S233" t="inlineStr">
         <is>
@@ -21880,16 +21880,16 @@
         </is>
       </c>
       <c r="T233" t="n">
-        <v>2.93</v>
+        <v>2.47</v>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>02/09/2023 11:56</t>
+          <t>02/09/2023 11:59</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kawasaki-frontale/Wj5whXAa/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-kashima-antlers/YcjYfZQt/</t>
         </is>
       </c>
     </row>
@@ -22193,22 +22193,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -22216,15 +22216,15 @@
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:28</t>
         </is>
       </c>
       <c r="N237" t="n">
-        <v>5.81</v>
+        <v>3.98</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -22232,15 +22232,15 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>5.12</v>
+        <v>3.8</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:29</t>
         </is>
       </c>
       <c r="R237" t="n">
-        <v>7.23</v>
+        <v>5.66</v>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -22248,16 +22248,16 @@
         </is>
       </c>
       <c r="T237" t="n">
-        <v>5.03</v>
+        <v>5.3</v>
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>15/09/2023 11:58</t>
+          <t>15/09/2023 12:29</t>
         </is>
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-sagan-tosu/0WdflkAO/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kyoto/lnjxDYnP/</t>
         </is>
       </c>
     </row>
@@ -22285,22 +22285,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -22308,15 +22308,15 @@
         </is>
       </c>
       <c r="L238" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>15/09/2023 12:28</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="N238" t="n">
-        <v>3.98</v>
+        <v>5.81</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -22324,15 +22324,15 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>3.8</v>
+        <v>5.12</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>15/09/2023 12:29</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="R238" t="n">
-        <v>5.66</v>
+        <v>7.23</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -22340,16 +22340,16 @@
         </is>
       </c>
       <c r="T238" t="n">
-        <v>5.3</v>
+        <v>5.03</v>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>15/09/2023 12:29</t>
+          <t>15/09/2023 11:58</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-kyoto/lnjxDYnP/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-sagan-tosu/0WdflkAO/</t>
         </is>
       </c>
     </row>
@@ -22469,22 +22469,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>2.04</v>
+        <v>2.94</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -22492,15 +22492,15 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>2.06</v>
+        <v>3.73</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>3.58</v>
+        <v>3.2</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -22508,15 +22508,15 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>3.63</v>
+        <v>2.98</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:58</t>
+          <t>16/09/2023 11:57</t>
         </is>
       </c>
       <c r="R240" t="n">
-        <v>3.8</v>
+        <v>2.64</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="T240" t="n">
-        <v>3.73</v>
+        <v>2.35</v>
       </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>16/09/2023 11:56</t>
+          <t>16/09/2023 11:59</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
         </is>
       </c>
     </row>
@@ -22561,22 +22561,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
         <v>1</v>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Nagoya Grampus</t>
-        </is>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
       <c r="J241" t="n">
-        <v>2.94</v>
+        <v>1.67</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -22584,15 +22584,15 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>3.73</v>
+        <v>1.65</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:59</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="N241" t="n">
-        <v>3.2</v>
+        <v>4.34</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -22600,15 +22600,15 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>2.98</v>
+        <v>4.49</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:57</t>
+          <t>16/09/2023 11:58</t>
         </is>
       </c>
       <c r="R241" t="n">
-        <v>2.64</v>
+        <v>4.87</v>
       </c>
       <c r="S241" t="inlineStr">
         <is>
@@ -22616,16 +22616,16 @@
         </is>
       </c>
       <c r="T241" t="n">
-        <v>2.35</v>
+        <v>4.92</v>
       </c>
       <c r="U241" t="inlineStr">
         <is>
-          <t>16/09/2023 11:59</t>
+          <t>16/09/2023 11:55</t>
         </is>
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-nagoya-grampus/zqOP3U9B/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
         </is>
       </c>
     </row>
@@ -22653,22 +22653,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G242" t="n">
+        <v>2</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Shonan Bellmare</t>
-        </is>
-      </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
       <c r="J242" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -22676,15 +22676,15 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:56</t>
         </is>
       </c>
       <c r="N242" t="n">
-        <v>4.34</v>
+        <v>3.58</v>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4.49</v>
+        <v>3.63</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         </is>
       </c>
       <c r="R242" t="n">
-        <v>4.87</v>
+        <v>3.8</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -22708,16 +22708,16 @@
         </is>
       </c>
       <c r="T242" t="n">
-        <v>4.92</v>
+        <v>3.73</v>
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>16/09/2023 11:55</t>
+          <t>16/09/2023 11:56</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-shonan-bellmare/YJR87CAn/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-vissel-kobe/jex48het/</t>
         </is>
       </c>
     </row>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -23213,22 +23213,22 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>17/09/2023 10:42</t>
+          <t>16/09/2023 11:13</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
@@ -23236,31 +23236,31 @@
         </is>
       </c>
       <c r="N248" t="n">
-        <v>3.19</v>
+        <v>3.74</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>17/09/2023 10:42</t>
+          <t>16/09/2023 11:13</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>2.82</v>
+        <v>3.48</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>23/09/2023 11:58</t>
+          <t>23/09/2023 11:54</t>
         </is>
       </c>
       <c r="R248" t="n">
-        <v>3.58</v>
+        <v>3.96</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>17/09/2023 10:42</t>
+          <t>16/09/2023 11:13</t>
         </is>
       </c>
       <c r="T248" t="n">
-        <v>3.7</v>
+        <v>3.06</v>
       </c>
       <c r="U248" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-avispa-fukuoka/MaQy1SgU/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-cerezo-osaka/f7c2HmvB/</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -23305,63 +23305,63 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J249" t="n">
-        <v>3.73</v>
+        <v>2.28</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>16/09/2023 11:13</t>
+          <t>17/09/2023 10:42</t>
         </is>
       </c>
       <c r="L249" t="n">
-        <v>4.92</v>
+        <v>2.48</v>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>23/09/2023 11:55</t>
+          <t>23/09/2023 11:57</t>
         </is>
       </c>
       <c r="N249" t="n">
-        <v>3.59</v>
+        <v>3.19</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>16/09/2023 11:13</t>
+          <t>17/09/2023 10:42</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3.95</v>
+        <v>2.82</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>23/09/2023 11:56</t>
+          <t>23/09/2023 11:58</t>
         </is>
       </c>
       <c r="R249" t="n">
-        <v>2.06</v>
+        <v>3.58</v>
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>16/09/2023 11:13</t>
+          <t>17/09/2023 10:42</t>
         </is>
       </c>
       <c r="T249" t="n">
-        <v>1.74</v>
+        <v>3.7</v>
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>23/09/2023 11:56</t>
+          <t>23/09/2023 11:57</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-sanfrecce-hiroshima/bu4gJ99b/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-avispa-fukuoka/MaQy1SgU/</t>
         </is>
       </c>
     </row>
@@ -23389,7 +23389,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -23397,14 +23397,14 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>1.94</v>
+        <v>3.73</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -23412,15 +23412,15 @@
         </is>
       </c>
       <c r="L250" t="n">
-        <v>2.42</v>
+        <v>4.92</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>23/09/2023 11:57</t>
+          <t>23/09/2023 11:55</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>3.74</v>
+        <v>3.59</v>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -23428,15 +23428,15 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3.48</v>
+        <v>3.95</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>23/09/2023 11:54</t>
+          <t>23/09/2023 11:56</t>
         </is>
       </c>
       <c r="R250" t="n">
-        <v>3.96</v>
+        <v>2.06</v>
       </c>
       <c r="S250" t="inlineStr">
         <is>
@@ -23444,16 +23444,16 @@
         </is>
       </c>
       <c r="T250" t="n">
-        <v>3.06</v>
+        <v>1.74</v>
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>23/09/2023 11:57</t>
+          <t>23/09/2023 11:56</t>
         </is>
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-cerezo-osaka/f7c2HmvB/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-sanfrecce-hiroshima/bu4gJ99b/</t>
         </is>
       </c>
     </row>
@@ -23757,42 +23757,42 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
         <v>2</v>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Albirex Niigata</t>
-        </is>
-      </c>
-      <c r="I254" t="n">
-        <v>3</v>
-      </c>
       <c r="J254" t="n">
-        <v>1.7</v>
+        <v>2.11</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="L254" t="n">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:36</t>
+          <t>29/09/2023 11:49</t>
         </is>
       </c>
       <c r="N254" t="n">
-        <v>4.09</v>
+        <v>3.54</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="P254" t="n">
@@ -23800,28 +23800,28 @@
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:57</t>
+          <t>29/09/2023 11:54</t>
         </is>
       </c>
       <c r="R254" t="n">
-        <v>4.95</v>
+        <v>3.54</v>
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t>24/09/2023 08:12</t>
+          <t>24/09/2023 07:12</t>
         </is>
       </c>
       <c r="T254" t="n">
-        <v>4.51</v>
+        <v>2.87</v>
       </c>
       <c r="U254" t="inlineStr">
         <is>
-          <t>29/09/2023 11:57</t>
+          <t>29/09/2023 11:54</t>
         </is>
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-albirex-niigata/lUd6G7gH/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-vissel-kobe/QgKZbuOq/</t>
         </is>
       </c>
     </row>
@@ -23849,42 +23849,42 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="I255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J255" t="n">
-        <v>2.11</v>
+        <v>1.7</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="L255" t="n">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:49</t>
+          <t>29/09/2023 11:36</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="P255" t="n">
@@ -23892,28 +23892,28 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:54</t>
+          <t>29/09/2023 11:57</t>
         </is>
       </c>
       <c r="R255" t="n">
-        <v>3.54</v>
+        <v>4.95</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>24/09/2023 07:12</t>
+          <t>24/09/2023 08:12</t>
         </is>
       </c>
       <c r="T255" t="n">
-        <v>2.87</v>
+        <v>4.51</v>
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>29/09/2023 11:54</t>
+          <t>29/09/2023 11:57</t>
         </is>
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-f-marinos-vissel-kobe/QgKZbuOq/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kawasaki-frontale-albirex-niigata/lUd6G7gH/</t>
         </is>
       </c>
     </row>
@@ -24309,7 +24309,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -24317,14 +24317,14 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J260" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -24332,15 +24332,15 @@
         </is>
       </c>
       <c r="L260" t="n">
-        <v>1.85</v>
+        <v>2.23</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:58</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -24348,15 +24348,15 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="R260" t="n">
-        <v>3.81</v>
+        <v>3.08</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="T260" t="n">
-        <v>4.71</v>
+        <v>3.26</v>
       </c>
       <c r="U260" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:32</t>
         </is>
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-nagoya-grampus/MLDrcJhd/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kyoto/xlbsIKUL/</t>
         </is>
       </c>
     </row>
@@ -24401,7 +24401,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -24409,14 +24409,14 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J261" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -24424,15 +24424,15 @@
         </is>
       </c>
       <c r="L261" t="n">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:58</t>
         </is>
       </c>
       <c r="N261" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -24440,15 +24440,15 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="R261" t="n">
-        <v>3.08</v>
+        <v>3.81</v>
       </c>
       <c r="S261" t="inlineStr">
         <is>
@@ -24456,16 +24456,16 @@
         </is>
       </c>
       <c r="T261" t="n">
-        <v>3.26</v>
+        <v>4.71</v>
       </c>
       <c r="U261" t="inlineStr">
         <is>
-          <t>30/09/2023 11:32</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kyoto/xlbsIKUL/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-nagoya-grampus/MLDrcJhd/</t>
         </is>
       </c>
     </row>
@@ -26149,22 +26149,22 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -26172,15 +26172,15 @@
         </is>
       </c>
       <c r="L280" t="n">
-        <v>2.85</v>
+        <v>3.78</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>11/11/2023 05:59</t>
+          <t>11/11/2023 05:58</t>
         </is>
       </c>
       <c r="N280" t="n">
-        <v>3.31</v>
+        <v>3.71</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -26188,15 +26188,15 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>3.33</v>
+        <v>4.17</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>11/11/2023 05:54</t>
+          <t>11/11/2023 05:53</t>
         </is>
       </c>
       <c r="R280" t="n">
-        <v>2.46</v>
+        <v>2.23</v>
       </c>
       <c r="S280" t="inlineStr">
         <is>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="T280" t="n">
-        <v>2.66</v>
+        <v>1.9</v>
       </c>
       <c r="U280" t="inlineStr">
         <is>
-          <t>11/11/2023 05:59</t>
+          <t>11/11/2023 05:53</t>
         </is>
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-nagoya-grampus/Yg0Mwyir/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-sanfrecce-hiroshima/Gxhwzgj7/</t>
         </is>
       </c>
     </row>
@@ -26241,22 +26241,22 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="n">
-        <v>2.25</v>
+        <v>3.03</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -26264,15 +26264,15 @@
         </is>
       </c>
       <c r="L281" t="n">
-        <v>2.33</v>
+        <v>2.85</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>11/11/2023 05:45</t>
+          <t>11/11/2023 05:59</t>
         </is>
       </c>
       <c r="N281" t="n">
-        <v>3.46</v>
+        <v>3.31</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
@@ -26280,15 +26280,15 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>11/11/2023 05:40</t>
+          <t>11/11/2023 05:54</t>
         </is>
       </c>
       <c r="R281" t="n">
-        <v>3.27</v>
+        <v>2.46</v>
       </c>
       <c r="S281" t="inlineStr">
         <is>
@@ -26296,16 +26296,16 @@
         </is>
       </c>
       <c r="T281" t="n">
-        <v>3.22</v>
+        <v>2.66</v>
       </c>
       <c r="U281" t="inlineStr">
         <is>
-          <t>11/11/2023 05:47</t>
+          <t>11/11/2023 05:59</t>
         </is>
       </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-fc-tokyo/nc4Qxe6l/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-nagoya-grampus/Yg0Mwyir/</t>
         </is>
       </c>
     </row>
@@ -26333,7 +26333,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G282" t="n">
@@ -26341,14 +26341,14 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>3.11</v>
+        <v>2.25</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -26356,15 +26356,15 @@
         </is>
       </c>
       <c r="L282" t="n">
-        <v>3.78</v>
+        <v>2.33</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>11/11/2023 05:58</t>
+          <t>11/11/2023 05:45</t>
         </is>
       </c>
       <c r="N282" t="n">
-        <v>3.71</v>
+        <v>3.46</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -26372,15 +26372,15 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>4.17</v>
+        <v>3.47</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>11/11/2023 05:53</t>
+          <t>11/11/2023 05:40</t>
         </is>
       </c>
       <c r="R282" t="n">
-        <v>2.23</v>
+        <v>3.27</v>
       </c>
       <c r="S282" t="inlineStr">
         <is>
@@ -26388,16 +26388,16 @@
         </is>
       </c>
       <c r="T282" t="n">
-        <v>1.9</v>
+        <v>3.22</v>
       </c>
       <c r="U282" t="inlineStr">
         <is>
-          <t>11/11/2023 05:53</t>
+          <t>11/11/2023 05:47</t>
         </is>
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-sanfrecce-hiroshima/Gxhwzgj7/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-fc-tokyo/nc4Qxe6l/</t>
         </is>
       </c>
     </row>
@@ -26425,7 +26425,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -26433,14 +26433,14 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Yokohama FC</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J283" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -26448,15 +26448,15 @@
         </is>
       </c>
       <c r="L283" t="n">
-        <v>3.06</v>
+        <v>2.63</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>11/11/2023 06:58</t>
+          <t>11/11/2023 06:57</t>
         </is>
       </c>
       <c r="N283" t="n">
-        <v>3.71</v>
+        <v>3.33</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -26464,15 +26464,15 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3.64</v>
+        <v>3.13</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>11/11/2023 06:46</t>
+          <t>11/11/2023 06:39</t>
         </is>
       </c>
       <c r="R283" t="n">
-        <v>3.71</v>
+        <v>4.04</v>
       </c>
       <c r="S283" t="inlineStr">
         <is>
@@ -26480,16 +26480,16 @@
         </is>
       </c>
       <c r="T283" t="n">
-        <v>2.36</v>
+        <v>3.05</v>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>11/11/2023 06:59</t>
+          <t>11/11/2023 06:57</t>
         </is>
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-fc/8ChZzZz1/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kashiwa-reysol/GEDfrHrR/</t>
         </is>
       </c>
     </row>
@@ -26517,7 +26517,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Gamba Osaka</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="G284" t="n">
@@ -26525,22 +26525,22 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="I284" t="n">
+        <v>3</v>
+      </c>
+      <c r="J284" t="n">
         <v>2</v>
       </c>
-      <c r="J284" t="n">
-        <v>2.39</v>
-      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>03/11/2023 07:43</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>2.84</v>
+        <v>3.06</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         </is>
       </c>
       <c r="N284" t="n">
-        <v>3.28</v>
+        <v>3.71</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -26556,32 +26556,32 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>3.06</v>
+        <v>3.64</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
+          <t>11/11/2023 06:46</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>03/11/2023 07:43</t>
+        </is>
+      </c>
+      <c r="T284" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
           <t>11/11/2023 06:59</t>
         </is>
       </c>
-      <c r="R284" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="S284" t="inlineStr">
-        <is>
-          <t>03/11/2023 07:43</t>
-        </is>
-      </c>
-      <c r="T284" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U284" t="inlineStr">
-        <is>
-          <t>11/11/2023 06:56</t>
-        </is>
-      </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-avispa-fukuoka/ULgVyFLf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-yokohama-fc/8ChZzZz1/</t>
         </is>
       </c>
     </row>
@@ -26609,7 +26609,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -26617,14 +26617,14 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J285" t="n">
-        <v>2.03</v>
+        <v>2.39</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -26632,15 +26632,15 @@
         </is>
       </c>
       <c r="L285" t="n">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>11/11/2023 06:57</t>
+          <t>11/11/2023 06:58</t>
         </is>
       </c>
       <c r="N285" t="n">
-        <v>3.33</v>
+        <v>3.28</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
@@ -26648,15 +26648,15 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3.13</v>
+        <v>3.06</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>11/11/2023 06:39</t>
+          <t>11/11/2023 06:59</t>
         </is>
       </c>
       <c r="R285" t="n">
-        <v>4.04</v>
+        <v>3.17</v>
       </c>
       <c r="S285" t="inlineStr">
         <is>
@@ -26664,16 +26664,16 @@
         </is>
       </c>
       <c r="T285" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>11/11/2023 06:57</t>
+          <t>11/11/2023 06:56</t>
         </is>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-kashiwa-reysol/GEDfrHrR/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-avispa-fukuoka/ULgVyFLf/</t>
         </is>
       </c>
     </row>
@@ -27161,22 +27161,22 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Shonan Bellmare</t>
         </is>
       </c>
       <c r="I291" t="n">
         <v>1</v>
       </c>
       <c r="J291" t="n">
-        <v>2.07</v>
+        <v>2.64</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -27184,15 +27184,15 @@
         </is>
       </c>
       <c r="L291" t="n">
-        <v>1.81</v>
+        <v>2.65</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>25/11/2023 05:31</t>
+          <t>25/11/2023 05:58</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>3.42</v>
+        <v>3.59</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -27200,15 +27200,15 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3.64</v>
+        <v>3.34</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>25/11/2023 05:54</t>
+          <t>25/11/2023 05:58</t>
         </is>
       </c>
       <c r="R291" t="n">
-        <v>3.79</v>
+        <v>2.63</v>
       </c>
       <c r="S291" t="inlineStr">
         <is>
@@ -27216,16 +27216,16 @@
         </is>
       </c>
       <c r="T291" t="n">
-        <v>4.98</v>
+        <v>2.85</v>
       </c>
       <c r="U291" t="inlineStr">
         <is>
-          <t>25/11/2023 05:57</t>
+          <t>25/11/2023 05:58</t>
         </is>
       </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-nagoya-grampus/ddDClh50/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-shonan-bellmare/OrF4jEzl/</t>
         </is>
       </c>
     </row>
@@ -27253,22 +27253,22 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="I292" t="n">
         <v>1</v>
       </c>
       <c r="J292" t="n">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -27276,15 +27276,15 @@
         </is>
       </c>
       <c r="L292" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>25/11/2023 05:49</t>
+          <t>25/11/2023 05:31</t>
         </is>
       </c>
       <c r="N292" t="n">
-        <v>3.87</v>
+        <v>3.42</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
@@ -27292,15 +27292,15 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>25/11/2023 05:49</t>
+          <t>25/11/2023 05:54</t>
         </is>
       </c>
       <c r="R292" t="n">
-        <v>4.87</v>
+        <v>3.79</v>
       </c>
       <c r="S292" t="inlineStr">
         <is>
@@ -27308,16 +27308,16 @@
         </is>
       </c>
       <c r="T292" t="n">
-        <v>4.37</v>
+        <v>4.98</v>
       </c>
       <c r="U292" t="inlineStr">
         <is>
-          <t>25/11/2023 05:49</t>
+          <t>25/11/2023 05:57</t>
         </is>
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kyoto/2ZD8kYkf/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/vissel-kobe-nagoya-grampus/ddDClh50/</t>
         </is>
       </c>
     </row>
@@ -27345,22 +27345,22 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="I293" t="n">
         <v>3</v>
       </c>
       <c r="J293" t="n">
-        <v>2.58</v>
+        <v>1.65</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -27368,15 +27368,15 @@
         </is>
       </c>
       <c r="L293" t="n">
-        <v>2.87</v>
+        <v>1.93</v>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>25/11/2023 05:58</t>
+          <t>25/11/2023 05:43</t>
         </is>
       </c>
       <c r="N293" t="n">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
@@ -27384,15 +27384,15 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>4.11</v>
+        <v>3.25</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>25/11/2023 05:53</t>
+          <t>25/11/2023 05:57</t>
         </is>
       </c>
       <c r="R293" t="n">
-        <v>2.67</v>
+        <v>6.05</v>
       </c>
       <c r="S293" t="inlineStr">
         <is>
@@ -27400,16 +27400,16 @@
         </is>
       </c>
       <c r="T293" t="n">
-        <v>2.29</v>
+        <v>4.92</v>
       </c>
       <c r="U293" t="inlineStr">
         <is>
-          <t>25/11/2023 05:52</t>
+          <t>25/11/2023 05:57</t>
         </is>
       </c>
       <c r="V293" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-hokkaido-consadole-sapporo/67KaifLs/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-avispa-fukuoka/Uo5PojkJ/</t>
         </is>
       </c>
     </row>
@@ -27437,22 +27437,22 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Kashiwa Reysol</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="I294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -27460,15 +27460,15 @@
         </is>
       </c>
       <c r="L294" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>25/11/2023 05:56</t>
+          <t>25/11/2023 05:57</t>
         </is>
       </c>
       <c r="N294" t="n">
-        <v>3.84</v>
+        <v>4.92</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
@@ -27476,15 +27476,15 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>25/11/2023 05:56</t>
+          <t>25/11/2023 05:57</t>
         </is>
       </c>
       <c r="R294" t="n">
-        <v>4.12</v>
+        <v>7.11</v>
       </c>
       <c r="S294" t="inlineStr">
         <is>
@@ -27492,16 +27492,16 @@
         </is>
       </c>
       <c r="T294" t="n">
-        <v>6.64</v>
+        <v>6.46</v>
       </c>
       <c r="U294" t="inlineStr">
         <is>
-          <t>25/11/2023 05:59</t>
+          <t>25/11/2023 05:57</t>
         </is>
       </c>
       <c r="V294" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-sagan-tosu/4bYXezDQ/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-gamba-osaka/GzNWgmst/</t>
         </is>
       </c>
     </row>
@@ -27529,22 +27529,22 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G295" t="n">
+        <v>1</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
         <v>3</v>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>Gamba Osaka</t>
-        </is>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
       <c r="J295" t="n">
-        <v>1.44</v>
+        <v>2.58</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -27552,15 +27552,15 @@
         </is>
       </c>
       <c r="L295" t="n">
-        <v>1.52</v>
+        <v>2.87</v>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>25/11/2023 05:57</t>
+          <t>25/11/2023 05:58</t>
         </is>
       </c>
       <c r="N295" t="n">
-        <v>4.92</v>
+        <v>3.69</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
@@ -27568,15 +27568,15 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>4.53</v>
+        <v>4.11</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>25/11/2023 05:57</t>
+          <t>25/11/2023 05:53</t>
         </is>
       </c>
       <c r="R295" t="n">
-        <v>7.11</v>
+        <v>2.67</v>
       </c>
       <c r="S295" t="inlineStr">
         <is>
@@ -27584,16 +27584,16 @@
         </is>
       </c>
       <c r="T295" t="n">
-        <v>6.46</v>
+        <v>2.29</v>
       </c>
       <c r="U295" t="inlineStr">
         <is>
-          <t>25/11/2023 05:57</t>
+          <t>25/11/2023 05:52</t>
         </is>
       </c>
       <c r="V295" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/sanfrecce-hiroshima-gamba-osaka/GzNWgmst/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/fc-tokyo-hokkaido-consadole-sapporo/67KaifLs/</t>
         </is>
       </c>
     </row>
@@ -27621,22 +27621,22 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J296" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -27644,15 +27644,15 @@
         </is>
       </c>
       <c r="L296" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>25/11/2023 05:43</t>
+          <t>25/11/2023 05:49</t>
         </is>
       </c>
       <c r="N296" t="n">
-        <v>3.67</v>
+        <v>3.87</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -27660,15 +27660,15 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>25/11/2023 05:57</t>
+          <t>25/11/2023 05:49</t>
         </is>
       </c>
       <c r="R296" t="n">
-        <v>6.05</v>
+        <v>4.87</v>
       </c>
       <c r="S296" t="inlineStr">
         <is>
@@ -27676,16 +27676,16 @@
         </is>
       </c>
       <c r="T296" t="n">
-        <v>4.92</v>
+        <v>4.37</v>
       </c>
       <c r="U296" t="inlineStr">
         <is>
-          <t>25/11/2023 05:57</t>
+          <t>25/11/2023 05:49</t>
         </is>
       </c>
       <c r="V296" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/urawa-reds-avispa-fukuoka/Uo5PojkJ/</t>
+          <t>https://www.betexplorer.com/football/japan/j1-league/cerezo-osaka-kyoto/2ZD8kYkf/</t>
         </is>
       </c>
     </row>
@@ -27713,71 +27713,899 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>2</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>2</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:56</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:56</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T297" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashiwa-reysol-sagan-tosu/4bYXezDQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45263.25</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:51</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P298" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:51</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T298" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:51</t>
+        </is>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/sagan-tosu-kawasaki-frontale/02ZNsslo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45263.25</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>1</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:34</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T299" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/albirex-niigata-cerezo-osaka/pGEmj5t5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45263.25</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:55</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P300" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:55</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T300" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:54</t>
+        </is>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/avispa-fukuoka-sanfrecce-hiroshima/OtrdnNuU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45263.25</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P301" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="R301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T301" t="n">
+        <v>2</v>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/gamba-osaka-vissel-kobe/UJrhm3QN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45263.25</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>2</v>
+      </c>
+      <c r="J302" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P302" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:57</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T302" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:57</t>
+        </is>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/hokkaido-consadole-sapporo-urawa-reds/fRLzg7dn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45263.25</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>2</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
           <t>Yokohama FC</t>
         </is>
       </c>
-      <c r="G297" t="n">
+      <c r="I303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P303" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="R303" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T303" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kashima-antlers-yokohama-fc/xjBuhRBh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45263.25</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>3</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:57</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:50</t>
+        </is>
+      </c>
+      <c r="R304" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T304" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:52</t>
+        </is>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/kyoto-yokohama-f-marinos/jTqllqBH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45263.25</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
         <v>0</v>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>Shonan Bellmare</t>
-        </is>
-      </c>
-      <c r="I297" t="n">
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>FC Tokyo</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
         <v>1</v>
       </c>
-      <c r="J297" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M297" t="inlineStr">
-        <is>
-          <t>25/11/2023 05:58</t>
-        </is>
-      </c>
-      <c r="N297" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P297" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q297" t="inlineStr">
-        <is>
-          <t>25/11/2023 05:58</t>
-        </is>
-      </c>
-      <c r="R297" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S297" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T297" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="U297" t="inlineStr">
-        <is>
-          <t>25/11/2023 05:58</t>
-        </is>
-      </c>
-      <c r="V297" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/japan/j1-league/yokohama-fc-shonan-bellmare/OrF4jEzl/</t>
+      <c r="J305" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:51</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:51</t>
+        </is>
+      </c>
+      <c r="R305" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T305" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:51</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/shonan-bellmare-fc-tokyo/jgFqioRb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>j1-league</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45263.28125</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>1</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:48</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:48</t>
+        </is>
+      </c>
+      <c r="R306" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="T306" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>03/12/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j1-league/nagoya-grampus-kashiwa-reysol/O6DikPeB/</t>
         </is>
       </c>
     </row>
